--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/full_obs_pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEE880-53AC-3449-9154-04A1C5C74B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B9422-BC15-8742-95C2-668D2482AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="1760" windowWidth="20320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,13 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2715,98 +2714,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/full_obs_pendulum/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B9422-BC15-8742-95C2-668D2482AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1760" windowWidth="20320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -181,39 +175,39 @@
     <t>add(vel, conditional(y, add(add(add(x, y), vel), add(x, x))))</t>
   </si>
   <si>
-    <t>Can not solve at grav 17</t>
+    <t>can not solve at grav 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,12 +219,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFdae3f3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -242,26 +257,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,10 +320,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -302,116 +350,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,2302 +437,3092 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:D130"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>-176.26</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="8">
         <v>-175.29</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="8">
         <v>-136.97</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="8">
         <v>-109.7</v>
       </c>
-      <c r="J3">
-        <v>-284.35000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I3" s="3"/>
+      <c r="J3" s="8">
+        <v>-284.35</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>-194.86</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="8">
         <v>-211.38</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="3"/>
+      <c r="F4" s="8">
         <v>-149.65</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="8">
         <v>-123.39</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="8">
         <v>-327.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>-223.36</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8">
         <v>-227.94</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
         <v>-145.68</v>
       </c>
-      <c r="H5">
-        <v>-129.38999999999999</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="8">
+        <v>-129.39</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8">
         <v>-278.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="K5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-272.52999999999997</v>
-      </c>
-      <c r="D6">
-        <v>-257.77999999999997</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="8">
+        <v>-272.53</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8">
+        <v>-257.78</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
         <v>-163.72</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="8">
         <v>-143.24</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="3"/>
+      <c r="J6" s="8">
         <v>-242.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="K6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-276.60000000000002</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="8">
+        <v>-276.6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8">
         <v>-294.36</v>
       </c>
-      <c r="F7">
-        <v>-163.52000000000001</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="8">
+        <v>-163.52</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8">
         <v>-154.82</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="3"/>
+      <c r="J7" s="8">
         <v>-263.94</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="K7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>-334.62</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="3"/>
+      <c r="D8" s="7">
         <v>-337</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="3"/>
+      <c r="F8" s="8">
         <v>-184.37</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="8">
         <v>-192.35</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="3"/>
+      <c r="J8" s="8">
         <v>-285.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="K8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>-373.79</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="3"/>
+      <c r="D9" s="8">
         <v>-385.64</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="3"/>
+      <c r="F9" s="8">
         <v>-205.41</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3"/>
+      <c r="H9" s="8">
         <v>-229.32</v>
       </c>
-      <c r="J9">
+      <c r="I9" s="3"/>
+      <c r="J9" s="8">
         <v>-314.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="K9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>-420.7</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="3"/>
+      <c r="D10" s="8">
         <v>-417.14</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="3"/>
+      <c r="F10" s="8">
         <v>-212.37</v>
       </c>
-      <c r="H10">
-        <v>-262.10000000000002</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="3"/>
+      <c r="H10" s="8">
+        <v>-262.1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8">
         <v>-337.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="K10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="8">
         <v>9.81</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>-510.84</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="8">
         <v>-507.65</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="3"/>
+      <c r="F11" s="8">
         <v>-249.04</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="3"/>
+      <c r="H11" s="8">
         <v>-326.94</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="3"/>
+      <c r="J11" s="8">
         <v>-369.68</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="K11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>-572.16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>-594.32000000000005</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="8">
+        <v>-594.32</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12">
-        <v>-257.22000000000003</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="8">
+        <v>-257.22</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>-312.87</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="3"/>
+      <c r="J12" s="8">
         <v>-409.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="K12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>-975.03</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>-963.77</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>-759.42</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>-327.91</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="3"/>
+      <c r="J13" s="8">
         <v>-785.28</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>-1091.72</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="8">
         <v>-1090.3</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="3"/>
+      <c r="F14" s="8">
         <v>-912.14</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3"/>
+      <c r="H14" s="8">
         <v>-653.63</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>-1009.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="K14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>-235.64</v>
       </c>
-      <c r="D17">
+      <c r="C17" s="3"/>
+      <c r="D17" s="8">
         <v>-443.69</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="3"/>
+      <c r="F17" s="8">
         <v>-112.63</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="3"/>
+      <c r="H17" s="8">
         <v>-815.72</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="3"/>
+      <c r="J17" s="8">
         <v>-245.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="K17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>-285.45999999999998</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="8">
+        <v>-285.46</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8">
         <v>-411.85</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="3"/>
+      <c r="F18" s="8">
         <v>-162.07</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="3"/>
+      <c r="H18" s="8">
         <v>-942.96</v>
       </c>
-      <c r="J18">
-        <v>-276.54000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="I18" s="3"/>
+      <c r="J18" s="8">
+        <v>-276.54</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>-331.12</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="3"/>
+      <c r="D19" s="8">
         <v>-505.13</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="3"/>
+      <c r="F19" s="8">
         <v>-169.98</v>
       </c>
-      <c r="H19">
-        <v>-1031.8499999999999</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="3"/>
+      <c r="H19" s="8">
+        <v>-1031.85</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="8">
         <v>-276.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="K19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>-361.74</v>
       </c>
-      <c r="D20">
-        <v>-530.58000000000004</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="8">
+        <v>-530.58</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>-164.48</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="3"/>
+      <c r="H20" s="8">
         <v>-941.2</v>
       </c>
-      <c r="J20">
+      <c r="I20" s="3"/>
+      <c r="J20" s="8">
         <v>-298.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="K20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>-345.19</v>
       </c>
-      <c r="D21">
-        <v>-562.54999999999995</v>
-      </c>
-      <c r="F21">
+      <c r="C21" s="3"/>
+      <c r="D21" s="8">
+        <v>-562.55</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8">
         <v>-180.37</v>
       </c>
-      <c r="H21">
+      <c r="G21" s="3"/>
+      <c r="H21" s="8">
         <v>-921.15</v>
       </c>
-      <c r="J21">
+      <c r="I21" s="3"/>
+      <c r="J21" s="8">
         <v>-302.94</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="K21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>-291.08</v>
       </c>
-      <c r="D22">
+      <c r="C22" s="3"/>
+      <c r="D22" s="8">
         <v>-674.53</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="3"/>
+      <c r="F22" s="8">
         <v>-206.84</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="3"/>
+      <c r="H22" s="8">
         <v>-971.65</v>
       </c>
-      <c r="J22">
+      <c r="I22" s="3"/>
+      <c r="J22" s="8">
         <v>-324.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="K22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>-238.43</v>
       </c>
-      <c r="D23">
+      <c r="C23" s="3"/>
+      <c r="D23" s="8">
         <v>-694.62</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="3"/>
+      <c r="F23" s="8">
         <v>-232.32</v>
       </c>
-      <c r="H23">
+      <c r="G23" s="3"/>
+      <c r="H23" s="8">
         <v>-1024.99</v>
       </c>
-      <c r="J23">
+      <c r="I23" s="3"/>
+      <c r="J23" s="8">
         <v>-329.68</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="K23" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="7">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>-203.99</v>
       </c>
-      <c r="D24">
+      <c r="C24" s="3"/>
+      <c r="D24" s="8">
         <v>-795.47</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="3"/>
+      <c r="F24" s="8">
         <v>-250.41</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="3"/>
+      <c r="H24" s="8">
         <v>-998.06</v>
       </c>
-      <c r="J24">
+      <c r="I24" s="3"/>
+      <c r="J24" s="8">
         <v>-362.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="K24" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="8">
         <v>9.81</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>-188.03</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="8">
         <v>-859.88</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="8">
         <v>-295.43</v>
       </c>
-      <c r="H25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="8">
         <v>-992.66</v>
       </c>
-      <c r="J25">
+      <c r="I25" s="3"/>
+      <c r="J25" s="8">
         <v>-498.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="K25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="7">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>-187.06</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="3"/>
+      <c r="D26" s="8">
         <v>-831.88</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>-347.88</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="3"/>
+      <c r="H26" s="8">
         <v>-902.8</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>-372.63</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="K26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>-195.91</v>
       </c>
-      <c r="D27">
+      <c r="C27" s="3"/>
+      <c r="D27" s="8">
         <v>-460.91</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="3"/>
+      <c r="F27" s="8">
         <v>-373.17</v>
       </c>
-      <c r="H27">
-        <v>-542.67999999999995</v>
-      </c>
-      <c r="J27">
+      <c r="G27" s="3"/>
+      <c r="H27" s="8">
+        <v>-542.68</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="8">
         <v>-361.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="K27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="7">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>-210.06</v>
       </c>
-      <c r="D28">
+      <c r="C28" s="3"/>
+      <c r="D28" s="8">
         <v>-970.01</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>-743.97</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H28">
-        <v>-1027.6500000000001</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="8">
+        <v>-1027.65</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>-898.47</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="7">
         <v>14</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>-219.09</v>
       </c>
-      <c r="D29">
+      <c r="C29" s="3"/>
+      <c r="D29" s="8">
         <v>-1066.26</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="3"/>
+      <c r="F29" s="8">
         <v>-1055.01</v>
       </c>
-      <c r="H29">
-        <v>-1142.6600000000001</v>
-      </c>
-      <c r="J29">
-        <v>-1042.3399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="G29" s="3"/>
+      <c r="H29" s="8">
+        <v>-1142.66</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="8">
+        <v>-1042.34</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="7">
         <v>15</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>-308.69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D30">
-        <v>-1157.1099999999999</v>
-      </c>
-      <c r="F30">
-        <v>-1157.0999999999999</v>
-      </c>
-      <c r="H30">
+      <c r="D30" s="8">
+        <v>-1157.11</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8">
+        <v>-1157.1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8">
         <v>-1212.04</v>
       </c>
-      <c r="J30">
-        <v>-1145.3900000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="I30" s="3"/>
+      <c r="J30" s="8">
+        <v>-1145.39</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="7">
         <v>16</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>-1000.48</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="3"/>
+      <c r="D31" s="8">
         <v>-1229.32</v>
       </c>
-      <c r="F31">
-        <v>-1230.6500000000001</v>
-      </c>
-      <c r="H31">
+      <c r="E31" s="3"/>
+      <c r="F31" s="8">
+        <v>-1230.65</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="8">
         <v>-1286.81</v>
       </c>
-      <c r="J31">
+      <c r="I31" s="3"/>
+      <c r="J31" s="8">
         <v>-1196.55</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="K31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="7">
         <v>17</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>-1111.29</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="3"/>
+      <c r="D32" s="8">
         <v>-1313.2</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="3"/>
+      <c r="F32" s="8">
         <v>-1302.75</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="3"/>
+      <c r="H32" s="8">
         <v>-1343.73</v>
       </c>
-      <c r="J32">
+      <c r="I32" s="3"/>
+      <c r="J32" s="8">
         <v>-1276.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="K32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="7">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>-627.88</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="3"/>
+      <c r="D35" s="8">
         <v>-920.82</v>
       </c>
-      <c r="F35">
-        <v>-144.05000000000001</v>
-      </c>
-      <c r="H35">
+      <c r="E35" s="3"/>
+      <c r="F35" s="8">
+        <v>-144.05</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="8">
         <v>-558.09</v>
       </c>
-      <c r="J35">
+      <c r="I35" s="3"/>
+      <c r="J35" s="8">
         <v>-586.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="K35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="7">
         <v>2</v>
       </c>
-      <c r="B36">
-        <v>-629.92999999999995</v>
-      </c>
-      <c r="D36">
+      <c r="B36" s="8">
+        <v>-629.93</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8">
         <v>-915.33</v>
       </c>
-      <c r="F36">
+      <c r="E36" s="3"/>
+      <c r="F36" s="8">
         <v>-143.57</v>
       </c>
-      <c r="H36">
+      <c r="G36" s="3"/>
+      <c r="H36" s="8">
         <v>-611.99</v>
       </c>
-      <c r="J36">
+      <c r="I36" s="3"/>
+      <c r="J36" s="8">
         <v>-590.64</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="K36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>-652.12</v>
       </c>
-      <c r="D37">
+      <c r="C37" s="3"/>
+      <c r="D37" s="8">
         <v>-841.76</v>
       </c>
-      <c r="F37">
+      <c r="E37" s="3"/>
+      <c r="F37" s="8">
         <v>-138.72</v>
       </c>
-      <c r="H37">
+      <c r="G37" s="3"/>
+      <c r="H37" s="8">
         <v>-612.11</v>
       </c>
-      <c r="J37">
-        <v>-527.19000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="I37" s="3"/>
+      <c r="J37" s="8">
+        <v>-527.19</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="7">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>-540.62</v>
       </c>
-      <c r="D38">
+      <c r="C38" s="3"/>
+      <c r="D38" s="8">
         <v>-805.13</v>
       </c>
-      <c r="F38">
+      <c r="E38" s="3"/>
+      <c r="F38" s="8">
         <v>-140.15</v>
       </c>
-      <c r="H38">
+      <c r="G38" s="3"/>
+      <c r="H38" s="8">
         <v>-549.75</v>
       </c>
-      <c r="J38">
+      <c r="I38" s="3"/>
+      <c r="J38" s="8">
         <v>-508.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="K38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="7">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>-695.48</v>
       </c>
-      <c r="D39">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8">
         <v>-751.86</v>
       </c>
-      <c r="F39">
+      <c r="E39" s="3"/>
+      <c r="F39" s="8">
         <v>-160.31</v>
       </c>
-      <c r="H39">
+      <c r="G39" s="3"/>
+      <c r="H39" s="8">
         <v>-695.34</v>
       </c>
-      <c r="J39">
+      <c r="I39" s="3"/>
+      <c r="J39" s="8">
         <v>-532.54</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="K39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="7">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>-681.42</v>
       </c>
-      <c r="D40">
+      <c r="C40" s="3"/>
+      <c r="D40" s="8">
         <v>-795.78</v>
       </c>
-      <c r="F40">
+      <c r="E40" s="3"/>
+      <c r="F40" s="8">
         <v>-165.83</v>
       </c>
-      <c r="H40">
+      <c r="G40" s="3"/>
+      <c r="H40" s="8">
         <v>-740.16</v>
       </c>
-      <c r="J40">
+      <c r="I40" s="3"/>
+      <c r="J40" s="8">
         <v>-570.47</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="K40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="7">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>-761.76</v>
       </c>
-      <c r="D41">
+      <c r="C41" s="3"/>
+      <c r="D41" s="8">
         <v>-859.65</v>
       </c>
-      <c r="F41">
+      <c r="E41" s="3"/>
+      <c r="F41" s="8">
         <v>-179.55</v>
       </c>
-      <c r="H41">
+      <c r="G41" s="3"/>
+      <c r="H41" s="8">
         <v>-868.58</v>
       </c>
-      <c r="J41">
+      <c r="I41" s="3"/>
+      <c r="J41" s="8">
         <v>-654.48</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="K41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="7">
         <v>8</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>-761.84</v>
       </c>
-      <c r="D42">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8">
         <v>-825.2</v>
       </c>
-      <c r="F42">
+      <c r="E42" s="3"/>
+      <c r="F42" s="8">
         <v>-215.35</v>
       </c>
-      <c r="H42">
+      <c r="G42" s="3"/>
+      <c r="H42" s="8">
         <v>-859.28</v>
       </c>
-      <c r="J42">
+      <c r="I42" s="3"/>
+      <c r="J42" s="8">
         <v>-672.63</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="K42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="8">
         <v>9.81</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>-752.43</v>
       </c>
-      <c r="D43">
+      <c r="C43" s="3"/>
+      <c r="D43" s="8">
         <v>-703.61</v>
       </c>
-      <c r="F43">
+      <c r="E43" s="3"/>
+      <c r="F43" s="8">
         <v>-278.37</v>
       </c>
-      <c r="H43">
+      <c r="G43" s="3"/>
+      <c r="H43" s="8">
         <v>-759.07</v>
       </c>
-      <c r="J43">
+      <c r="I43" s="3"/>
+      <c r="J43" s="8">
         <v>-661.31</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="K43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="7">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>-691.67</v>
       </c>
-      <c r="D44">
-        <v>-602.95000000000005</v>
-      </c>
-      <c r="F44">
-        <v>-322.52999999999997</v>
-      </c>
-      <c r="H44">
+      <c r="C44" s="3"/>
+      <c r="D44" s="8">
+        <v>-602.95</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="8">
+        <v>-322.53</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="8">
         <v>-777.38</v>
       </c>
-      <c r="J44">
+      <c r="I44" s="3"/>
+      <c r="J44" s="8">
         <v>-478.91</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="K44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="7">
         <v>12</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>-180.08</v>
       </c>
-      <c r="D45">
+      <c r="C45" s="3"/>
+      <c r="D45" s="8">
         <v>-198.92</v>
       </c>
-      <c r="F45">
+      <c r="E45" s="3"/>
+      <c r="F45" s="8">
         <v>-307.56</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="3"/>
+      <c r="H45" s="8">
         <v>-195.28</v>
       </c>
-      <c r="J45">
+      <c r="I45" s="3"/>
+      <c r="J45" s="8">
         <v>-216.85</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="K45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="7">
         <v>13</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>-206.4</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="3"/>
+      <c r="D46" s="8">
         <v>-207.37</v>
       </c>
-      <c r="F46">
+      <c r="E46" s="3"/>
+      <c r="F46" s="8">
         <v>-339.13</v>
       </c>
-      <c r="H46">
+      <c r="G46" s="3"/>
+      <c r="H46" s="8">
         <v>-210.04</v>
       </c>
-      <c r="J46">
-        <v>-304.79000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="I46" s="3"/>
+      <c r="J46" s="8">
+        <v>-304.79</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="7">
         <v>14</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>-249.65</v>
       </c>
-      <c r="D47">
+      <c r="C47" s="3"/>
+      <c r="D47" s="8">
         <v>-282.36</v>
       </c>
-      <c r="F47">
+      <c r="E47" s="3"/>
+      <c r="F47" s="8">
         <v>-940.6</v>
       </c>
-      <c r="H47">
+      <c r="G47" s="3"/>
+      <c r="H47" s="8">
         <v>-846.37</v>
       </c>
-      <c r="J47">
+      <c r="I47" s="3"/>
+      <c r="J47" s="8">
         <v>-880.99</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="K47" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="7">
         <v>15</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>-677.46</v>
       </c>
-      <c r="D48">
+      <c r="C48" s="3"/>
+      <c r="D48" s="8">
         <v>-936.85</v>
       </c>
-      <c r="F48">
+      <c r="E48" s="3"/>
+      <c r="F48" s="8">
         <v>-1087.46</v>
       </c>
-      <c r="H48">
+      <c r="G48" s="3"/>
+      <c r="H48" s="8">
         <v>-1012.65</v>
       </c>
-      <c r="J48">
+      <c r="I48" s="3"/>
+      <c r="J48" s="8">
         <v>-992.69</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="K48" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="7">
         <v>16</v>
       </c>
-      <c r="B49">
-        <v>-1036.1600000000001</v>
-      </c>
-      <c r="D49">
+      <c r="B49" s="8">
+        <v>-1036.16</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="8">
         <v>-1127.5</v>
       </c>
-      <c r="F49">
-        <v>-1138.3399999999999</v>
-      </c>
-      <c r="H49">
+      <c r="E49" s="3"/>
+      <c r="F49" s="8">
+        <v>-1138.34</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="8">
         <v>-1112.28</v>
       </c>
-      <c r="J49">
+      <c r="I49" s="3"/>
+      <c r="J49" s="8">
         <v>-1089.19</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="K49" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="7">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>-1137.19</v>
       </c>
-      <c r="D50">
-        <v>-1198.6099999999999</v>
-      </c>
-      <c r="F50">
+      <c r="C50" s="3"/>
+      <c r="D50" s="8">
+        <v>-1198.61</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="8">
         <v>-1254.22</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="3"/>
+      <c r="H50" s="8">
         <v>-1188.79</v>
       </c>
-      <c r="J50">
+      <c r="I50" s="3"/>
+      <c r="J50" s="8">
         <v>-1170.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="K50" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="7">
         <v>1</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>-344.73</v>
       </c>
-      <c r="D53">
+      <c r="C53" s="3"/>
+      <c r="D53" s="8">
         <v>-736.39</v>
       </c>
-      <c r="F53">
+      <c r="E53" s="3"/>
+      <c r="F53" s="8">
         <v>-1045.73</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="3"/>
+      <c r="H53" s="8">
         <v>-1141.83</v>
       </c>
-      <c r="J53">
-        <v>-1220.5899999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="I53" s="3"/>
+      <c r="J53" s="8">
+        <v>-1220.59</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="7">
         <v>2</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>-415.94</v>
       </c>
-      <c r="D54">
+      <c r="C54" s="3"/>
+      <c r="D54" s="8">
         <v>-763.46</v>
       </c>
-      <c r="F54">
-        <v>-1100.1400000000001</v>
-      </c>
-      <c r="H54">
+      <c r="E54" s="3"/>
+      <c r="F54" s="8">
+        <v>-1100.14</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="8">
         <v>-1136.71</v>
       </c>
-      <c r="J54">
+      <c r="I54" s="3"/>
+      <c r="J54" s="8">
         <v>-1253.73</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="K54" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="7">
         <v>3</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>-392.53</v>
       </c>
-      <c r="D55">
+      <c r="C55" s="3"/>
+      <c r="D55" s="7">
         <v>-778</v>
       </c>
-      <c r="F55">
+      <c r="E55" s="3"/>
+      <c r="F55" s="8">
         <v>-1361.57</v>
       </c>
-      <c r="H55">
+      <c r="G55" s="3"/>
+      <c r="H55" s="8">
         <v>-1130.26</v>
       </c>
-      <c r="J55">
+      <c r="I55" s="3"/>
+      <c r="J55" s="8">
         <v>-1275.47</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="K55" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="7">
         <v>4</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="8">
         <v>-392.07</v>
       </c>
-      <c r="D56">
+      <c r="C56" s="3"/>
+      <c r="D56" s="8">
         <v>-681.64</v>
       </c>
-      <c r="F56">
+      <c r="E56" s="3"/>
+      <c r="F56" s="8">
         <v>-1377.76</v>
       </c>
-      <c r="H56">
+      <c r="G56" s="3"/>
+      <c r="H56" s="8">
         <v>-1094.83</v>
       </c>
-      <c r="J56">
+      <c r="I56" s="3"/>
+      <c r="J56" s="8">
         <v>-1370.45</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="K56" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="7">
         <v>5</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>-477.74</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="8">
         <v>-710.1</v>
       </c>
-      <c r="F57">
+      <c r="E57" s="3"/>
+      <c r="F57" s="8">
         <v>-1319.7</v>
       </c>
-      <c r="H57">
-        <v>-1237.1300000000001</v>
-      </c>
-      <c r="J57">
+      <c r="G57" s="3"/>
+      <c r="H57" s="8">
+        <v>-1237.13</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="8">
         <v>-1421.61</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="K57" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="7">
         <v>6</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>-603.53</v>
       </c>
-      <c r="D58">
+      <c r="C58" s="3"/>
+      <c r="D58" s="8">
         <v>-720.46</v>
       </c>
-      <c r="F58">
+      <c r="E58" s="3"/>
+      <c r="F58" s="8">
         <v>-1320.47</v>
       </c>
-      <c r="H58">
+      <c r="G58" s="3"/>
+      <c r="H58" s="8">
         <v>-1207.46</v>
       </c>
-      <c r="J58">
+      <c r="I58" s="3"/>
+      <c r="J58" s="8">
         <v>-1454.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="K58" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="7">
         <v>7</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>-666.24</v>
       </c>
-      <c r="D59">
+      <c r="C59" s="3"/>
+      <c r="D59" s="8">
         <v>-681.5</v>
       </c>
-      <c r="F59">
+      <c r="E59" s="3"/>
+      <c r="F59" s="8">
         <v>-1329.74</v>
       </c>
-      <c r="H59">
+      <c r="G59" s="3"/>
+      <c r="H59" s="8">
         <v>-1217.94</v>
       </c>
-      <c r="J59">
+      <c r="I59" s="3"/>
+      <c r="J59" s="8">
         <v>-1393.46</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="K59" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="7">
         <v>8</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>-838.11</v>
       </c>
-      <c r="D60">
+      <c r="C60" s="3"/>
+      <c r="D60" s="8">
         <v>-790.76</v>
       </c>
-      <c r="F60">
-        <v>-1264.3499999999999</v>
-      </c>
-      <c r="H60">
-        <v>-1207.8699999999999</v>
-      </c>
-      <c r="J60">
+      <c r="E60" s="3"/>
+      <c r="F60" s="8">
+        <v>-1264.35</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="8">
+        <v>-1207.87</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="8">
         <v>-1365.06</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="K60" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="8">
         <v>9.81</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>-868.88</v>
       </c>
-      <c r="D61">
+      <c r="C61" s="3"/>
+      <c r="D61" s="8">
         <v>-936.46</v>
       </c>
-      <c r="F61">
-        <v>-1218.6199999999999</v>
-      </c>
-      <c r="H61">
-        <v>-1220.1400000000001</v>
-      </c>
-      <c r="J61">
-        <v>-1261.0899999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="E61" s="3"/>
+      <c r="F61" s="8">
+        <v>-1218.62</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="8">
+        <v>-1220.14</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="8">
+        <v>-1261.09</v>
+      </c>
+      <c r="K61" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15">
+      <c r="A62" s="7">
         <v>11</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>-881.16</v>
       </c>
-      <c r="D62">
+      <c r="C62" s="3"/>
+      <c r="D62" s="8">
         <v>-834.33</v>
       </c>
-      <c r="F62">
+      <c r="E62" s="3"/>
+      <c r="F62" s="8">
         <v>-1102.28</v>
       </c>
-      <c r="H62">
+      <c r="G62" s="3"/>
+      <c r="H62" s="8">
         <v>-1157.98</v>
       </c>
-      <c r="J62">
+      <c r="I62" s="3"/>
+      <c r="J62" s="8">
         <v>-1176.72</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="K62" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="7">
         <v>12</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>-801.51</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="8">
         <v>-848.61</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="8">
         <v>-1022.61</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="8">
         <v>-1114.97</v>
       </c>
-      <c r="J63">
+      <c r="I63" s="3"/>
+      <c r="J63" s="8">
         <v>-888.24</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="K63" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="7">
         <v>13</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>-498.1</v>
       </c>
-      <c r="D64">
+      <c r="C64" s="3"/>
+      <c r="D64" s="8">
         <v>-447.2</v>
       </c>
-      <c r="F64">
-        <v>-535.67999999999995</v>
-      </c>
-      <c r="H64">
+      <c r="E64" s="3"/>
+      <c r="F64" s="8">
+        <v>-535.68</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="8">
         <v>-1003.6</v>
       </c>
-      <c r="J64">
+      <c r="I64" s="3"/>
+      <c r="J64" s="8">
         <v>-922.54</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="K64" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="7">
         <v>14</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>-316.77</v>
       </c>
-      <c r="D65">
-        <v>-297.54000000000002</v>
-      </c>
-      <c r="F65">
+      <c r="C65" s="3"/>
+      <c r="D65" s="8">
+        <v>-297.54</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="8">
         <v>-296.92</v>
       </c>
-      <c r="H65">
+      <c r="G65" s="3"/>
+      <c r="H65" s="8">
         <v>-586.11</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="8">
         <v>-350.39</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="7">
         <v>15</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>-1001.16</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="8">
         <v>-885.38</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="8">
         <v>-975.5</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="8">
         <v>-1122.02</v>
       </c>
-      <c r="J66">
+      <c r="I66" s="3"/>
+      <c r="J66" s="8">
         <v>-1128.73</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="K66" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="7">
         <v>16</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>-1069.83</v>
       </c>
-      <c r="D67">
+      <c r="C67" s="3"/>
+      <c r="D67" s="8">
         <v>-1016.08</v>
       </c>
-      <c r="F67">
+      <c r="E67" s="3"/>
+      <c r="F67" s="8">
         <v>-1075.46</v>
       </c>
-      <c r="H67">
-        <v>-1213.4100000000001</v>
-      </c>
-      <c r="J67">
-        <v>-1231.5999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="G67" s="3"/>
+      <c r="H67" s="8">
+        <v>-1213.41</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="8">
+        <v>-1231.6</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="7">
         <v>17</v>
       </c>
-      <c r="B68">
-        <v>-1210.9000000000001</v>
-      </c>
-      <c r="D68">
+      <c r="B68" s="8">
+        <v>-1210.9</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="8">
         <v>-1102.2</v>
       </c>
-      <c r="F68">
+      <c r="E68" s="3"/>
+      <c r="F68" s="8">
         <v>-1182.99</v>
       </c>
-      <c r="H68">
+      <c r="G68" s="3"/>
+      <c r="H68" s="8">
         <v>-1298.57</v>
       </c>
-      <c r="J68">
-        <v>-1298.3800000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="I68" s="3"/>
+      <c r="J68" s="8">
+        <v>-1298.38</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="7">
         <v>1</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>-1453.79</v>
       </c>
-      <c r="D71">
+      <c r="C71" s="3"/>
+      <c r="D71" s="8">
         <v>-760.41</v>
       </c>
-      <c r="F71">
+      <c r="E71" s="3"/>
+      <c r="F71" s="8">
         <v>-1121.49</v>
       </c>
-      <c r="H71">
+      <c r="G71" s="3"/>
+      <c r="H71" s="8">
         <v>-456.64</v>
       </c>
-      <c r="J71">
+      <c r="I71" s="3"/>
+      <c r="J71" s="8">
         <v>-974.77</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="K71" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="7">
         <v>2</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>-1520.61</v>
       </c>
-      <c r="D72">
+      <c r="C72" s="3"/>
+      <c r="D72" s="8">
         <v>-827.56</v>
       </c>
-      <c r="F72">
+      <c r="E72" s="3"/>
+      <c r="F72" s="8">
         <v>-1161.08</v>
       </c>
-      <c r="H72">
+      <c r="G72" s="3"/>
+      <c r="H72" s="8">
         <v>-427.1</v>
       </c>
-      <c r="J72">
+      <c r="I72" s="3"/>
+      <c r="J72" s="8">
         <v>-927.82</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="K72" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="7">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>-1393.57</v>
       </c>
-      <c r="D73">
+      <c r="C73" s="3"/>
+      <c r="D73" s="8">
         <v>-826.14</v>
       </c>
-      <c r="F73">
+      <c r="E73" s="3"/>
+      <c r="F73" s="8">
         <v>-1267.21</v>
       </c>
-      <c r="H73">
+      <c r="G73" s="3"/>
+      <c r="H73" s="8">
         <v>-462.76</v>
       </c>
-      <c r="J73">
+      <c r="I73" s="3"/>
+      <c r="J73" s="8">
         <v>-859.78</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="K73" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="7">
         <v>4</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>-1404.73</v>
       </c>
-      <c r="D74">
+      <c r="C74" s="3"/>
+      <c r="D74" s="8">
         <v>-757.26</v>
       </c>
-      <c r="F74">
+      <c r="E74" s="3"/>
+      <c r="F74" s="8">
         <v>-1289.3</v>
       </c>
-      <c r="H74">
+      <c r="G74" s="3"/>
+      <c r="H74" s="8">
         <v>-533.73</v>
       </c>
-      <c r="J74">
+      <c r="I74" s="3"/>
+      <c r="J74" s="8">
         <v>-962.88</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="K74" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="7">
         <v>5</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>-1492.29</v>
       </c>
-      <c r="D75">
+      <c r="C75" s="3"/>
+      <c r="D75" s="8">
         <v>-946.3</v>
       </c>
-      <c r="F75">
+      <c r="E75" s="3"/>
+      <c r="F75" s="8">
         <v>-1292.47</v>
       </c>
-      <c r="H75">
-        <v>-576.57000000000005</v>
-      </c>
-      <c r="J75">
-        <v>-1064.3599999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="G75" s="3"/>
+      <c r="H75" s="8">
+        <v>-576.57</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="8">
+        <v>-1064.36</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="7">
         <v>6</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="8">
         <v>-1477.46</v>
       </c>
-      <c r="D76">
+      <c r="C76" s="3"/>
+      <c r="D76" s="8">
         <v>-1177.72</v>
       </c>
-      <c r="F76">
+      <c r="E76" s="3"/>
+      <c r="F76" s="8">
         <v>-1406.77</v>
       </c>
-      <c r="H76">
+      <c r="G76" s="3"/>
+      <c r="H76" s="8">
         <v>-601.75</v>
       </c>
-      <c r="J76">
+      <c r="I76" s="3"/>
+      <c r="J76" s="8">
         <v>-980.99</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="K76" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="7">
         <v>7</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="8">
         <v>-1438.36</v>
       </c>
-      <c r="D77">
+      <c r="C77" s="3"/>
+      <c r="D77" s="8">
         <v>-1194.82</v>
       </c>
-      <c r="F77">
+      <c r="E77" s="3"/>
+      <c r="F77" s="8">
         <v>-1394.56</v>
       </c>
-      <c r="H77">
-        <v>-599.45000000000005</v>
-      </c>
-      <c r="J77">
+      <c r="G77" s="3"/>
+      <c r="H77" s="8">
+        <v>-599.45</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="8">
         <v>-1052.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="K77" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="7">
         <v>8</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="8">
         <v>-1483.72</v>
       </c>
-      <c r="D78">
-        <v>-1129.1099999999999</v>
-      </c>
-      <c r="F78">
+      <c r="C78" s="3"/>
+      <c r="D78" s="8">
+        <v>-1129.11</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="8">
         <v>-1414.71</v>
       </c>
-      <c r="H78">
+      <c r="G78" s="3"/>
+      <c r="H78" s="8">
         <v>-560.28</v>
       </c>
-      <c r="J78">
+      <c r="I78" s="3"/>
+      <c r="J78" s="8">
         <v>-974.26</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="K78" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="8">
         <v>9.81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>-1456.44</v>
       </c>
-      <c r="D79">
+      <c r="C79" s="3"/>
+      <c r="D79" s="8">
         <v>-1110.55</v>
       </c>
-      <c r="F79">
+      <c r="E79" s="3"/>
+      <c r="F79" s="8">
         <v>-1378.87</v>
       </c>
-      <c r="H79">
+      <c r="G79" s="3"/>
+      <c r="H79" s="8">
         <v>-624.62</v>
       </c>
-      <c r="J79">
-        <v>-1060.3900000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="I79" s="3"/>
+      <c r="J79" s="8">
+        <v>-1060.39</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="7">
         <v>11</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>-1400.03</v>
       </c>
-      <c r="D80">
-        <v>-1109.3699999999999</v>
-      </c>
-      <c r="F80">
+      <c r="C80" s="3"/>
+      <c r="D80" s="8">
+        <v>-1109.37</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="8">
         <v>-1383.68</v>
       </c>
-      <c r="H80">
+      <c r="G80" s="3"/>
+      <c r="H80" s="7">
         <v>-702</v>
       </c>
-      <c r="J80">
-        <v>-1028.1099999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="I80" s="3"/>
+      <c r="J80" s="8">
+        <v>-1028.11</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="7">
         <v>12</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>-1337.05</v>
       </c>
-      <c r="D81">
+      <c r="C81" s="3"/>
+      <c r="D81" s="8">
         <v>-1051.27</v>
       </c>
-      <c r="F81">
+      <c r="E81" s="3"/>
+      <c r="F81" s="8">
         <v>-1340.28</v>
       </c>
-      <c r="H81">
+      <c r="G81" s="3"/>
+      <c r="H81" s="8">
         <v>-680.9</v>
       </c>
-      <c r="J81">
+      <c r="I81" s="3"/>
+      <c r="J81" s="8">
         <v>-1034.74</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="K81" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="7">
         <v>13</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="8">
         <v>-1301.5</v>
       </c>
-      <c r="D82">
+      <c r="C82" s="3"/>
+      <c r="D82" s="8">
         <v>-989.27</v>
       </c>
-      <c r="F82">
-        <v>-1261.0999999999999</v>
-      </c>
-      <c r="H82">
+      <c r="E82" s="3"/>
+      <c r="F82" s="8">
+        <v>-1261.1</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="8">
         <v>-732.83</v>
       </c>
-      <c r="J82">
+      <c r="I82" s="3"/>
+      <c r="J82" s="8">
         <v>-984.91</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="K82" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="7">
         <v>14</v>
       </c>
-      <c r="B83">
-        <v>-1213.8499999999999</v>
-      </c>
-      <c r="D83">
+      <c r="B83" s="8">
+        <v>-1213.85</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="8">
         <v>-834.4</v>
       </c>
-      <c r="F83">
-        <v>-1141.8599999999999</v>
-      </c>
-      <c r="H83">
+      <c r="E83" s="3"/>
+      <c r="F83" s="8">
+        <v>-1141.86</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="8">
         <v>-543.53</v>
       </c>
-      <c r="J83">
+      <c r="I83" s="3"/>
+      <c r="J83" s="8">
         <v>-849.06</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="K83" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="7">
         <v>15</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="8">
         <v>-199.43</v>
       </c>
-      <c r="D84">
+      <c r="C84" s="3"/>
+      <c r="D84" s="8">
         <v>-310.25</v>
       </c>
-      <c r="F84">
+      <c r="E84" s="3"/>
+      <c r="F84" s="8">
         <v>-214.04</v>
       </c>
-      <c r="H84">
+      <c r="G84" s="3"/>
+      <c r="H84" s="8">
         <v>-361.29</v>
       </c>
-      <c r="J84">
+      <c r="I84" s="3"/>
+      <c r="J84" s="8">
         <v>-287.38</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="K84" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="7">
         <v>16</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="8">
         <v>-1056.18</v>
       </c>
-      <c r="D85">
+      <c r="C85" s="3"/>
+      <c r="D85" s="8">
         <v>-403.08</v>
       </c>
-      <c r="F85">
+      <c r="E85" s="3"/>
+      <c r="F85" s="8">
         <v>-946.51</v>
       </c>
-      <c r="H85">
+      <c r="G85" s="3"/>
+      <c r="H85" s="8">
         <v>-884.62</v>
       </c>
-      <c r="J85">
+      <c r="I85" s="3"/>
+      <c r="J85" s="8">
         <v>-872.27</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="K85" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="7">
         <v>17</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="8">
         <v>-1184.2</v>
       </c>
-      <c r="D86">
+      <c r="C86" s="3"/>
+      <c r="D86" s="8">
         <v>-1218.17</v>
       </c>
-      <c r="F86">
+      <c r="E86" s="3"/>
+      <c r="F86" s="8">
         <v>-1099.28</v>
       </c>
-      <c r="H86">
+      <c r="G86" s="3"/>
+      <c r="H86" s="8">
         <v>-1027.31</v>
       </c>
-      <c r="J86">
+      <c r="I86" s="3"/>
+      <c r="J86" s="8">
         <v>-1053.97</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="K86" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="7">
         <v>1</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="8">
         <v>-1657.45</v>
       </c>
-      <c r="D89">
+      <c r="C89" s="3"/>
+      <c r="D89" s="8">
         <v>-1663.36</v>
       </c>
-      <c r="F89">
+      <c r="E89" s="3"/>
+      <c r="F89" s="8">
         <v>-1651.71</v>
       </c>
-      <c r="H89">
+      <c r="G89" s="3"/>
+      <c r="H89" s="8">
         <v>-1646.33</v>
       </c>
-      <c r="J89">
+      <c r="I89" s="3"/>
+      <c r="J89" s="8">
         <v>-1614.23</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="K89" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="7">
         <v>2</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="8">
         <v>-1675.7</v>
       </c>
-      <c r="D90">
+      <c r="C90" s="3"/>
+      <c r="D90" s="8">
         <v>-1650.08</v>
       </c>
-      <c r="F90">
+      <c r="E90" s="3"/>
+      <c r="F90" s="8">
         <v>-1668.96</v>
       </c>
-      <c r="H90">
+      <c r="G90" s="3"/>
+      <c r="H90" s="8">
         <v>-1663.76</v>
       </c>
-      <c r="J90">
+      <c r="I90" s="3"/>
+      <c r="J90" s="8">
         <v>-1623.06</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="K90" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="7">
         <v>3</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="8">
         <v>-1722.61</v>
       </c>
-      <c r="D91">
+      <c r="C91" s="3"/>
+      <c r="D91" s="8">
         <v>-1654.88</v>
       </c>
-      <c r="F91">
+      <c r="E91" s="3"/>
+      <c r="F91" s="8">
         <v>-1680.03</v>
       </c>
-      <c r="H91">
+      <c r="G91" s="3"/>
+      <c r="H91" s="8">
         <v>-1650.32</v>
       </c>
-      <c r="J91">
+      <c r="I91" s="3"/>
+      <c r="J91" s="8">
         <v>-1627.76</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="K91" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="7">
         <v>4</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="8">
         <v>-1676.01</v>
       </c>
-      <c r="D92">
+      <c r="C92" s="3"/>
+      <c r="D92" s="8">
         <v>-1667.17</v>
       </c>
-      <c r="F92">
+      <c r="E92" s="3"/>
+      <c r="F92" s="8">
         <v>-1696.11</v>
       </c>
-      <c r="H92">
+      <c r="G92" s="3"/>
+      <c r="H92" s="8">
         <v>-1684.45</v>
       </c>
-      <c r="J92">
+      <c r="I92" s="3"/>
+      <c r="J92" s="8">
         <v>-1638.02</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="K92" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="7">
         <v>5</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="8">
         <v>-1652.73</v>
       </c>
-      <c r="D93">
+      <c r="C93" s="3"/>
+      <c r="D93" s="8">
         <v>-1623.67</v>
       </c>
-      <c r="F93">
+      <c r="E93" s="3"/>
+      <c r="F93" s="8">
         <v>-1640.31</v>
       </c>
-      <c r="H93">
+      <c r="G93" s="3"/>
+      <c r="H93" s="8">
         <v>-1684.6</v>
       </c>
-      <c r="J93">
+      <c r="I93" s="3"/>
+      <c r="J93" s="8">
         <v>-1576.96</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="K93" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="7">
         <v>6</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="8">
         <v>-1646.57</v>
       </c>
-      <c r="D94">
+      <c r="C94" s="3"/>
+      <c r="D94" s="8">
         <v>-1610.2</v>
       </c>
-      <c r="F94">
+      <c r="E94" s="3"/>
+      <c r="F94" s="8">
         <v>-1675.87</v>
       </c>
-      <c r="H94">
+      <c r="G94" s="3"/>
+      <c r="H94" s="8">
         <v>-1642.98</v>
       </c>
-      <c r="J94">
+      <c r="I94" s="3"/>
+      <c r="J94" s="8">
         <v>-1567.03</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="K94" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="7">
         <v>7</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="8">
         <v>-1607.4</v>
       </c>
-      <c r="D95">
+      <c r="C95" s="3"/>
+      <c r="D95" s="8">
         <v>-1592.37</v>
       </c>
-      <c r="F95">
+      <c r="E95" s="3"/>
+      <c r="F95" s="8">
         <v>-1653.89</v>
       </c>
-      <c r="H95">
+      <c r="G95" s="3"/>
+      <c r="H95" s="8">
         <v>-1642.6</v>
       </c>
-      <c r="J95">
+      <c r="I95" s="3"/>
+      <c r="J95" s="8">
         <v>-1582.69</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="K95" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="7">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="8">
         <v>-1539.46</v>
       </c>
-      <c r="D96">
+      <c r="C96" s="3"/>
+      <c r="D96" s="8">
         <v>-1500.45</v>
       </c>
-      <c r="F96">
+      <c r="E96" s="3"/>
+      <c r="F96" s="8">
         <v>-1597.1</v>
       </c>
-      <c r="H96">
+      <c r="G96" s="3"/>
+      <c r="H96" s="8">
         <v>-1628.86</v>
       </c>
-      <c r="J96">
+      <c r="I96" s="3"/>
+      <c r="J96" s="8">
         <v>-1528.18</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="K96" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="8">
         <v>9.81</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="8">
         <v>-1514.87</v>
       </c>
-      <c r="D97">
+      <c r="C97" s="3"/>
+      <c r="D97" s="8">
         <v>-1454.76</v>
       </c>
-      <c r="F97">
+      <c r="E97" s="3"/>
+      <c r="F97" s="8">
         <v>-1515.61</v>
       </c>
-      <c r="H97">
+      <c r="G97" s="3"/>
+      <c r="H97" s="8">
         <v>-1486.96</v>
       </c>
-      <c r="J97">
+      <c r="I97" s="3"/>
+      <c r="J97" s="8">
         <v>-1505.94</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="K97" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="7">
         <v>11</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="8">
         <v>-1421.52</v>
       </c>
-      <c r="D98">
+      <c r="C98" s="3"/>
+      <c r="D98" s="8">
         <v>-1394.09</v>
       </c>
-      <c r="F98">
+      <c r="E98" s="3"/>
+      <c r="F98" s="8">
         <v>-1417.2</v>
       </c>
-      <c r="H98">
+      <c r="G98" s="3"/>
+      <c r="H98" s="8">
         <v>-1412.7</v>
       </c>
-      <c r="J98">
+      <c r="I98" s="3"/>
+      <c r="J98" s="8">
         <v>-1426.05</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="K98" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="7">
         <v>12</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="8">
         <v>-1362.41</v>
       </c>
-      <c r="D99">
+      <c r="C99" s="3"/>
+      <c r="D99" s="8">
         <v>-1409.83</v>
       </c>
-      <c r="F99">
+      <c r="E99" s="3"/>
+      <c r="F99" s="8">
         <v>-1388.37</v>
       </c>
-      <c r="H99">
+      <c r="G99" s="3"/>
+      <c r="H99" s="8">
         <v>-1399.02</v>
       </c>
-      <c r="J99">
+      <c r="I99" s="3"/>
+      <c r="J99" s="8">
         <v>-1420.19</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="K99" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="7">
         <v>13</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="8">
         <v>-1306.95</v>
       </c>
-      <c r="D100">
+      <c r="C100" s="3"/>
+      <c r="D100" s="8">
         <v>-1291.01</v>
       </c>
-      <c r="F100">
+      <c r="E100" s="3"/>
+      <c r="F100" s="8">
         <v>-1338.18</v>
       </c>
-      <c r="H100">
+      <c r="G100" s="3"/>
+      <c r="H100" s="8">
         <v>-1303.82</v>
       </c>
-      <c r="J100">
+      <c r="I100" s="3"/>
+      <c r="J100" s="8">
         <v>-1294.17</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="K100" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="7">
         <v>14</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="8">
         <v>-1209.49</v>
       </c>
-      <c r="D101">
+      <c r="C101" s="3"/>
+      <c r="D101" s="8">
         <v>-1212.96</v>
       </c>
-      <c r="F101">
-        <v>-1232.3699999999999</v>
-      </c>
-      <c r="H101">
+      <c r="E101" s="3"/>
+      <c r="F101" s="8">
+        <v>-1232.37</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="8">
         <v>-1229.18</v>
       </c>
-      <c r="J101">
+      <c r="I101" s="3"/>
+      <c r="J101" s="8">
         <v>-1218.55</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="K101" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="7">
         <v>15</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="8">
         <v>-1120.25</v>
       </c>
-      <c r="D102">
+      <c r="C102" s="3"/>
+      <c r="D102" s="8">
         <v>-1092.79</v>
       </c>
-      <c r="F102">
+      <c r="E102" s="3"/>
+      <c r="F102" s="8">
         <v>-1093.99</v>
       </c>
-      <c r="H102">
+      <c r="G102" s="3"/>
+      <c r="H102" s="8">
         <v>-1094.32</v>
       </c>
-      <c r="J102">
+      <c r="I102" s="3"/>
+      <c r="J102" s="8">
         <v>-1098.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="K102" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="7">
         <v>16</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="8">
         <v>-236.25</v>
       </c>
-      <c r="D103">
+      <c r="C103" s="3"/>
+      <c r="D103" s="8">
         <v>-199.2</v>
       </c>
-      <c r="F103">
+      <c r="E103" s="3"/>
+      <c r="F103" s="8">
         <v>-214.78</v>
       </c>
-      <c r="H103">
+      <c r="G103" s="3"/>
+      <c r="H103" s="8">
         <v>-213.35</v>
       </c>
-      <c r="J103">
+      <c r="I103" s="3"/>
+      <c r="J103" s="8">
         <v>-270.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="K103" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="7">
         <v>17</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="8">
         <v>-1064.58</v>
       </c>
-      <c r="D104">
+      <c r="C104" s="3"/>
+      <c r="D104" s="8">
         <v>-1072.75</v>
       </c>
-      <c r="F104">
-        <v>-1093.5999999999999</v>
-      </c>
-      <c r="H104">
-        <v>-1090.3499999999999</v>
-      </c>
-      <c r="J104">
+      <c r="E104" s="3"/>
+      <c r="F104" s="8">
+        <v>-1093.6</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="8">
+        <v>-1090.35</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="8">
         <v>-1056.19</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+      <c r="K104" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -192,6 +192,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -204,23 +205,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -233,16 +229,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,36 +253,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -294,12 +299,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -326,28 +325,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -603,7 +602,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -612,17 +611,34 @@
     <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,2891 +652,4489 @@
       <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="L1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="7">
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>-176.26</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="9">
         <v>-175.29</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8">
+      <c r="E3" s="6"/>
+      <c r="F3" s="9">
         <v>-136.97</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8">
+      <c r="G3" s="6"/>
+      <c r="H3" s="9">
         <v>-109.7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="8">
+      <c r="I3" s="6"/>
+      <c r="J3" s="9">
         <v>-284.35</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="7">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>-194.86</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="9">
         <v>-211.38</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8">
+      <c r="E4" s="6"/>
+      <c r="F4" s="9">
         <v>-149.65</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="8">
+      <c r="G4" s="6"/>
+      <c r="H4" s="9">
         <v>-123.39</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="8">
+      <c r="I4" s="6"/>
+      <c r="J4" s="9">
         <v>-327.68</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="7">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>-223.36</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8">
+      <c r="C5" s="6"/>
+      <c r="D5" s="9">
         <v>-227.94</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8">
+      <c r="E5" s="6"/>
+      <c r="F5" s="9">
         <v>-145.68</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="8">
+      <c r="G5" s="6"/>
+      <c r="H5" s="9">
         <v>-129.39</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="8">
+      <c r="I5" s="6"/>
+      <c r="J5" s="9">
         <v>-278.5</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="7">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>-272.53</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8">
+      <c r="C6" s="6"/>
+      <c r="D6" s="9">
         <v>-257.78</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8">
+      <c r="E6" s="6"/>
+      <c r="F6" s="9">
         <v>-163.72</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="8">
+      <c r="G6" s="6"/>
+      <c r="H6" s="9">
         <v>-143.24</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8">
+      <c r="I6" s="6"/>
+      <c r="J6" s="9">
         <v>-242.51</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="7">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>-276.6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="9">
         <v>-294.36</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8">
+      <c r="E7" s="6"/>
+      <c r="F7" s="9">
         <v>-163.52</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="8">
+      <c r="G7" s="6"/>
+      <c r="H7" s="9">
         <v>-154.82</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8">
+      <c r="I7" s="6"/>
+      <c r="J7" s="9">
         <v>-263.94</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="7">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>-334.62</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="8">
         <v>-337</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8">
+      <c r="E8" s="6"/>
+      <c r="F8" s="9">
         <v>-184.37</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8">
+      <c r="G8" s="6"/>
+      <c r="H8" s="9">
         <v>-192.35</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8">
+      <c r="I8" s="6"/>
+      <c r="J8" s="9">
         <v>-285.43</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="7">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>-373.79</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8">
+      <c r="C9" s="6"/>
+      <c r="D9" s="9">
         <v>-385.64</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="9">
         <v>-205.41</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8">
+      <c r="G9" s="6"/>
+      <c r="H9" s="9">
         <v>-229.32</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="8">
+      <c r="I9" s="6"/>
+      <c r="J9" s="9">
         <v>-314.55</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="7">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>-420.7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8">
+      <c r="C10" s="6"/>
+      <c r="D10" s="9">
         <v>-417.14</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="9">
         <v>-212.37</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8">
+      <c r="G10" s="6"/>
+      <c r="H10" s="9">
         <v>-262.1</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8">
+      <c r="I10" s="6"/>
+      <c r="J10" s="9">
         <v>-337.11</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="8">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="9">
         <v>9.81</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>-510.84</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8">
+      <c r="C11" s="6"/>
+      <c r="D11" s="9">
         <v>-507.65</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8">
+      <c r="E11" s="6"/>
+      <c r="F11" s="9">
         <v>-249.04</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8">
+      <c r="G11" s="6"/>
+      <c r="H11" s="9">
         <v>-326.94</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8">
+      <c r="I11" s="6"/>
+      <c r="J11" s="9">
         <v>-369.68</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="7">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>-572.16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>-594.32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>-257.22</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>-312.87</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8">
+      <c r="I12" s="6"/>
+      <c r="J12" s="9">
         <v>-409.15</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="7">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>-975.03</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>-963.77</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>-759.42</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>-327.91</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8">
+      <c r="I13" s="6"/>
+      <c r="J13" s="9">
         <v>-785.28</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="7">
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>-1091.72</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8">
+      <c r="C14" s="6"/>
+      <c r="D14" s="9">
         <v>-1090.3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8">
+      <c r="E14" s="6"/>
+      <c r="F14" s="9">
         <v>-912.14</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8">
+      <c r="G14" s="6"/>
+      <c r="H14" s="9">
         <v>-653.63</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>-1009.74</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>-235.64</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8">
+      <c r="C17" s="6"/>
+      <c r="D17" s="9">
         <v>-443.69</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8">
+      <c r="E17" s="6"/>
+      <c r="F17" s="9">
         <v>-112.63</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="8">
+      <c r="G17" s="6"/>
+      <c r="H17" s="9">
         <v>-815.72</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8">
+      <c r="I17" s="6"/>
+      <c r="J17" s="9">
         <v>-245.2</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>2</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>-285.46</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8">
+      <c r="C18" s="6"/>
+      <c r="D18" s="9">
         <v>-411.85</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8">
+      <c r="E18" s="6"/>
+      <c r="F18" s="9">
         <v>-162.07</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8">
+      <c r="G18" s="6"/>
+      <c r="H18" s="9">
         <v>-942.96</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8">
+      <c r="I18" s="6"/>
+      <c r="J18" s="9">
         <v>-276.54</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>-331.12</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8">
+      <c r="C19" s="6"/>
+      <c r="D19" s="9">
         <v>-505.13</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8">
+      <c r="E19" s="6"/>
+      <c r="F19" s="9">
         <v>-169.98</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="8">
+      <c r="G19" s="6"/>
+      <c r="H19" s="9">
         <v>-1031.85</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="8">
+      <c r="I19" s="6"/>
+      <c r="J19" s="9">
         <v>-276.25</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>-361.74</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8">
+      <c r="C20" s="6"/>
+      <c r="D20" s="9">
         <v>-530.58</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>-164.48</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="8">
+      <c r="G20" s="6"/>
+      <c r="H20" s="9">
         <v>-941.2</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8">
+      <c r="I20" s="6"/>
+      <c r="J20" s="9">
         <v>-298.75</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>5</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>-345.19</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8">
+      <c r="C21" s="6"/>
+      <c r="D21" s="9">
         <v>-562.55</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8">
+      <c r="E21" s="6"/>
+      <c r="F21" s="9">
         <v>-180.37</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="8">
+      <c r="G21" s="6"/>
+      <c r="H21" s="9">
         <v>-921.15</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="8">
+      <c r="I21" s="6"/>
+      <c r="J21" s="9">
         <v>-302.94</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>6</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>-291.08</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8">
+      <c r="C22" s="6"/>
+      <c r="D22" s="9">
         <v>-674.53</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8">
+      <c r="E22" s="6"/>
+      <c r="F22" s="9">
         <v>-206.84</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="8">
+      <c r="G22" s="6"/>
+      <c r="H22" s="9">
         <v>-971.65</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="8">
+      <c r="I22" s="6"/>
+      <c r="J22" s="9">
         <v>-324.7</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>7</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>-238.43</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8">
+      <c r="C23" s="6"/>
+      <c r="D23" s="9">
         <v>-694.62</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8">
+      <c r="E23" s="6"/>
+      <c r="F23" s="9">
         <v>-232.32</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="8">
+      <c r="G23" s="6"/>
+      <c r="H23" s="9">
         <v>-1024.99</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="8">
+      <c r="I23" s="6"/>
+      <c r="J23" s="9">
         <v>-329.68</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>8</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>-203.99</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8">
+      <c r="C24" s="6"/>
+      <c r="D24" s="9">
         <v>-795.47</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8">
+      <c r="E24" s="6"/>
+      <c r="F24" s="9">
         <v>-250.41</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="8">
+      <c r="G24" s="6"/>
+      <c r="H24" s="9">
         <v>-998.06</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8">
+      <c r="I24" s="6"/>
+      <c r="J24" s="9">
         <v>-362.43</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>9.81</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>-188.03</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8">
+      <c r="C25" s="6"/>
+      <c r="D25" s="9">
         <v>-859.88</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8">
+      <c r="E25" s="6"/>
+      <c r="F25" s="9">
         <v>-295.43</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="8">
+      <c r="G25" s="6"/>
+      <c r="H25" s="9">
         <v>-992.66</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="8">
+      <c r="I25" s="6"/>
+      <c r="J25" s="9">
         <v>-498.06</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>11</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>-187.06</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8">
+      <c r="C26" s="6"/>
+      <c r="D26" s="9">
         <v>-831.88</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <v>-347.88</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="8">
+      <c r="G26" s="6"/>
+      <c r="H26" s="9">
         <v>-902.8</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>-372.63</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>12</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>-195.91</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8">
+      <c r="C27" s="6"/>
+      <c r="D27" s="9">
         <v>-460.91</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="8">
+      <c r="E27" s="6"/>
+      <c r="F27" s="9">
         <v>-373.17</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="8">
+      <c r="G27" s="6"/>
+      <c r="H27" s="9">
         <v>-542.68</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="8">
+      <c r="I27" s="6"/>
+      <c r="J27" s="9">
         <v>-361.26</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>13</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>-210.06</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8">
+      <c r="C28" s="6"/>
+      <c r="D28" s="9">
         <v>-970.01</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>-743.97</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="9">
         <v>-1027.65</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="9">
         <v>-898.47</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>14</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>-219.09</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8">
+      <c r="C29" s="6"/>
+      <c r="D29" s="9">
         <v>-1066.26</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="8">
+      <c r="E29" s="6"/>
+      <c r="F29" s="9">
         <v>-1055.01</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="8">
+      <c r="G29" s="6"/>
+      <c r="H29" s="9">
         <v>-1142.66</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="8">
+      <c r="I29" s="6"/>
+      <c r="J29" s="9">
         <v>-1042.34</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>15</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>-308.69</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <v>-1157.11</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="8">
+      <c r="E30" s="6"/>
+      <c r="F30" s="9">
         <v>-1157.1</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="8">
+      <c r="G30" s="6"/>
+      <c r="H30" s="9">
         <v>-1212.04</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="8">
+      <c r="I30" s="6"/>
+      <c r="J30" s="9">
         <v>-1145.39</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>16</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>-1000.48</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8">
+      <c r="C31" s="6"/>
+      <c r="D31" s="9">
         <v>-1229.32</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8">
+      <c r="E31" s="6"/>
+      <c r="F31" s="9">
         <v>-1230.65</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="8">
+      <c r="G31" s="6"/>
+      <c r="H31" s="9">
         <v>-1286.81</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="8">
+      <c r="I31" s="6"/>
+      <c r="J31" s="9">
         <v>-1196.55</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>17</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>-1111.29</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8">
+      <c r="C32" s="6"/>
+      <c r="D32" s="9">
         <v>-1313.2</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="8">
+      <c r="E32" s="6"/>
+      <c r="F32" s="9">
         <v>-1302.75</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="8">
+      <c r="G32" s="6"/>
+      <c r="H32" s="9">
         <v>-1343.73</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8">
+      <c r="I32" s="6"/>
+      <c r="J32" s="9">
         <v>-1276.7</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>-627.88</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8">
+      <c r="C35" s="6"/>
+      <c r="D35" s="9">
         <v>-920.82</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="8">
+      <c r="E35" s="6"/>
+      <c r="F35" s="9">
         <v>-144.05</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="8">
+      <c r="G35" s="6"/>
+      <c r="H35" s="9">
         <v>-558.09</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="8">
+      <c r="I35" s="6"/>
+      <c r="J35" s="9">
         <v>-586.13</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="9">
         <v>-629.93</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8">
+      <c r="C36" s="6"/>
+      <c r="D36" s="9">
         <v>-915.33</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="8">
+      <c r="E36" s="6"/>
+      <c r="F36" s="9">
         <v>-143.57</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="8">
+      <c r="G36" s="6"/>
+      <c r="H36" s="9">
         <v>-611.99</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="8">
+      <c r="I36" s="6"/>
+      <c r="J36" s="9">
         <v>-590.64</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>3</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="9">
         <v>-652.12</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="8">
+      <c r="C37" s="6"/>
+      <c r="D37" s="9">
         <v>-841.76</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="8">
+      <c r="E37" s="6"/>
+      <c r="F37" s="9">
         <v>-138.72</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="8">
+      <c r="G37" s="6"/>
+      <c r="H37" s="9">
         <v>-612.11</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="8">
+      <c r="I37" s="6"/>
+      <c r="J37" s="9">
         <v>-527.19</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>4</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>-540.62</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8">
+      <c r="C38" s="6"/>
+      <c r="D38" s="9">
         <v>-805.13</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="8">
+      <c r="E38" s="6"/>
+      <c r="F38" s="9">
         <v>-140.15</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="8">
+      <c r="G38" s="6"/>
+      <c r="H38" s="9">
         <v>-549.75</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="8">
+      <c r="I38" s="6"/>
+      <c r="J38" s="9">
         <v>-508.7</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>5</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>-695.48</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8">
+      <c r="C39" s="6"/>
+      <c r="D39" s="9">
         <v>-751.86</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="8">
+      <c r="E39" s="6"/>
+      <c r="F39" s="9">
         <v>-160.31</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="8">
+      <c r="G39" s="6"/>
+      <c r="H39" s="9">
         <v>-695.34</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="8">
+      <c r="I39" s="6"/>
+      <c r="J39" s="9">
         <v>-532.54</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>6</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>-681.42</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8">
+      <c r="C40" s="6"/>
+      <c r="D40" s="9">
         <v>-795.78</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="8">
+      <c r="E40" s="6"/>
+      <c r="F40" s="9">
         <v>-165.83</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="8">
+      <c r="G40" s="6"/>
+      <c r="H40" s="9">
         <v>-740.16</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="8">
+      <c r="I40" s="6"/>
+      <c r="J40" s="9">
         <v>-570.47</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>7</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>-761.76</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8">
+      <c r="C41" s="6"/>
+      <c r="D41" s="9">
         <v>-859.65</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="8">
+      <c r="E41" s="6"/>
+      <c r="F41" s="9">
         <v>-179.55</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="8">
+      <c r="G41" s="6"/>
+      <c r="H41" s="9">
         <v>-868.58</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="8">
+      <c r="I41" s="6"/>
+      <c r="J41" s="9">
         <v>-654.48</v>
       </c>
-      <c r="K41" s="3"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>8</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>-761.84</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8">
+      <c r="C42" s="6"/>
+      <c r="D42" s="9">
         <v>-825.2</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="8">
+      <c r="E42" s="6"/>
+      <c r="F42" s="9">
         <v>-215.35</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="8">
+      <c r="G42" s="6"/>
+      <c r="H42" s="9">
         <v>-859.28</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="8">
+      <c r="I42" s="6"/>
+      <c r="J42" s="9">
         <v>-672.63</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>9.81</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>-752.43</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8">
+      <c r="C43" s="6"/>
+      <c r="D43" s="9">
         <v>-703.61</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="8">
+      <c r="E43" s="6"/>
+      <c r="F43" s="9">
         <v>-278.37</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="8">
+      <c r="G43" s="6"/>
+      <c r="H43" s="9">
         <v>-759.07</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8">
+      <c r="I43" s="6"/>
+      <c r="J43" s="9">
         <v>-661.31</v>
       </c>
-      <c r="K43" s="3"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>11</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>-691.67</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="8">
+      <c r="C44" s="6"/>
+      <c r="D44" s="9">
         <v>-602.95</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="8">
+      <c r="E44" s="6"/>
+      <c r="F44" s="9">
         <v>-322.53</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="8">
+      <c r="G44" s="6"/>
+      <c r="H44" s="9">
         <v>-777.38</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8">
+      <c r="I44" s="6"/>
+      <c r="J44" s="9">
         <v>-478.91</v>
       </c>
-      <c r="K44" s="3"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>12</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>-180.08</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8">
+      <c r="C45" s="6"/>
+      <c r="D45" s="9">
         <v>-198.92</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="8">
+      <c r="E45" s="6"/>
+      <c r="F45" s="9">
         <v>-307.56</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="8">
+      <c r="G45" s="6"/>
+      <c r="H45" s="9">
         <v>-195.28</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="8">
+      <c r="I45" s="6"/>
+      <c r="J45" s="9">
         <v>-216.85</v>
       </c>
-      <c r="K45" s="3"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>13</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>-206.4</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8">
+      <c r="C46" s="6"/>
+      <c r="D46" s="9">
         <v>-207.37</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="8">
+      <c r="E46" s="6"/>
+      <c r="F46" s="9">
         <v>-339.13</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="8">
+      <c r="G46" s="6"/>
+      <c r="H46" s="9">
         <v>-210.04</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8">
+      <c r="I46" s="6"/>
+      <c r="J46" s="9">
         <v>-304.79</v>
       </c>
-      <c r="K46" s="3"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>14</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>-249.65</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="8">
+      <c r="C47" s="6"/>
+      <c r="D47" s="9">
         <v>-282.36</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="8">
+      <c r="E47" s="6"/>
+      <c r="F47" s="9">
         <v>-940.6</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="8">
+      <c r="G47" s="6"/>
+      <c r="H47" s="9">
         <v>-846.37</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8">
+      <c r="I47" s="6"/>
+      <c r="J47" s="9">
         <v>-880.99</v>
       </c>
-      <c r="K47" s="3"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>15</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>-677.46</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8">
+      <c r="C48" s="6"/>
+      <c r="D48" s="9">
         <v>-936.85</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="8">
+      <c r="E48" s="6"/>
+      <c r="F48" s="9">
         <v>-1087.46</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="8">
+      <c r="G48" s="6"/>
+      <c r="H48" s="9">
         <v>-1012.65</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8">
+      <c r="I48" s="6"/>
+      <c r="J48" s="9">
         <v>-992.69</v>
       </c>
-      <c r="K48" s="3"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>16</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>-1036.16</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8">
+      <c r="C49" s="6"/>
+      <c r="D49" s="9">
         <v>-1127.5</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="8">
+      <c r="E49" s="6"/>
+      <c r="F49" s="9">
         <v>-1138.34</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="8">
+      <c r="G49" s="6"/>
+      <c r="H49" s="9">
         <v>-1112.28</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="8">
+      <c r="I49" s="6"/>
+      <c r="J49" s="9">
         <v>-1089.19</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>17</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>-1137.19</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8">
+      <c r="C50" s="6"/>
+      <c r="D50" s="9">
         <v>-1198.61</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="8">
+      <c r="E50" s="6"/>
+      <c r="F50" s="9">
         <v>-1254.22</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="8">
+      <c r="G50" s="6"/>
+      <c r="H50" s="9">
         <v>-1188.79</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="8">
+      <c r="I50" s="6"/>
+      <c r="J50" s="9">
         <v>-1170.8</v>
       </c>
-      <c r="K50" s="3"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="3"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>1</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>-344.73</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8">
+      <c r="C53" s="6"/>
+      <c r="D53" s="9">
         <v>-736.39</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="8">
+      <c r="E53" s="6"/>
+      <c r="F53" s="9">
         <v>-1045.73</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="8">
+      <c r="G53" s="6"/>
+      <c r="H53" s="9">
         <v>-1141.83</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="8">
+      <c r="I53" s="6"/>
+      <c r="J53" s="9">
         <v>-1220.59</v>
       </c>
-      <c r="K53" s="3"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
         <v>2</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>-415.94</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8">
+      <c r="C54" s="6"/>
+      <c r="D54" s="9">
         <v>-763.46</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="8">
+      <c r="E54" s="6"/>
+      <c r="F54" s="9">
         <v>-1100.14</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="8">
+      <c r="G54" s="6"/>
+      <c r="H54" s="9">
         <v>-1136.71</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="8">
+      <c r="I54" s="6"/>
+      <c r="J54" s="9">
         <v>-1253.73</v>
       </c>
-      <c r="K54" s="3"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>3</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>-392.53</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="7">
+      <c r="C55" s="6"/>
+      <c r="D55" s="8">
         <v>-778</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="8">
+      <c r="E55" s="6"/>
+      <c r="F55" s="9">
         <v>-1361.57</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="8">
+      <c r="G55" s="6"/>
+      <c r="H55" s="9">
         <v>-1130.26</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="8">
+      <c r="I55" s="6"/>
+      <c r="J55" s="9">
         <v>-1275.47</v>
       </c>
-      <c r="K55" s="3"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>4</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>-392.07</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="8">
+      <c r="C56" s="6"/>
+      <c r="D56" s="9">
         <v>-681.64</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="8">
+      <c r="E56" s="6"/>
+      <c r="F56" s="9">
         <v>-1377.76</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="8">
+      <c r="G56" s="6"/>
+      <c r="H56" s="9">
         <v>-1094.83</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="8">
+      <c r="I56" s="6"/>
+      <c r="J56" s="9">
         <v>-1370.45</v>
       </c>
-      <c r="K56" s="3"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>5</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>-477.74</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>-710.1</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="8">
+      <c r="E57" s="6"/>
+      <c r="F57" s="9">
         <v>-1319.7</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="8">
+      <c r="G57" s="6"/>
+      <c r="H57" s="9">
         <v>-1237.13</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="8">
+      <c r="I57" s="6"/>
+      <c r="J57" s="9">
         <v>-1421.61</v>
       </c>
-      <c r="K57" s="3"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>6</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>-603.53</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="8">
+      <c r="C58" s="6"/>
+      <c r="D58" s="9">
         <v>-720.46</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="8">
+      <c r="E58" s="6"/>
+      <c r="F58" s="9">
         <v>-1320.47</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="8">
+      <c r="G58" s="6"/>
+      <c r="H58" s="9">
         <v>-1207.46</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="8">
+      <c r="I58" s="6"/>
+      <c r="J58" s="9">
         <v>-1454.6</v>
       </c>
-      <c r="K58" s="3"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>7</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>-666.24</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8">
+      <c r="C59" s="6"/>
+      <c r="D59" s="9">
         <v>-681.5</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="8">
+      <c r="E59" s="6"/>
+      <c r="F59" s="9">
         <v>-1329.74</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="8">
+      <c r="G59" s="6"/>
+      <c r="H59" s="9">
         <v>-1217.94</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="8">
+      <c r="I59" s="6"/>
+      <c r="J59" s="9">
         <v>-1393.46</v>
       </c>
-      <c r="K59" s="3"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>8</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="9">
         <v>-838.11</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="8">
+      <c r="C60" s="6"/>
+      <c r="D60" s="9">
         <v>-790.76</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="8">
+      <c r="E60" s="6"/>
+      <c r="F60" s="9">
         <v>-1264.35</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="8">
+      <c r="G60" s="6"/>
+      <c r="H60" s="9">
         <v>-1207.87</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="8">
+      <c r="I60" s="6"/>
+      <c r="J60" s="9">
         <v>-1365.06</v>
       </c>
-      <c r="K60" s="3"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <v>9.81</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="9">
         <v>-868.88</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="8">
+      <c r="C61" s="6"/>
+      <c r="D61" s="9">
         <v>-936.46</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="8">
+      <c r="E61" s="6"/>
+      <c r="F61" s="9">
         <v>-1218.62</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="8">
+      <c r="G61" s="6"/>
+      <c r="H61" s="9">
         <v>-1220.14</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="8">
+      <c r="I61" s="6"/>
+      <c r="J61" s="9">
         <v>-1261.09</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15">
-      <c r="A62" s="7">
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="8">
         <v>11</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="9">
         <v>-881.16</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="8">
+      <c r="C62" s="6"/>
+      <c r="D62" s="9">
         <v>-834.33</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="8">
+      <c r="E62" s="6"/>
+      <c r="F62" s="9">
         <v>-1102.28</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="8">
+      <c r="G62" s="6"/>
+      <c r="H62" s="9">
         <v>-1157.98</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="8">
+      <c r="I62" s="6"/>
+      <c r="J62" s="9">
         <v>-1176.72</v>
       </c>
-      <c r="K62" s="3"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>12</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="9">
         <v>-801.51</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="9">
         <v>-848.61</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="9">
         <v>-1022.61</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="9">
         <v>-1114.97</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="8">
+      <c r="I63" s="6"/>
+      <c r="J63" s="9">
         <v>-888.24</v>
       </c>
-      <c r="K63" s="3"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>13</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="9">
         <v>-498.1</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="8">
+      <c r="C64" s="6"/>
+      <c r="D64" s="9">
         <v>-447.2</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="8">
+      <c r="E64" s="6"/>
+      <c r="F64" s="9">
         <v>-535.68</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="8">
+      <c r="G64" s="6"/>
+      <c r="H64" s="9">
         <v>-1003.6</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="8">
+      <c r="I64" s="6"/>
+      <c r="J64" s="9">
         <v>-922.54</v>
       </c>
-      <c r="K64" s="3"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>14</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>-316.77</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="8">
+      <c r="C65" s="6"/>
+      <c r="D65" s="9">
         <v>-297.54</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="8">
+      <c r="E65" s="6"/>
+      <c r="F65" s="9">
         <v>-296.92</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="8">
+      <c r="G65" s="6"/>
+      <c r="H65" s="9">
         <v>-586.11</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="9">
         <v>-350.39</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>15</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>-1001.16</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="9">
         <v>-885.38</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="9">
         <v>-975.5</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="9">
         <v>-1122.02</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="8">
+      <c r="I66" s="6"/>
+      <c r="J66" s="9">
         <v>-1128.73</v>
       </c>
-      <c r="K66" s="3"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>16</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>-1069.83</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="8">
+      <c r="C67" s="6"/>
+      <c r="D67" s="9">
         <v>-1016.08</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="8">
+      <c r="E67" s="6"/>
+      <c r="F67" s="9">
         <v>-1075.46</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="8">
+      <c r="G67" s="6"/>
+      <c r="H67" s="9">
         <v>-1213.41</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="8">
+      <c r="I67" s="6"/>
+      <c r="J67" s="9">
         <v>-1231.6</v>
       </c>
-      <c r="K67" s="3"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>17</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>-1210.9</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="8">
+      <c r="C68" s="6"/>
+      <c r="D68" s="9">
         <v>-1102.2</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="8">
+      <c r="E68" s="6"/>
+      <c r="F68" s="9">
         <v>-1182.99</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="8">
+      <c r="G68" s="6"/>
+      <c r="H68" s="9">
         <v>-1298.57</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="8">
+      <c r="I68" s="6"/>
+      <c r="J68" s="9">
         <v>-1298.38</v>
       </c>
-      <c r="K68" s="3"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="3"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>1</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="9">
         <v>-1453.79</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="8">
+      <c r="C71" s="6"/>
+      <c r="D71" s="9">
         <v>-760.41</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="8">
+      <c r="E71" s="6"/>
+      <c r="F71" s="9">
         <v>-1121.49</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="8">
+      <c r="G71" s="6"/>
+      <c r="H71" s="9">
         <v>-456.64</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="8">
+      <c r="I71" s="6"/>
+      <c r="J71" s="9">
         <v>-974.77</v>
       </c>
-      <c r="K71" s="3"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>2</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="9">
         <v>-1520.61</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="8">
+      <c r="C72" s="6"/>
+      <c r="D72" s="9">
         <v>-827.56</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="8">
+      <c r="E72" s="6"/>
+      <c r="F72" s="9">
         <v>-1161.08</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="8">
+      <c r="G72" s="6"/>
+      <c r="H72" s="9">
         <v>-427.1</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="8">
+      <c r="I72" s="6"/>
+      <c r="J72" s="9">
         <v>-927.82</v>
       </c>
-      <c r="K72" s="3"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>3</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>-1393.57</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="8">
+      <c r="C73" s="6"/>
+      <c r="D73" s="9">
         <v>-826.14</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="8">
+      <c r="E73" s="6"/>
+      <c r="F73" s="9">
         <v>-1267.21</v>
       </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="8">
+      <c r="G73" s="6"/>
+      <c r="H73" s="9">
         <v>-462.76</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="8">
+      <c r="I73" s="6"/>
+      <c r="J73" s="9">
         <v>-859.78</v>
       </c>
-      <c r="K73" s="3"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>4</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>-1404.73</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="8">
+      <c r="C74" s="6"/>
+      <c r="D74" s="9">
         <v>-757.26</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="8">
+      <c r="E74" s="6"/>
+      <c r="F74" s="9">
         <v>-1289.3</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="8">
+      <c r="G74" s="6"/>
+      <c r="H74" s="9">
         <v>-533.73</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="8">
+      <c r="I74" s="6"/>
+      <c r="J74" s="9">
         <v>-962.88</v>
       </c>
-      <c r="K74" s="3"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>5</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="9">
         <v>-1492.29</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="8">
+      <c r="C75" s="6"/>
+      <c r="D75" s="9">
         <v>-946.3</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="8">
+      <c r="E75" s="6"/>
+      <c r="F75" s="9">
         <v>-1292.47</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="8">
+      <c r="G75" s="6"/>
+      <c r="H75" s="9">
         <v>-576.57</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8">
+      <c r="I75" s="6"/>
+      <c r="J75" s="9">
         <v>-1064.36</v>
       </c>
-      <c r="K75" s="3"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>6</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="9">
         <v>-1477.46</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="8">
+      <c r="C76" s="6"/>
+      <c r="D76" s="9">
         <v>-1177.72</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="8">
+      <c r="E76" s="6"/>
+      <c r="F76" s="9">
         <v>-1406.77</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="8">
+      <c r="G76" s="6"/>
+      <c r="H76" s="9">
         <v>-601.75</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="8">
+      <c r="I76" s="6"/>
+      <c r="J76" s="9">
         <v>-980.99</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="7">
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="8">
         <v>7</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>-1438.36</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="8">
+      <c r="C77" s="6"/>
+      <c r="D77" s="9">
         <v>-1194.82</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="8">
+      <c r="E77" s="6"/>
+      <c r="F77" s="9">
         <v>-1394.56</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="8">
+      <c r="G77" s="6"/>
+      <c r="H77" s="9">
         <v>-599.45</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="8">
+      <c r="I77" s="6"/>
+      <c r="J77" s="9">
         <v>-1052.5</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="7">
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="8">
         <v>8</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="9">
         <v>-1483.72</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="8">
+      <c r="C78" s="6"/>
+      <c r="D78" s="9">
         <v>-1129.11</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="8">
+      <c r="E78" s="6"/>
+      <c r="F78" s="9">
         <v>-1414.71</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="8">
+      <c r="G78" s="6"/>
+      <c r="H78" s="9">
         <v>-560.28</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="8">
+      <c r="I78" s="6"/>
+      <c r="J78" s="9">
         <v>-974.26</v>
       </c>
-      <c r="K78" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
-      <c r="A79" s="8">
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="9">
         <v>9.81</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="9">
         <v>-1456.44</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="8">
+      <c r="C79" s="6"/>
+      <c r="D79" s="9">
         <v>-1110.55</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="8">
+      <c r="E79" s="6"/>
+      <c r="F79" s="9">
         <v>-1378.87</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="8">
+      <c r="G79" s="6"/>
+      <c r="H79" s="9">
         <v>-624.62</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="8">
+      <c r="I79" s="6"/>
+      <c r="J79" s="9">
         <v>-1060.39</v>
       </c>
-      <c r="K79" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
-      <c r="A80" s="7">
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="8">
         <v>11</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="9">
         <v>-1400.03</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="8">
+      <c r="C80" s="6"/>
+      <c r="D80" s="9">
         <v>-1109.37</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="8">
+      <c r="E80" s="6"/>
+      <c r="F80" s="9">
         <v>-1383.68</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="7">
+      <c r="G80" s="6"/>
+      <c r="H80" s="8">
         <v>-702</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="8">
+      <c r="I80" s="6"/>
+      <c r="J80" s="9">
         <v>-1028.11</v>
       </c>
-      <c r="K80" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="7">
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="8">
         <v>12</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="9">
         <v>-1337.05</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="8">
+      <c r="C81" s="6"/>
+      <c r="D81" s="9">
         <v>-1051.27</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="8">
+      <c r="E81" s="6"/>
+      <c r="F81" s="9">
         <v>-1340.28</v>
       </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="8">
+      <c r="G81" s="6"/>
+      <c r="H81" s="9">
         <v>-680.9</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="8">
+      <c r="I81" s="6"/>
+      <c r="J81" s="9">
         <v>-1034.74</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="7">
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="8">
         <v>13</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="9">
         <v>-1301.5</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="8">
+      <c r="C82" s="6"/>
+      <c r="D82" s="9">
         <v>-989.27</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="8">
+      <c r="E82" s="6"/>
+      <c r="F82" s="9">
         <v>-1261.1</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="8">
+      <c r="G82" s="6"/>
+      <c r="H82" s="9">
         <v>-732.83</v>
       </c>
-      <c r="I82" s="3"/>
-      <c r="J82" s="8">
+      <c r="I82" s="6"/>
+      <c r="J82" s="9">
         <v>-984.91</v>
       </c>
-      <c r="K82" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="7">
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="8">
         <v>14</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="9">
         <v>-1213.85</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="8">
+      <c r="C83" s="6"/>
+      <c r="D83" s="9">
         <v>-834.4</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="8">
+      <c r="E83" s="6"/>
+      <c r="F83" s="9">
         <v>-1141.86</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="8">
+      <c r="G83" s="6"/>
+      <c r="H83" s="9">
         <v>-543.53</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="8">
+      <c r="I83" s="6"/>
+      <c r="J83" s="9">
         <v>-849.06</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="7">
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="8">
         <v>15</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="9">
         <v>-199.43</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="8">
+      <c r="C84" s="6"/>
+      <c r="D84" s="9">
         <v>-310.25</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="8">
+      <c r="E84" s="6"/>
+      <c r="F84" s="9">
         <v>-214.04</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="8">
+      <c r="G84" s="6"/>
+      <c r="H84" s="9">
         <v>-361.29</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="8">
+      <c r="I84" s="6"/>
+      <c r="J84" s="9">
         <v>-287.38</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="7">
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="8">
         <v>16</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="9">
         <v>-1056.18</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="8">
+      <c r="C85" s="6"/>
+      <c r="D85" s="9">
         <v>-403.08</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="8">
+      <c r="E85" s="6"/>
+      <c r="F85" s="9">
         <v>-946.51</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="8">
+      <c r="G85" s="6"/>
+      <c r="H85" s="9">
         <v>-884.62</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="8">
+      <c r="I85" s="6"/>
+      <c r="J85" s="9">
         <v>-872.27</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="7">
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="8">
         <v>17</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="9">
         <v>-1184.2</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="8">
+      <c r="C86" s="6"/>
+      <c r="D86" s="9">
         <v>-1218.17</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="8">
+      <c r="E86" s="6"/>
+      <c r="F86" s="9">
         <v>-1099.28</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="8">
+      <c r="G86" s="6"/>
+      <c r="H86" s="9">
         <v>-1027.31</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="8">
+      <c r="I86" s="6"/>
+      <c r="J86" s="9">
         <v>-1053.97</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
-      <c r="A87" s="1" t="s">
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="7">
+      <c r="L88" s="6"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="8">
         <v>1</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="9">
         <v>-1657.45</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="8">
+      <c r="C89" s="6"/>
+      <c r="D89" s="9">
         <v>-1663.36</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="8">
+      <c r="E89" s="6"/>
+      <c r="F89" s="9">
         <v>-1651.71</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="8">
+      <c r="G89" s="6"/>
+      <c r="H89" s="9">
         <v>-1646.33</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="8">
+      <c r="I89" s="6"/>
+      <c r="J89" s="9">
         <v>-1614.23</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="7">
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="8">
         <v>2</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="9">
         <v>-1675.7</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="8">
+      <c r="C90" s="6"/>
+      <c r="D90" s="9">
         <v>-1650.08</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="8">
+      <c r="E90" s="6"/>
+      <c r="F90" s="9">
         <v>-1668.96</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="8">
+      <c r="G90" s="6"/>
+      <c r="H90" s="9">
         <v>-1663.76</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="8">
+      <c r="I90" s="6"/>
+      <c r="J90" s="9">
         <v>-1623.06</v>
       </c>
-      <c r="K90" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="7">
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="8">
         <v>3</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="9">
         <v>-1722.61</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="8">
+      <c r="C91" s="6"/>
+      <c r="D91" s="9">
         <v>-1654.88</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="8">
+      <c r="E91" s="6"/>
+      <c r="F91" s="9">
         <v>-1680.03</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="8">
+      <c r="G91" s="6"/>
+      <c r="H91" s="9">
         <v>-1650.32</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="8">
+      <c r="I91" s="6"/>
+      <c r="J91" s="9">
         <v>-1627.76</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="7">
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="8">
         <v>4</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="9">
         <v>-1676.01</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="8">
+      <c r="C92" s="6"/>
+      <c r="D92" s="9">
         <v>-1667.17</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="8">
+      <c r="E92" s="6"/>
+      <c r="F92" s="9">
         <v>-1696.11</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="8">
+      <c r="G92" s="6"/>
+      <c r="H92" s="9">
         <v>-1684.45</v>
       </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="8">
+      <c r="I92" s="6"/>
+      <c r="J92" s="9">
         <v>-1638.02</v>
       </c>
-      <c r="K92" s="3"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>5</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="9">
         <v>-1652.73</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="8">
+      <c r="C93" s="6"/>
+      <c r="D93" s="9">
         <v>-1623.67</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="8">
+      <c r="E93" s="6"/>
+      <c r="F93" s="9">
         <v>-1640.31</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="8">
+      <c r="G93" s="6"/>
+      <c r="H93" s="9">
         <v>-1684.6</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="8">
+      <c r="I93" s="6"/>
+      <c r="J93" s="9">
         <v>-1576.96</v>
       </c>
-      <c r="K93" s="3"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>6</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="9">
         <v>-1646.57</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="8">
+      <c r="C94" s="6"/>
+      <c r="D94" s="9">
         <v>-1610.2</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="8">
+      <c r="E94" s="6"/>
+      <c r="F94" s="9">
         <v>-1675.87</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="8">
+      <c r="G94" s="6"/>
+      <c r="H94" s="9">
         <v>-1642.98</v>
       </c>
-      <c r="I94" s="3"/>
-      <c r="J94" s="8">
+      <c r="I94" s="6"/>
+      <c r="J94" s="9">
         <v>-1567.03</v>
       </c>
-      <c r="K94" s="3"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>7</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="9">
         <v>-1607.4</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="8">
+      <c r="C95" s="6"/>
+      <c r="D95" s="9">
         <v>-1592.37</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="8">
+      <c r="E95" s="6"/>
+      <c r="F95" s="9">
         <v>-1653.89</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="8">
+      <c r="G95" s="6"/>
+      <c r="H95" s="9">
         <v>-1642.6</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="8">
+      <c r="I95" s="6"/>
+      <c r="J95" s="9">
         <v>-1582.69</v>
       </c>
-      <c r="K95" s="3"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>8</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="9">
         <v>-1539.46</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="8">
+      <c r="C96" s="6"/>
+      <c r="D96" s="9">
         <v>-1500.45</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="8">
+      <c r="E96" s="6"/>
+      <c r="F96" s="9">
         <v>-1597.1</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="8">
+      <c r="G96" s="6"/>
+      <c r="H96" s="9">
         <v>-1628.86</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="8">
+      <c r="I96" s="6"/>
+      <c r="J96" s="9">
         <v>-1528.18</v>
       </c>
-      <c r="K96" s="3"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="8">
+      <c r="A97" s="9">
         <v>9.81</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="9">
         <v>-1514.87</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="8">
+      <c r="C97" s="6"/>
+      <c r="D97" s="9">
         <v>-1454.76</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="8">
+      <c r="E97" s="6"/>
+      <c r="F97" s="9">
         <v>-1515.61</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="8">
+      <c r="G97" s="6"/>
+      <c r="H97" s="9">
         <v>-1486.96</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="8">
+      <c r="I97" s="6"/>
+      <c r="J97" s="9">
         <v>-1505.94</v>
       </c>
-      <c r="K97" s="3"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>11</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="9">
         <v>-1421.52</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="8">
+      <c r="C98" s="6"/>
+      <c r="D98" s="9">
         <v>-1394.09</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="8">
+      <c r="E98" s="6"/>
+      <c r="F98" s="9">
         <v>-1417.2</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="8">
+      <c r="G98" s="6"/>
+      <c r="H98" s="9">
         <v>-1412.7</v>
       </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="8">
+      <c r="I98" s="6"/>
+      <c r="J98" s="9">
         <v>-1426.05</v>
       </c>
-      <c r="K98" s="3"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>12</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="9">
         <v>-1362.41</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="8">
+      <c r="C99" s="6"/>
+      <c r="D99" s="9">
         <v>-1409.83</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="8">
+      <c r="E99" s="6"/>
+      <c r="F99" s="9">
         <v>-1388.37</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="8">
+      <c r="G99" s="6"/>
+      <c r="H99" s="9">
         <v>-1399.02</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="8">
+      <c r="I99" s="6"/>
+      <c r="J99" s="9">
         <v>-1420.19</v>
       </c>
-      <c r="K99" s="3"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>13</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="9">
         <v>-1306.95</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="8">
+      <c r="C100" s="6"/>
+      <c r="D100" s="9">
         <v>-1291.01</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="8">
+      <c r="E100" s="6"/>
+      <c r="F100" s="9">
         <v>-1338.18</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="8">
+      <c r="G100" s="6"/>
+      <c r="H100" s="9">
         <v>-1303.82</v>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="8">
+      <c r="I100" s="6"/>
+      <c r="J100" s="9">
         <v>-1294.17</v>
       </c>
-      <c r="K100" s="3"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>14</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="9">
         <v>-1209.49</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="8">
+      <c r="C101" s="6"/>
+      <c r="D101" s="9">
         <v>-1212.96</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="8">
+      <c r="E101" s="6"/>
+      <c r="F101" s="9">
         <v>-1232.37</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="8">
+      <c r="G101" s="6"/>
+      <c r="H101" s="9">
         <v>-1229.18</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="8">
+      <c r="I101" s="6"/>
+      <c r="J101" s="9">
         <v>-1218.55</v>
       </c>
-      <c r="K101" s="3"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>15</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="9">
         <v>-1120.25</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="8">
+      <c r="C102" s="6"/>
+      <c r="D102" s="9">
         <v>-1092.79</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="8">
+      <c r="E102" s="6"/>
+      <c r="F102" s="9">
         <v>-1093.99</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="8">
+      <c r="G102" s="6"/>
+      <c r="H102" s="9">
         <v>-1094.32</v>
       </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="8">
+      <c r="I102" s="6"/>
+      <c r="J102" s="9">
         <v>-1098.33</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>16</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="9">
         <v>-236.25</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="8">
+      <c r="C103" s="6"/>
+      <c r="D103" s="9">
         <v>-199.2</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="8">
+      <c r="E103" s="6"/>
+      <c r="F103" s="9">
         <v>-214.78</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="8">
+      <c r="G103" s="6"/>
+      <c r="H103" s="9">
         <v>-213.35</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="8">
+      <c r="I103" s="6"/>
+      <c r="J103" s="9">
         <v>-270.18</v>
       </c>
-      <c r="K103" s="3"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>17</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="9">
         <v>-1064.58</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="8">
+      <c r="C104" s="6"/>
+      <c r="D104" s="9">
         <v>-1072.75</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="8">
+      <c r="E104" s="6"/>
+      <c r="F104" s="9">
         <v>-1093.6</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="8">
+      <c r="G104" s="6"/>
+      <c r="H104" s="9">
         <v>-1090.35</v>
       </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="8">
+      <c r="I104" s="6"/>
+      <c r="J104" s="9">
         <v>-1056.19</v>
       </c>
-      <c r="K104" s="3"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="3"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="3"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+      <c r="AB106" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="3"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="9.81" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5241,4 +5243,1032 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>conditional(add(y, y), add(conditional(x, conditional(conditional(y, x), add(vel, vel))), add(add(x, add(vel, add(conditional(conditional(conditional(x, vel), conditional(vel, vel)), conditional(x, x)), add(x, x)))), add(y, y))))</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>-1244.91</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-1182.54</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-935.77</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-1437.9</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-1662.46</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-1600.89</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-1502.35</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-1631.74</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-1815.57</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-1902.44</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-1968.06</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-2022.6</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-2044.17</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-2143.11</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-2195.58</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-2211.44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>conditional(add(y, y), add(add(add(add(x, y), x), add(add(x, add(x, x)), y)), vel))</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1107.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1216.59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1267.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1468.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1689.83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1664.02</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1594.55</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1514.33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1803.23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1920.47</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1941.31</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2002.31</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-2066.33</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2166.54</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2174.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-2212.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>add(conditional(add(y, y), add(add(add(conditional(conditional(x, y), conditional(vel, conditional(x, add(x, vel)))), add(add(x, add(vel, x)), vel)), add(x, y)), add(add(x, x), x))), conditional(conditional(y, y), add(add(add(add(conditional(x, conditional(conditional(y, conditional(add(x, y), add(y, y))), vel)), add(x, vel)), add(x, conditional(conditional(x, add(y, y)), conditional(conditional(conditional(vel, x), vel), add(y, x))))), add(add(x, x), conditional(add(conditional(x, x), y), add(x, conditional(y, y))))), y)))</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1264.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1177.72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1114.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1204.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1357.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1446.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1317.76</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1331.27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1772.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1930.66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1929</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1998.95</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2029.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-2118.43</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-2175.85</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-2207.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conditional(add(y, y), add(conditional(conditional(conditional(conditional(x, vel), conditional(add(vel, x), conditional(y, x))), conditional(conditional(add(conditional(x, x), vel), x), vel)), y), add(add(x, y), add(add(vel, add(x, add(y, x))), conditional(x, x)))))</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1210.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1105.84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1260.36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1531.08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1954.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2056.67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1899.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1895.74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1914.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1939.47</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2033.78</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2032.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2092.22</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-2143.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2179.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2239.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>add(conditional(y, add(x, vel)), conditional(add(y, y), add(add(add(add(x, add(conditional(add(y, x), add(y, x)), x)), x), add(vel, conditional(y, y))), conditional(add(conditional(x, conditional(vel, add(y, conditional(add(vel, y), x)))), x), conditional(vel, add(add(vel, x), conditional(add(y, y), conditional(add(conditional(y, vel), conditional(x, vel)), add(x, vel)))))))))</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1129.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1444.57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1495.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1581.78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1615.55</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1836.78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1768.99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1773.55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1525.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1854.48</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1951.71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2010.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2041.71</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-2101.52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2180.93</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2216.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>conditional(add(y, add(y, y)), add(add(add(y, add(conditional(conditional(x, x), add(add(add(add(add(add(x, y), add(conditional(vel, y), add(x, add(add(vel, add(vel, x)), conditional(y, y))))), conditional(y, x)), add(x, x)), add(add(y, conditional(x, conditional(add(y, vel), conditional(y, y)))), conditional(x, x))), conditional(conditional(add(vel, x), conditional(x, x)), add(y, y)))), add(x, y))), add(x, x)), add(x, add(add(vel, x), conditional(conditional(y, x), y)))))</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1207.71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1188.63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1215.32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1169.53</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1414.98</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1520.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1502.04</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1596.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1809.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1919.52</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1978.17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2033.31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2081.88</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2159.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-2167.15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2233.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conditional(add(conditional(y, y), add(y, y)), add(add(add(add(add(x, x), add(vel, x)), add(add(conditional(x, vel), x), add(x, add(add(add(add(add(vel, x), add(x, y)), add(add(x, vel), add(vel, conditional(vel, vel)))), add(add(add(add(add(add(add(x, x), add(y, y)), add(x, add(vel, add(add(y, vel), add(x, x))))), add(add(x, x), add(x, x))), x), x), x)), add(x, x))))), add(add(x, x), x)), x))</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1216.19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1202.22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1449.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1371.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1600.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1748.33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1347.65</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1623.82</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1790.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1886.58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1928.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-2006.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2095.52</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-2128.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-2167.31</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-2185.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conditional(add(conditional(x, add(x, conditional(conditional(x, x), add(conditional(conditional(y, add(y, vel)), conditional(add(add(x, add(conditional(conditional(x, conditional(x, add(vel, x))), add(add(conditional(add(vel, x), conditional(vel, y)), x), add(y, vel))), y)), y), y)), add(x, add(y, y)))))), add(y, y)), add(add(add(add(x, y), y), x), add(vel, x)))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1190.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1110.45</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1096.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1139.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1307.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1337.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1221.97</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1033.82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1638.99</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1764.54</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1829.76</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1883.99</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1982.36</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-2024.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2086.97</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-2167.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conditional(add(y, y), add(add(x, y), add(add(conditional(conditional(conditional(x, add(y, add(vel, x))), add(add(x, x), x)), add(x, add(y, y))), add(conditional(y, y), vel)), add(conditional(x, x), conditional(x, x)))))</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1371.04</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1240.46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1039.53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1269.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1312.16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1241.11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1528.74</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1529.18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1731.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1914.64</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1938.13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1977.21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-2048.92</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-2104.07</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2181.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-2198.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conditional(add(add(y, y), y), add(add(add(x, vel), add(add(add(add(add(x, add(vel, add(x, add(x, x)))), add(add(y, add(y, vel)), add(x, add(add(conditional(x, x), conditional(y, y)), conditional(add(vel, x), conditional(vel, conditional(add(y, vel), add(y, vel)))))))), add(add(x, add(x, conditional(x, vel))), conditional(x, conditional(x, add(x, add(x, x)))))), add(x, x)), add(x, add(add(conditional(x, x), conditional(y, vel)), conditional(conditional(vel, vel), vel))))), add(add(x, add(x, x)), conditional(x, add(y, y)))))</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1305.89</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1331.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1380.47</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1367.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1657.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1953.13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2075.77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2156.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2034.84</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1982.33</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2060.46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2128.71</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2079.07</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-2135</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-2221.96</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-2239.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>conditional(add(y, y), add(add(add(y, x), conditional(conditional(y, y), y)), add(vel, add(add(add(add(x, x), conditional(conditional(x, x), conditional(x, vel))), conditional(x, add(add(conditional(conditional(vel, y), add(x, conditional(x, x))), add(add(add(conditional(add(x, vel), add(conditional(y, y), vel)), x), add(x, y)), add(vel, add(x, x)))), add(add(x, conditional(add(y, add(add(y, add(x, x)), y)), add(vel, vel))), conditional(x, x))))), x))))</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>-1153.42</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-1114.02</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-1031.71</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-1182.4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-1292.69</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-1227.98</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-1482.45</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-1662.67</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-1830.02</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-1909.82</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-1901.46</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-1980.47</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-2003.76</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-2092.23</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-2175.86</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-2190.39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>conditional(add(conditional(x, add(conditional(add(y, conditional(conditional(vel, vel), add(vel, x))), add(add(add(x, vel), add(x, add(x, vel))), y)), add(add(y, x), conditional(x, vel)))), add(y, y)), add(add(x, vel), add(y, add(x, y))))</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1785.29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1925.46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2300.69</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2544.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2544.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2510.69</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2437.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2344.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2246.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2141.51</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2028.35</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1587.12</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1771.25</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1807.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1769.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-2025.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conditional(add(add(y, y), conditional(y, y)), add(add(add(conditional(x, vel), y), add(add(vel, x), add(conditional(y, y), conditional(x, x)))), add(add(y, x), add(conditional(x, x), conditional(x, x)))))</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1265.81</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1212.77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1329.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1269.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1359.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1512.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1464.49</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1516.71</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1775.76</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1927.53</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1969.96</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-2012.38</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2058.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-2094.39</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-2188.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-2194.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>add(conditional(conditional(x, vel), add(x, x)), conditional(add(y, y), add(add(vel, add(conditional(conditional(x, y), conditional(conditional(conditional(x, add(conditional(vel, add(add(vel, vel), conditional(x, y))), add(vel, conditional(x, conditional(conditional(x, vel), add(x, x)))))), add(vel, x)), conditional(y, add(conditional(y, x), conditional(add(vel, conditional(x, y)), x))))), add(add(x, y), add(x, add(x, x))))), y)))</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2304.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2348.73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2331.56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2330.86</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2368.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2266.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2233.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1954.23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1878.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2144.08</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2053.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1662.16</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1755.38</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1833.93</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1849.48</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2033.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>add(conditional(x, add(vel, add(add(y, x), conditional(conditional(vel, x), add(x, y))))), conditional(add(y, add(y, y)), add(add(add(add(add(x, conditional(conditional(x, add(conditional(x, x), conditional(conditional(x, vel), add(conditional(x, y), add(x, x))))), add(conditional(y, vel), vel))), add(add(x, x), add(x, y))), add(x, conditional(add(x, y), conditional(x, x)))), add(x, add(add(conditional(x, x), add(vel, add(x, y))), vel))), x)))</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1086.21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1016.12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-821.5700000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-968.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1222.27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1271.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1160.51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1040.63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-596.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1131.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1381.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1574.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1741.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1808.34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1992.16</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2056.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>add(conditional(x, conditional(vel, conditional(conditional(conditional(add(x, vel), conditional(conditional(add(vel, x), add(x, conditional(conditional(x, y), conditional(y, y)))), vel)), conditional(add(x, conditional(add(x, vel), add(vel, vel))), y)), add(conditional(y, y), add(y, add(vel, conditional(y, vel))))))), conditional(add(y, y), add(add(y, add(add(vel, x), add(x, x))), add(x, y))))</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2124.17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2086.43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2219.44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2489.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2528.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2514.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2445.12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2356.86</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2171.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-2067.86</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1834.06</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1925.51</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1949.95</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1948.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1963.7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2116.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conditional(add(y, add(y, y)), add(add(add(x, add(add(add(conditional(conditional(x, add(conditional(x, x), conditional(conditional(add(vel, y), x), y))), conditional(x, y)), add(add(y, x), conditional(conditional(conditional(vel, conditional(y, conditional(y, y))), conditional(add(x, y), conditional(x, x))), conditional(add(vel, y), conditional(add(x, y), conditional(conditional(conditional(conditional(add(x, vel), add(conditional(x, x), conditional(x, x))), vel), conditional(vel, y)), vel)))))), x), vel)), add(add(x, y), add(x, y))), vel))</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1626.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1429.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1244.09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1171.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1222.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1337.19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1254.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1049.36</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1665.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1762.01</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1911.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1935.97</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2021.68</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-2079.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-2116.13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-2145.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>add(conditional(x, conditional(vel, add(conditional(conditional(conditional(y, x), conditional(conditional(conditional(conditional(y, x), conditional(conditional(conditional(add(x, y), vel), add(x, y)), add(x, add(conditional(conditional(vel, x), add(x, y)), conditional(y, vel))))), conditional(add(add(conditional(conditional(y, y), conditional(y, vel)), vel), y), y)), add(x, add(conditional(conditional(vel, x), add(x, y)), conditional(y, vel))))), conditional(add(add(conditional(conditional(y, y), conditional(y, vel)), vel), y), y)), add(add(add(x, add(x, conditional(conditional(vel, vel), add(add(y, add(add(y, x), conditional(x, vel))), vel)))), conditional(conditional(conditional(add(x, x), conditional(y, x)), y), conditional(conditional(x, conditional(y, conditional(add(vel, vel), add(conditional(add(y, x), add(y, y)), conditional(conditional(x, y), x))))), add(vel, add(add(conditional(vel, x), conditional(conditional(add(x, add(vel, x)), conditional(x, vel)), vel)), conditional(add(y, add(add(conditional(vel, conditional(conditional(x, y), conditional(y, vel))), add(vel, y)), add(y, add(conditional(add(y, y), y), conditional(y, vel))))), x)))))), x)))), conditional(add(y, y), add(add(add(add(x, add(x, y)), y), add(vel, conditional(x, x))), x)))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2156.57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2145.19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2101.42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2404.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2371.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2333.31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2239.19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2136.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2105.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2030.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1901.77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1699.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1767.64</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1868.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1848.14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-2045.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="9.81" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="11" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="13" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6271,4 +6272,573 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>add(add(conditional(conditional(conditional(x, conditional(conditional(conditional(add(conditional(x, vel), conditional(vel, y)), x), conditional(add(add(x, conditional(vel, y)), conditional(x, y)), conditional(y, y))), vel)), add(add(vel, conditional(add(y, conditional(y, vel)), add(add(conditional(x, vel), add(x, y)), conditional(add(add(add(y, vel), y), conditional(y, y)), add(y, add(add(conditional(conditional(y, y), conditional(vel, vel)), add(add(x, y), add(vel, conditional(conditional(y, y), add(y, y))))), x)))))), conditional(conditional(conditional(conditional(y, y), x), conditional(add(y, conditional(add(x, x), y)), conditional(add(vel, x), conditional(add(x, conditional(x, x)), x)))), add(conditional(add(x, y), x), add(add(x, y), x))))), add(vel, vel)), conditional(x, add(x, conditional(x, vel)))), conditional(add(add(y, y), conditional(y, y)), add(add(x, add(x, y)), add(add(x, add(add(y, vel), add(x, y))), x))))</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>-1944.09</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-1983.23</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-1833.96</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-1818.42</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-1901.66</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-2186.24</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-2240.38</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-2185.09</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-1957.49</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-2034.13</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-1954.08</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-1882.37</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-1695.86</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-1783.76</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-1827.98</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-2003.01</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>conditional(add(add(y, add(y, y)), conditional(x, conditional(add(add(vel, conditional(y, conditional(x, conditional(add(x, vel), conditional(x, x))))), add(add(add(vel, x), add(y, add(y, y))), vel)), add(add(vel, vel), conditional(x, y))))), add(add(add(add(x, add(add(x, x), y)), add(y, x)), y), add(vel, x)))</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1532.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1348.34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1454.23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1411.54</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1712.81</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2032.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1951.16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1903.98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1652.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1812.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1937.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-2096.37</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-2144.27</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-2203.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2265.96</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-2312.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conditional(add(y, add(y, y)), add(add(add(add(vel, add(x, y)), conditional(x, conditional(add(x, vel), conditional(x, vel)))), add(add(x, add(x, x)), add(add(y, x), y))), conditional(x, add(conditional(y, add(x, add(add(add(conditional(vel, x), add(add(x, x), add(conditional(conditional(add(x, y), add(add(conditional(x, y), conditional(y, vel)), conditional(x, vel))), y), conditional(vel, y)))), add(x, add(add(add(x, x), add(add(x, y), x)), add(y, conditional(x, conditional(conditional(vel, add(conditional(vel, x), conditional(x, y))), conditional(vel, vel))))))), conditional(conditional(vel, y), x)))), x))))</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1367.22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1389.54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1204.39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1231.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1499.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1654.53</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1507.57</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1476.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1589.78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1747.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1898.52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1984.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2039.43</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-2074.51</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-2145.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-2185.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conditional(add(conditional(y, y), add(add(y, y), x)), add(conditional(vel, add(conditional(add(conditional(add(vel, vel), add(add(x, add(conditional(vel, add(x, x)), add(add(conditional(y, add(x, add(add(vel, x), conditional(x, x)))), conditional(vel, x)), add(y, x)))), x)), x), conditional(add(conditional(x, vel), add(x, y)), y)), vel)), add(add(vel, x), add(add(x, vel), add(add(add(conditional(x, conditional(x, x)), add(add(y, x), add(x, x))), add(add(conditional(conditional(add(x, conditional(y, vel)), y), x), x), add(add(add(add(conditional(x, x), conditional(add(x, y), conditional(y, vel))), add(x, x)), add(x, vel)), vel))), add(conditional(x, vel), add(x, y)))))))</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1405.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1481.18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1363.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1609.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1718.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1584.89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1701.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1608.97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1320.43</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-1549.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1644.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1775.87</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1870.54</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1975.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2054.64</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2111.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>conditional(add(add(conditional(y, y), x), add(y, y)), add(add(add(add(add(add(x, x), add(add(add(vel, conditional(x, x)), add(x, add(x, x))), vel)), conditional(y, vel)), add(x, y)), add(vel, x)), add(x, add(conditional(add(add(add(y, x), add(x, x)), conditional(conditional(vel, x), add(x, add(x, x)))), y), add(conditional(y, vel), x)))))</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1640.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1632.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1551.49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1626.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1739.95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1574.58</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1713.68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1658.51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1275.59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1500.89</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1686.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1774.19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1857.16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1974.98</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2039.42</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-2123.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>add(add(conditional(x, add(conditional(x, x), add(conditional(conditional(x, x), add(conditional(conditional(add(vel, y), conditional(x, x)), add(vel, conditional(y, add(add(y, vel), add(x, conditional(add(y, x), conditional(x, vel))))))), add(add(vel, vel), vel))), conditional(y, conditional(conditional(vel, y), add(y, y)))))), conditional(y, add(conditional(x, add(vel, x)), add(add(add(conditional(x, x), y), x), add(conditional(vel, vel), add(conditional(add(vel, y), add(vel, x)), x)))))), conditional(add(y, y), add(add(add(x, vel), x), add(add(y, add(y, add(x, x))), conditional(x, x)))))</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2265.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2277.55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2235.43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2255.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2272.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2266.74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2221.49</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2134.59</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2062.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1664.44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1653.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1738.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1834.98</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1858.45</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1917.04</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2042.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>add(conditional(y, add(add(add(x, y), conditional(y, add(conditional(add(vel, y), add(conditional(x, y), conditional(vel, x))), conditional(conditional(add(add(add(add(y, x), vel), conditional(vel, conditional(add(x, y), vel))), add(add(conditional(conditional(y, vel), y), x), y)), x), conditional(conditional(x, x), add(conditional(add(add(conditional(y, vel), conditional(vel, conditional(conditional(conditional(conditional(y, x), conditional(y, y)), y), conditional(x, x)))), x), conditional(vel, vel)), conditional(y, conditional(y, conditional(vel, conditional(y, add(vel, conditional(conditional(add(x, x), add(x, y)), add(y, vel))))))))))))), add(y, x))), conditional(add(conditional(conditional(x, y), conditional(y, x)), vel), add(add(y, vel), y)))</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2200.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1790.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1943.59</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2177.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2425.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2432.09</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2394.43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2389.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2260.74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2160.22</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1992.69</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1733.56</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1753.67</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1842.77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1840.54</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-2014.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conditional(add(add(add(y, y), add(y, y)), conditional(y, x)), add(add(x, x), add(vel, add(add(add(add(x, x), conditional(x, add(add(y, add(conditional(x, x), x)), add(add(vel, conditional(x, y)), conditional(conditional(x, y), conditional(add(conditional(conditional(vel, y), add(x, x)), add(y, y)), add(add(y, conditional(y, y)), add(vel, vel)))))))), conditional(y, conditional(conditional(y, y), conditional(x, y)))), add(conditional(conditional(x, vel), add(add(x, vel), add(vel, conditional(conditional(x, conditional(y, vel)), conditional(add(add(y, y), add(y, vel)), conditional(add(conditional(add(vel, vel), conditional(conditional(conditional(vel, y), add(x, vel)), y)), y), add(vel, vel))))))), add(x, add(x, add(add(y, vel), add(y, add(conditional(y, y), add(x, add(x, y))))))))))))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1300.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1245.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1176.57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1359.83</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1500.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1508.47</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1525.02</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1161.59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1792.99</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1912.36</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1947.28</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2030.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-2064.98</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-2109.59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-2162.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-2227.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conditional(add(add(conditional(x, vel), y), y), add(add(x, add(y, add(conditional(x, add(vel, y)), add(add(x, x), add(conditional(add(x, conditional(y, conditional(x, x))), add(conditional(conditional(conditional(y, y), add(add(x, conditional(y, conditional(y, x))), add(conditional(y, add(conditional(x, x), add(x, y))), add(x, vel)))), x), x)), x))))), add(x, vel)))</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1969.85</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2006.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1960.89</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1920.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1844.64</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1759.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1630.09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1543.47</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1227.27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1575.49</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1722.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1869.59</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1928.89</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-2041.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2082.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-2137.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>add(conditional(add(y, y), add(vel, add(x, add(add(add(x, add(x, x)), add(x, y)), y)))), conditional(conditional(x, x), conditional(add(x, x), add(add(conditional(add(conditional(vel, vel), y), conditional(vel, y)), vel), add(add(x, x), add(add(conditional(y, conditional(add(add(add(add(y, y), conditional(y, y)), x), vel), conditional(y, conditional(x, vel)))), vel), y))))))</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2468.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2424.31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2469.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2483.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2469.63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2417.33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2343.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2251.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2015.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2124.34</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2045.81</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1618.21</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1725.54</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1777.62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1801.76</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1989.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/full_obs_pendulum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC7B68-F197-9A4D-9459-8130036AE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01C6C5-5619-D74F-B70E-643A5723ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,50 +18,64 @@
     <sheet name="11" sheetId="3" r:id="rId3"/>
     <sheet name="12" sheetId="4" r:id="rId4"/>
     <sheet name="13" sheetId="5" r:id="rId5"/>
+    <sheet name="14" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+  <si>
+    <t>Can bring it up sometimes and sometimes fail</t>
+  </si>
+  <si>
+    <t>Trained in 12 gravity and tested other gravity</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), y), add(add(add(y, add(x, y)), add(add(add(x, x), add(vel, x)), x)), add(y, conditional(x, x))))</t>
+  </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>add(conditional(conditional(x, x), add(conditional(x, vel), add(y, y))), conditional(y, add(vel, add(x, y))))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(conditional(y, y), y), add(y, x)), add(add(x, conditional(add(x, y), add(y, conditional(vel, y)))), add(add(add(conditional(y, y), add(vel, vel)), add(y, vel)), x)))</t>
+  </si>
+  <si>
+    <t>add(conditional(conditional(y, y), add(add(conditional(add(x, y), y), conditional(x, vel)), vel)), conditional(conditional(x, x), add(add(x, x), conditional(y, y))))</t>
+  </si>
+  <si>
+    <t>add(conditional(conditional(y, y), add(add(x, x), add(y, vel))), conditional(add(y, x), add(add(x, y), vel)))</t>
+  </si>
+  <si>
+    <t>Light enough to regain control</t>
+  </si>
+  <si>
+    <t>Goes out of  control</t>
+  </si>
+  <si>
+    <t>too much force and goes out of control</t>
+  </si>
+  <si>
     <t>Too heavy to bring to top but can stabilize</t>
   </si>
   <si>
-    <t>Can bring it up sometimes and sometimes fail</t>
-  </si>
-  <si>
-    <t>Trained in 12 gravity and tested other gravity</t>
-  </si>
-  <si>
-    <t>conditional(add(add(y, y), y), add(add(add(y, add(x, y)), add(add(add(x, x), add(vel, x)), x)), add(y, conditional(x, x))))</t>
-  </si>
-  <si>
-    <t>add(conditional(conditional(x, x), add(conditional(x, vel), add(y, y))), conditional(y, add(vel, add(x, y))))</t>
-  </si>
-  <si>
-    <t>conditional(add(conditional(conditional(y, y), y), add(y, x)), add(add(x, conditional(add(x, y), add(y, conditional(vel, y)))), add(add(add(conditional(y, y), add(vel, vel)), add(y, vel)), x)))</t>
-  </si>
-  <si>
-    <t>add(conditional(conditional(y, y), add(add(conditional(add(x, y), y), conditional(x, vel)), vel)), conditional(conditional(x, x), add(add(x, x), conditional(y, y))))</t>
-  </si>
-  <si>
-    <t>add(conditional(conditional(y, y), add(add(x, x), add(y, vel))), conditional(add(y, x), add(add(x, y), vel)))</t>
-  </si>
-  <si>
-    <t>Light enough to regain control</t>
-  </si>
-  <si>
-    <t>Goes out of  control</t>
-  </si>
-  <si>
-    <t>too much force and goes out of control</t>
-  </si>
-  <si>
     <t xml:space="preserve">too heavy </t>
   </si>
   <si>
@@ -162,13 +176,157 @@
   </si>
   <si>
     <t>ind</t>
+  </si>
+  <si>
+    <t>conditional(add(y, add(y, y)), add(add(add(add(vel, x), add(x, x)), y), add(add(add(y, add(conditional(y, y), add(x, x))), vel), add(x, x))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), y), add(y, add(add(add(x, x), add(add(y, x), add(x, y))), add(add(conditional(conditional(conditional(x, vel), add(x, vel)), vel), conditional(x, y)), vel))))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, add(y, y)), add(add(add(add(add(x, conditional(x, x)), x), add(add(vel, add(add(add(add(x, conditional(conditional(x, vel), x)), x), add(add(add(vel, x), add(x, x)), x)), x)), add(add(x, conditional(conditional(y, x), add(vel, vel))), y))), vel), conditional(add(y, conditional(add(y, x), add(add(add(x, vel), add(x, x)), vel))), add(vel, conditional(conditional(conditional(y, vel), x), conditional(x, y))))))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(y, y), add(y, y)), add(add(vel, add(add(add(add(add(x, add(add(add(vel, x), y), add(x, x))), x), add(x, add(x, y))), conditional(x, conditional(y, add(vel, y)))), add(x, x))), add(y, x)))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), y), add(add(add(x, add(add(y, add(conditional(x, vel), conditional(x, y))), add(add(add(x, add(x, add(add(y, add(add(x, conditional(conditional(vel, x), add(y, y))), add(vel, x))), add(x, add(add(add(x, add(conditional(x, x), add(y, x))), add(vel, vel)), x))))), conditional(x, x)), x))), vel), x))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, add(conditional(x, conditional(add(add(add(y, add(conditional(y, y), y)), add(y, x)), conditional(y, conditional(y, vel))), conditional(x, y))), add(y, conditional(y, y)))), add(conditional(y, y), y)), add(add(conditional(x, x), add(vel, add(add(y, y), add(x, y)))), add(add(add(y, x), x), y)))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(conditional(x, vel), add(conditional(y, y), add(y, y))), add(y, y)), add(y, add(y, add(add(add(x, add(add(add(add(add(x, add(conditional(vel, add(add(vel, y), y)), add(conditional(y, add(y, add(y, add(x, x)))), x))), add(vel, conditional(x, x))), vel), add(add(x, x), x)), add(x, x))), add(add(y, add(add(add(x, add(add(y, y), add(x, x))), y), vel)), x)), vel))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), y), add(add(add(conditional(add(x, vel), add(vel, x)), add(conditional(add(conditional(conditional(y, y), conditional(vel, vel)), x), y), x)), add(add(y, x), add(x, vel))), add(add(add(x, x), conditional(conditional(x, y), add(add(x, y), conditional(y, y)))), add(x, y))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, add(y, y)), conditional(x, vel)), add(add(add(add(add(add(x, y), add(x, vel)), conditional(conditional(x, y), conditional(vel, add(add(conditional(conditional(y, vel), conditional(x, y)), y), add(x, x))))), add(add(x, x), conditional(x, y))), y), add(x, y)))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, y), add(conditional(x, conditional(conditional(y, x), add(vel, vel))), add(add(x, add(vel, add(conditional(conditional(conditional(x, vel), conditional(vel, vel)), conditional(x, x)), add(x, x)))), add(y, y))))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, y), add(add(add(add(x, y), x), add(add(x, add(x, x)), y)), vel))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(y, y), add(add(add(conditional(conditional(x, y), conditional(vel, conditional(x, add(x, vel)))), add(add(x, add(vel, x)), vel)), add(x, y)), add(add(x, x), x))), conditional(conditional(y, y), add(add(add(add(conditional(x, conditional(conditional(y, conditional(add(x, y), add(y, y))), vel)), add(x, vel)), add(x, conditional(conditional(x, add(y, y)), conditional(conditional(conditional(vel, x), vel), add(y, x))))), add(add(x, x), conditional(add(conditional(x, x), y), add(x, conditional(y, y))))), y)))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, y), add(conditional(conditional(conditional(conditional(x, vel), conditional(add(vel, x), conditional(y, x))), conditional(conditional(add(conditional(x, x), vel), x), vel)), y), add(add(x, y), add(add(vel, add(x, add(y, x))), conditional(x, x)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(y, add(x, vel)), conditional(add(y, y), add(add(add(add(x, add(conditional(add(y, x), add(y, x)), x)), x), add(vel, conditional(y, y))), conditional(add(conditional(x, conditional(vel, add(y, conditional(add(vel, y), x)))), x), conditional(vel, add(add(vel, x), conditional(add(y, y), conditional(add(conditional(y, vel), conditional(x, vel)), add(x, vel)))))))))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, add(y, y)), add(add(add(y, add(conditional(conditional(x, x), add(add(add(add(add(add(x, y), add(conditional(vel, y), add(x, add(add(vel, add(vel, x)), conditional(y, y))))), conditional(y, x)), add(x, x)), add(add(y, conditional(x, conditional(add(y, vel), conditional(y, y)))), conditional(x, x))), conditional(conditional(add(vel, x), conditional(x, x)), add(y, y)))), add(x, y))), add(x, x)), add(x, add(add(vel, x), conditional(conditional(y, x), y)))))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(y, y), add(y, y)), add(add(add(add(add(x, x), add(vel, x)), add(add(conditional(x, vel), x), add(x, add(add(add(add(add(vel, x), add(x, y)), add(add(x, vel), add(vel, conditional(vel, vel)))), add(add(add(add(add(add(add(x, x), add(y, y)), add(x, add(vel, add(add(y, vel), add(x, x))))), add(add(x, x), add(x, x))), x), x), x)), add(x, x))))), add(add(x, x), x)), x))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(x, add(x, conditional(conditional(x, x), add(conditional(conditional(y, add(y, vel)), conditional(add(add(x, add(conditional(conditional(x, conditional(x, add(vel, x))), add(add(conditional(add(vel, x), conditional(vel, y)), x), add(y, vel))), y)), y), y)), add(x, add(y, y)))))), add(y, y)), add(add(add(add(x, y), y), x), add(vel, x)))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, y), add(add(x, y), add(add(conditional(conditional(conditional(x, add(y, add(vel, x))), add(add(x, x), x)), add(x, add(y, y))), add(conditional(y, y), vel)), add(conditional(x, x), conditional(x, x)))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), y), add(add(add(x, vel), add(add(add(add(add(x, add(vel, add(x, add(x, x)))), add(add(y, add(y, vel)), add(x, add(add(conditional(x, x), conditional(y, y)), conditional(add(vel, x), conditional(vel, conditional(add(y, vel), add(y, vel)))))))), add(add(x, add(x, conditional(x, vel))), conditional(x, conditional(x, add(x, add(x, x)))))), add(x, x)), add(x, add(add(conditional(x, x), conditional(y, vel)), conditional(conditional(vel, vel), vel))))), add(add(x, add(x, x)), conditional(x, add(y, y)))))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, y), add(add(add(y, x), conditional(conditional(y, y), y)), add(vel, add(add(add(add(x, x), conditional(conditional(x, x), conditional(x, vel))), conditional(x, add(add(conditional(conditional(vel, y), add(x, conditional(x, x))), add(add(add(conditional(add(x, vel), add(conditional(y, y), vel)), x), add(x, y)), add(vel, add(x, x)))), add(add(x, conditional(add(y, add(add(y, add(x, x)), y)), add(vel, vel))), conditional(x, x))))), x))))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(x, add(conditional(add(y, conditional(conditional(vel, vel), add(vel, x))), add(add(add(x, vel), add(x, add(x, vel))), y)), add(add(y, x), conditional(x, vel)))), add(y, y)), add(add(x, vel), add(y, add(x, y))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, y), conditional(y, y)), add(add(add(conditional(x, vel), y), add(add(vel, x), add(conditional(y, y), conditional(x, x)))), add(add(y, x), add(conditional(x, x), conditional(x, x)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(conditional(x, vel), add(x, x)), conditional(add(y, y), add(add(vel, add(conditional(conditional(x, y), conditional(conditional(conditional(x, add(conditional(vel, add(add(vel, vel), conditional(x, y))), add(vel, conditional(x, conditional(conditional(x, vel), add(x, x)))))), add(vel, x)), conditional(y, add(conditional(y, x), conditional(add(vel, conditional(x, y)), x))))), add(add(x, y), add(x, add(x, x))))), y)))</t>
+  </si>
+  <si>
+    <t>add(conditional(x, add(vel, add(add(y, x), conditional(conditional(vel, x), add(x, y))))), conditional(add(y, add(y, y)), add(add(add(add(add(x, conditional(conditional(x, add(conditional(x, x), conditional(conditional(x, vel), add(conditional(x, y), add(x, x))))), add(conditional(y, vel), vel))), add(add(x, x), add(x, y))), add(x, conditional(add(x, y), conditional(x, x)))), add(x, add(add(conditional(x, x), add(vel, add(x, y))), vel))), x)))</t>
+  </si>
+  <si>
+    <t>add(conditional(x, conditional(vel, conditional(conditional(conditional(add(x, vel), conditional(conditional(add(vel, x), add(x, conditional(conditional(x, y), conditional(y, y)))), vel)), conditional(add(x, conditional(add(x, vel), add(vel, vel))), y)), add(conditional(y, y), add(y, add(vel, conditional(y, vel))))))), conditional(add(y, y), add(add(y, add(add(vel, x), add(x, x))), add(x, y))))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, add(y, y)), add(add(add(x, add(add(add(conditional(conditional(x, add(conditional(x, x), conditional(conditional(add(vel, y), x), y))), conditional(x, y)), add(add(y, x), conditional(conditional(conditional(vel, conditional(y, conditional(y, y))), conditional(add(x, y), conditional(x, x))), conditional(add(vel, y), conditional(add(x, y), conditional(conditional(conditional(conditional(add(x, vel), add(conditional(x, x), conditional(x, x))), vel), conditional(vel, y)), vel)))))), x), vel)), add(add(x, y), add(x, y))), vel))</t>
+  </si>
+  <si>
+    <t>add(conditional(x, conditional(vel, add(conditional(conditional(conditional(y, x), conditional(conditional(conditional(conditional(y, x), conditional(conditional(conditional(add(x, y), vel), add(x, y)), add(x, add(conditional(conditional(vel, x), add(x, y)), conditional(y, vel))))), conditional(add(add(conditional(conditional(y, y), conditional(y, vel)), vel), y), y)), add(x, add(conditional(conditional(vel, x), add(x, y)), conditional(y, vel))))), conditional(add(add(conditional(conditional(y, y), conditional(y, vel)), vel), y), y)), add(add(add(x, add(x, conditional(conditional(vel, vel), add(add(y, add(add(y, x), conditional(x, vel))), vel)))), conditional(conditional(conditional(add(x, x), conditional(y, x)), y), conditional(conditional(x, conditional(y, conditional(add(vel, vel), add(conditional(add(y, x), add(y, y)), conditional(conditional(x, y), x))))), add(vel, add(add(conditional(vel, x), conditional(conditional(add(x, add(vel, x)), conditional(x, vel)), vel)), conditional(add(y, add(add(conditional(vel, conditional(conditional(x, y), conditional(y, vel))), add(vel, y)), add(y, add(conditional(add(y, y), y), conditional(y, vel))))), x)))))), x)))), conditional(add(y, y), add(add(add(add(x, add(x, y)), y), add(vel, conditional(x, x))), x)))</t>
+  </si>
+  <si>
+    <t>add(add(conditional(conditional(conditional(x, conditional(conditional(conditional(add(conditional(x, vel), conditional(vel, y)), x), conditional(add(add(x, conditional(vel, y)), conditional(x, y)), conditional(y, y))), vel)), add(add(vel, conditional(add(y, conditional(y, vel)), add(add(conditional(x, vel), add(x, y)), conditional(add(add(add(y, vel), y), conditional(y, y)), add(y, add(add(conditional(conditional(y, y), conditional(vel, vel)), add(add(x, y), add(vel, conditional(conditional(y, y), add(y, y))))), x)))))), conditional(conditional(conditional(conditional(y, y), x), conditional(add(y, conditional(add(x, x), y)), conditional(add(vel, x), conditional(add(x, conditional(x, x)), x)))), add(conditional(add(x, y), x), add(add(x, y), x))))), add(vel, vel)), conditional(x, add(x, conditional(x, vel)))), conditional(add(add(y, y), conditional(y, y)), add(add(x, add(x, y)), add(add(x, add(add(y, vel), add(x, y))), x))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(y, add(y, y)), conditional(x, conditional(add(add(vel, conditional(y, conditional(x, conditional(add(x, vel), conditional(x, x))))), add(add(add(vel, x), add(y, add(y, y))), vel)), add(add(vel, vel), conditional(x, y))))), add(add(add(add(x, add(add(x, x), y)), add(y, x)), y), add(vel, x)))</t>
+  </si>
+  <si>
+    <t>conditional(add(y, add(y, y)), add(add(add(add(vel, add(x, y)), conditional(x, conditional(add(x, vel), conditional(x, vel)))), add(add(x, add(x, x)), add(add(y, x), y))), conditional(x, add(conditional(y, add(x, add(add(add(conditional(vel, x), add(add(x, x), add(conditional(conditional(add(x, y), add(add(conditional(x, y), conditional(y, vel)), conditional(x, vel))), y), conditional(vel, y)))), add(x, add(add(add(x, x), add(add(x, y), x)), add(y, conditional(x, conditional(conditional(vel, add(conditional(vel, x), conditional(x, y))), conditional(vel, vel))))))), conditional(conditional(vel, y), x)))), x))))</t>
+  </si>
+  <si>
+    <t>conditional(add(conditional(y, y), add(add(y, y), x)), add(conditional(vel, add(conditional(add(conditional(add(vel, vel), add(add(x, add(conditional(vel, add(x, x)), add(add(conditional(y, add(x, add(add(vel, x), conditional(x, x)))), conditional(vel, x)), add(y, x)))), x)), x), conditional(add(conditional(x, vel), add(x, y)), y)), vel)), add(add(vel, x), add(add(x, vel), add(add(add(conditional(x, conditional(x, x)), add(add(y, x), add(x, x))), add(add(conditional(conditional(add(x, conditional(y, vel)), y), x), x), add(add(add(add(conditional(x, x), conditional(add(x, y), conditional(y, vel))), add(x, x)), add(x, vel)), vel))), add(conditional(x, vel), add(x, y)))))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(conditional(y, y), x), add(y, y)), add(add(add(add(add(add(x, x), add(add(add(vel, conditional(x, x)), add(x, add(x, x))), vel)), conditional(y, vel)), add(x, y)), add(vel, x)), add(x, add(conditional(add(add(add(y, x), add(x, x)), conditional(conditional(vel, x), add(x, add(x, x)))), y), add(conditional(y, vel), x)))))</t>
+  </si>
+  <si>
+    <t>add(add(conditional(x, add(conditional(x, x), add(conditional(conditional(x, x), add(conditional(conditional(add(vel, y), conditional(x, x)), add(vel, conditional(y, add(add(y, vel), add(x, conditional(add(y, x), conditional(x, vel))))))), add(add(vel, vel), vel))), conditional(y, conditional(conditional(vel, y), add(y, y)))))), conditional(y, add(conditional(x, add(vel, x)), add(add(add(conditional(x, x), y), x), add(conditional(vel, vel), add(conditional(add(vel, y), add(vel, x)), x)))))), conditional(add(y, y), add(add(add(x, vel), x), add(add(y, add(y, add(x, x))), conditional(x, x)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(y, add(add(add(x, y), conditional(y, add(conditional(add(vel, y), add(conditional(x, y), conditional(vel, x))), conditional(conditional(add(add(add(add(y, x), vel), conditional(vel, conditional(add(x, y), vel))), add(add(conditional(conditional(y, vel), y), x), y)), x), conditional(conditional(x, x), add(conditional(add(add(conditional(y, vel), conditional(vel, conditional(conditional(conditional(conditional(y, x), conditional(y, y)), y), conditional(x, x)))), x), conditional(vel, vel)), conditional(y, conditional(y, conditional(vel, conditional(y, add(vel, conditional(conditional(add(x, x), add(x, y)), add(y, vel))))))))))))), add(y, x))), conditional(add(conditional(conditional(x, y), conditional(y, x)), vel), add(add(y, vel), y)))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(add(y, y), add(y, y)), conditional(y, x)), add(add(x, x), add(vel, add(add(add(add(x, x), conditional(x, add(add(y, add(conditional(x, x), x)), add(add(vel, conditional(x, y)), conditional(conditional(x, y), conditional(add(conditional(conditional(vel, y), add(x, x)), add(y, y)), add(add(y, conditional(y, y)), add(vel, vel)))))))), conditional(y, conditional(conditional(y, y), conditional(x, y)))), add(conditional(conditional(x, vel), add(add(x, vel), add(vel, conditional(conditional(x, conditional(y, vel)), conditional(add(add(y, y), add(y, vel)), conditional(add(conditional(add(vel, vel), conditional(conditional(conditional(vel, y), add(x, vel)), y)), y), add(vel, vel))))))), add(x, add(x, add(add(y, vel), add(y, add(conditional(y, y), add(x, add(x, y))))))))))))</t>
+  </si>
+  <si>
+    <t>conditional(add(add(conditional(x, vel), y), y), add(add(x, add(y, add(conditional(x, add(vel, y)), add(add(x, x), add(conditional(add(x, conditional(y, conditional(x, x))), add(conditional(conditional(conditional(y, y), add(add(x, conditional(y, conditional(y, x))), add(conditional(y, add(conditional(x, x), add(x, y))), add(x, vel)))), x), x)), x))))), add(x, vel)))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(y, y), add(vel, add(x, add(add(add(x, add(x, x)), add(x, y)), y)))), conditional(conditional(x, x), conditional(add(x, x), add(add(conditional(add(conditional(vel, vel), y), conditional(vel, y)), vel), add(add(x, x), add(add(conditional(y, conditional(add(add(add(add(y, y), conditional(y, y)), x), vel), conditional(y, conditional(x, vel)))), vel), y))))))</t>
+  </si>
+  <si>
+    <t>add(add(add(conditional(vel, add(vel, y)), conditional(x, conditional(conditional(add(conditional(conditional(x, x), y), add(vel, vel)), vel), add(conditional(conditional(y, conditional(vel, y)), y), vel)))), vel), conditional(add(y, y), add(add(add(vel, y), add(x, x)), add(add(y, x), add(x, x)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(x, conditional(add(conditional(x, y), conditional(x, x)), add(add(x, vel), add(add(vel, x), conditional(conditional(x, add(x, conditional(x, y))), x))))), add(conditional(y, add(y, add(x, vel))), conditional(conditional(y, vel), add(x, y))))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(y, y), add(add(x, add(y, x)), add(add(vel, x), y))), conditional(add(x, x), conditional(vel, conditional(conditional(add(x, vel), add(x, add(y, add(add(y, conditional(vel, conditional(conditional(conditional(y, vel), conditional(vel, x)), y))), add(y, vel))))), conditional(conditional(add(conditional(vel, vel), add(x, y)), add(y, add(y, x))), vel)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(y, y), add(add(x, add(add(y, x), add(x, x))), add(vel, y))), add(conditional(x, conditional(add(x, x), add(vel, vel))), add(conditional(x, conditional(add(conditional(add(vel, y), add(vel, conditional(x, vel))), conditional(conditional(add(y, vel), conditional(y, x)), y)), add(x, add(x, vel)))), conditional(x, add(x, y)))))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(conditional(conditional(x, conditional(y, vel)), y), vel), add(vel, y)), conditional(add(x, add(y, y)), add(add(add(add(y, conditional(add(conditional(add(x, y), add(vel, x)), x), conditional(y, vel))), vel), add(y, x)), add(x, add(conditional(x, x), add(conditional(conditional(x, y), conditional(vel, y)), x))))))</t>
+  </si>
+  <si>
+    <t>add(add(conditional(y, add(add(x, add(x, add(y, x))), vel)), conditional(x, y)), conditional(add(y, x), add(add(x, add(x, add(add(x, vel), conditional(y, vel)))), vel)))</t>
+  </si>
+  <si>
+    <t>add(conditional(add(conditional(x, conditional(x, conditional(add(x, conditional(conditional(add(x, conditional(y, conditional(conditional(vel, vel), conditional(vel, vel)))), conditional(conditional(vel, conditional(add(vel, x), conditional(y, y))), conditional(vel, conditional(add(vel, x), conditional(y, add(y, vel)))))), add(x, vel))), conditional(add(y, x), conditional(add(x, vel), conditional(x, y)))))), conditional(vel, conditional(vel, vel))), add(vel, y)), conditional(y, conditional(add(x, conditional(y, x)), conditional(conditional(vel, conditional(add(add(add(vel, x), add(vel, y)), x), add(y, vel))), conditional(vel, conditional(add(vel, x), conditional(y, add(y, y))))))))</t>
+  </si>
+  <si>
+    <t>add(add(conditional(y, add(add(add(x, x), add(x, x)), add(add(x, conditional(conditional(y, conditional(conditional(add(y, vel), add(vel, conditional(conditional(vel, add(x, x)), conditional(x, y)))), x)), add(conditional(conditional(x, add(conditional(y, x), conditional(y, x))), conditional(conditional(add(y, x), y), vel)), x))), conditional(vel, vel)))), conditional(x, add(conditional(x, vel), add(y, x)))), conditional(add(y, x), add(add(x, add(x, add(add(add(x, x), add(conditional(x, vel), add(vel, x))), conditional(conditional(vel, add(add(y, vel), add(vel, y))), conditional(add(vel, x), add(y, y)))))), add(vel, x))))</t>
+  </si>
+  <si>
+    <t>conditional(add(vel, conditional(conditional(x, add(add(conditional(add(add(y, conditional(y, x)), add(add(conditional(add(add(y, add(x, y)), add(vel, vel)), x), add(add(conditional(conditional(conditional(vel, x), conditional(x, x)), x), conditional(vel, conditional(y, vel))), y)), add(x, x))), x), add(y, y)), add(x, add(y, y)))), y)), add(conditional(y, y), vel))</t>
+  </si>
+  <si>
+    <t>add(add(conditional(conditional(x, add(add(add(x, conditional(x, y)), add(conditional(x, x), add(x, x))), conditional(y, conditional(add(y, conditional(y, y)), add(add(x, x), add(y, add(y, vel))))))), conditional(vel, vel)), conditional(x, add(vel, add(add(y, conditional(add(conditional(x, x), add(vel, vel)), conditional(x, x))), conditional(vel, conditional(add(vel, vel), y)))))), conditional(add(y, y), add(add(add(conditional(x, y), add(y, x)), add(x, x)), add(add(add(y, x), vel), x))))</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +352,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +440,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,7 +1105,7 @@
         <v>-653.63</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="8">
         <v>-1009.74</v>
@@ -963,7 +1129,7 @@
     </row>
     <row r="15" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="6"/>
@@ -990,34 +1156,34 @@
     <row r="16" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -1155,7 +1321,7 @@
         <v>-530.58000000000004</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="8">
         <v>-164.48</v>
@@ -1374,7 +1540,7 @@
         <v>-831.88</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="8">
         <v>-347.88</v>
@@ -1383,7 +1549,7 @@
         <v>-902.8</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="8">
         <v>-372.63</v>
@@ -1452,13 +1618,13 @@
         <v>-970.01</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F28" s="8">
         <v>-743.97</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8">
         <v>-1027.6500000000001</v>
@@ -1668,31 +1834,31 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2319,31 +2485,31 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -2997,31 +3163,31 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -3648,31 +3814,31 @@
         <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>43</v>
       </c>
       <c r="K88" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -4348,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A12" sqref="A12:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4409,6 +4575,602 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>-153.97999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-143.04</v>
+      </c>
+      <c r="D2">
+        <v>-139.36000000000001</v>
+      </c>
+      <c r="E2">
+        <v>-157.79</v>
+      </c>
+      <c r="F2">
+        <v>-146.94</v>
+      </c>
+      <c r="G2">
+        <v>-179.72</v>
+      </c>
+      <c r="H2">
+        <v>-177.84</v>
+      </c>
+      <c r="I2">
+        <v>-176.71</v>
+      </c>
+      <c r="J2">
+        <v>-173.73</v>
+      </c>
+      <c r="K2">
+        <v>-183.64</v>
+      </c>
+      <c r="L2">
+        <v>-209.47</v>
+      </c>
+      <c r="M2">
+        <v>-273.05</v>
+      </c>
+      <c r="N2">
+        <v>-1226.9100000000001</v>
+      </c>
+      <c r="O2">
+        <v>-1495.91</v>
+      </c>
+      <c r="P2">
+        <v>-1658.24</v>
+      </c>
+      <c r="Q2">
+        <v>-1759.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>-182.5</v>
+      </c>
+      <c r="C3">
+        <v>-213.47</v>
+      </c>
+      <c r="D3">
+        <v>-257.52999999999997</v>
+      </c>
+      <c r="E3">
+        <v>-316.24</v>
+      </c>
+      <c r="F3">
+        <v>-327.79</v>
+      </c>
+      <c r="G3">
+        <v>-293.83999999999997</v>
+      </c>
+      <c r="H3">
+        <v>-259.35000000000002</v>
+      </c>
+      <c r="I3">
+        <v>-225.85</v>
+      </c>
+      <c r="J3">
+        <v>-191.49</v>
+      </c>
+      <c r="K3">
+        <v>-204.18</v>
+      </c>
+      <c r="L3">
+        <v>-222.19</v>
+      </c>
+      <c r="M3">
+        <v>-273.23</v>
+      </c>
+      <c r="N3">
+        <v>-291.98</v>
+      </c>
+      <c r="O3">
+        <v>-412.12</v>
+      </c>
+      <c r="P3">
+        <v>-1616.23</v>
+      </c>
+      <c r="Q3">
+        <v>-1748.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>-174.44</v>
+      </c>
+      <c r="C4">
+        <v>-159.11000000000001</v>
+      </c>
+      <c r="D4">
+        <v>-150.55000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-160.30000000000001</v>
+      </c>
+      <c r="F4">
+        <v>-153.83000000000001</v>
+      </c>
+      <c r="G4">
+        <v>-172.59</v>
+      </c>
+      <c r="H4">
+        <v>-155.86000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-181.35</v>
+      </c>
+      <c r="J4">
+        <v>-190.55</v>
+      </c>
+      <c r="K4">
+        <v>-197.64</v>
+      </c>
+      <c r="L4">
+        <v>-215.52</v>
+      </c>
+      <c r="M4">
+        <v>-243.18</v>
+      </c>
+      <c r="N4">
+        <v>-496.54</v>
+      </c>
+      <c r="O4">
+        <v>-1426.59</v>
+      </c>
+      <c r="P4">
+        <v>-1619.85</v>
+      </c>
+      <c r="Q4">
+        <v>-1764.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>-167.13</v>
+      </c>
+      <c r="C5">
+        <v>-167.68</v>
+      </c>
+      <c r="D5">
+        <v>-162.87</v>
+      </c>
+      <c r="E5">
+        <v>-167.35</v>
+      </c>
+      <c r="F5">
+        <v>-175.51</v>
+      </c>
+      <c r="G5">
+        <v>-171.96</v>
+      </c>
+      <c r="H5">
+        <v>-188.83</v>
+      </c>
+      <c r="I5">
+        <v>-198.31</v>
+      </c>
+      <c r="J5">
+        <v>-191.87</v>
+      </c>
+      <c r="K5">
+        <v>-188.8</v>
+      </c>
+      <c r="L5">
+        <v>-198.93</v>
+      </c>
+      <c r="M5">
+        <v>-202</v>
+      </c>
+      <c r="N5">
+        <v>-222.95</v>
+      </c>
+      <c r="O5">
+        <v>-1068.73</v>
+      </c>
+      <c r="P5">
+        <v>-1573.99</v>
+      </c>
+      <c r="Q5">
+        <v>-1693.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-144.28</v>
+      </c>
+      <c r="C6">
+        <v>-123.1</v>
+      </c>
+      <c r="D6">
+        <v>-152.12</v>
+      </c>
+      <c r="E6">
+        <v>-143.30000000000001</v>
+      </c>
+      <c r="F6">
+        <v>-152.91999999999999</v>
+      </c>
+      <c r="G6">
+        <v>-180.66</v>
+      </c>
+      <c r="H6">
+        <v>-166.86</v>
+      </c>
+      <c r="I6">
+        <v>-196.24</v>
+      </c>
+      <c r="J6">
+        <v>-198.16</v>
+      </c>
+      <c r="K6">
+        <v>-188.54</v>
+      </c>
+      <c r="L6">
+        <v>-195.75</v>
+      </c>
+      <c r="M6">
+        <v>-256.13</v>
+      </c>
+      <c r="N6">
+        <v>-522.87</v>
+      </c>
+      <c r="O6">
+        <v>-1337.88</v>
+      </c>
+      <c r="P6">
+        <v>-1595.09</v>
+      </c>
+      <c r="Q6">
+        <v>-1737.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>-95.77</v>
+      </c>
+      <c r="C7">
+        <v>-105.59</v>
+      </c>
+      <c r="D7">
+        <v>-101.94</v>
+      </c>
+      <c r="E7">
+        <v>-118.41</v>
+      </c>
+      <c r="F7">
+        <v>-131.13999999999999</v>
+      </c>
+      <c r="G7">
+        <v>-135.43</v>
+      </c>
+      <c r="H7">
+        <v>-138.88999999999999</v>
+      </c>
+      <c r="I7">
+        <v>-157.28</v>
+      </c>
+      <c r="J7">
+        <v>-171.39</v>
+      </c>
+      <c r="K7">
+        <v>-178.9</v>
+      </c>
+      <c r="L7">
+        <v>-196.69</v>
+      </c>
+      <c r="M7">
+        <v>-199.22</v>
+      </c>
+      <c r="N7">
+        <v>-227.4</v>
+      </c>
+      <c r="O7">
+        <v>-863.96</v>
+      </c>
+      <c r="P7">
+        <v>-1508.59</v>
+      </c>
+      <c r="Q7">
+        <v>-1634.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>-79.23</v>
+      </c>
+      <c r="C8">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="D8">
+        <v>-82.28</v>
+      </c>
+      <c r="E8">
+        <v>-87.91</v>
+      </c>
+      <c r="F8">
+        <v>-104.92</v>
+      </c>
+      <c r="G8">
+        <v>-147.93</v>
+      </c>
+      <c r="H8">
+        <v>-179</v>
+      </c>
+      <c r="I8">
+        <v>-163.35</v>
+      </c>
+      <c r="J8">
+        <v>-157.82</v>
+      </c>
+      <c r="K8">
+        <v>-182.01</v>
+      </c>
+      <c r="L8">
+        <v>-187.78</v>
+      </c>
+      <c r="M8">
+        <v>-228.63</v>
+      </c>
+      <c r="N8">
+        <v>-685.74</v>
+      </c>
+      <c r="O8">
+        <v>-1395.6</v>
+      </c>
+      <c r="P8">
+        <v>-1642.73</v>
+      </c>
+      <c r="Q8">
+        <v>-1635.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>-144.41999999999999</v>
+      </c>
+      <c r="C9">
+        <v>-137.25</v>
+      </c>
+      <c r="D9">
+        <v>-127.81</v>
+      </c>
+      <c r="E9">
+        <v>-134.5</v>
+      </c>
+      <c r="F9">
+        <v>-153.38999999999999</v>
+      </c>
+      <c r="G9">
+        <v>-169.07</v>
+      </c>
+      <c r="H9">
+        <v>-177.85</v>
+      </c>
+      <c r="I9">
+        <v>-208.21</v>
+      </c>
+      <c r="J9">
+        <v>-192.42</v>
+      </c>
+      <c r="K9">
+        <v>-192.31</v>
+      </c>
+      <c r="L9">
+        <v>-222</v>
+      </c>
+      <c r="M9">
+        <v>-248.82</v>
+      </c>
+      <c r="N9">
+        <v>-1286.49</v>
+      </c>
+      <c r="O9">
+        <v>-1550.68</v>
+      </c>
+      <c r="P9">
+        <v>-1666.18</v>
+      </c>
+      <c r="Q9">
+        <v>-1734.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>-230.9</v>
+      </c>
+      <c r="C10">
+        <v>-241.24</v>
+      </c>
+      <c r="D10">
+        <v>-290.73</v>
+      </c>
+      <c r="E10">
+        <v>-284.01</v>
+      </c>
+      <c r="F10">
+        <v>-296.23</v>
+      </c>
+      <c r="G10">
+        <v>-336.2</v>
+      </c>
+      <c r="H10">
+        <v>-220.11</v>
+      </c>
+      <c r="I10">
+        <v>-195.36</v>
+      </c>
+      <c r="J10">
+        <v>-174.51</v>
+      </c>
+      <c r="K10">
+        <v>-187.71</v>
+      </c>
+      <c r="L10">
+        <v>-189.93</v>
+      </c>
+      <c r="M10">
+        <v>-247.35</v>
+      </c>
+      <c r="N10">
+        <v>-265.19</v>
+      </c>
+      <c r="O10">
+        <v>-857.93</v>
+      </c>
+      <c r="P10">
+        <v>-1569.61</v>
+      </c>
+      <c r="Q10">
+        <v>-1744.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>9.81</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2:B10)</f>
+        <v>-152.51666666666668</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:Q13" si="0">AVERAGE(C2:C10)</f>
+        <v>-152.09777777777776</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-162.79888888888888</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-174.42333333333335</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-182.51888888888891</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-198.60000000000002</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-184.95444444444445</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-189.18444444444444</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-182.4377777777778</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-189.30333333333334</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-204.2511111111111</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>-241.29000000000002</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-580.67444444444436</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-1156.6000000000001</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-1605.6122222222223</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>-1716.9955555555555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4416,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4477,6 +5239,655 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>-185.27</v>
+      </c>
+      <c r="C2">
+        <v>-170.11</v>
+      </c>
+      <c r="D2">
+        <v>-189.37</v>
+      </c>
+      <c r="E2">
+        <v>-162.93</v>
+      </c>
+      <c r="F2">
+        <v>-174.07</v>
+      </c>
+      <c r="G2">
+        <v>-188.5</v>
+      </c>
+      <c r="H2">
+        <v>-201.77</v>
+      </c>
+      <c r="I2">
+        <v>-193.92</v>
+      </c>
+      <c r="J2">
+        <v>-226.79</v>
+      </c>
+      <c r="K2">
+        <v>-224.13</v>
+      </c>
+      <c r="L2">
+        <v>-245.8</v>
+      </c>
+      <c r="M2">
+        <v>-474.14</v>
+      </c>
+      <c r="N2">
+        <v>-1327.53</v>
+      </c>
+      <c r="O2">
+        <v>-1601.73</v>
+      </c>
+      <c r="P2">
+        <v>-1671.24</v>
+      </c>
+      <c r="Q2">
+        <v>-1800.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>-231.67</v>
+      </c>
+      <c r="C3">
+        <v>-179.87</v>
+      </c>
+      <c r="D3">
+        <v>-170.5</v>
+      </c>
+      <c r="E3">
+        <v>-162.36000000000001</v>
+      </c>
+      <c r="F3">
+        <v>-176.62</v>
+      </c>
+      <c r="G3">
+        <v>-171.16</v>
+      </c>
+      <c r="H3">
+        <v>-192.4</v>
+      </c>
+      <c r="I3">
+        <v>-211.15</v>
+      </c>
+      <c r="J3">
+        <v>-243.69</v>
+      </c>
+      <c r="K3">
+        <v>-205.53</v>
+      </c>
+      <c r="L3">
+        <v>-220.62</v>
+      </c>
+      <c r="M3">
+        <v>-256.19</v>
+      </c>
+      <c r="N3">
+        <v>-988.17</v>
+      </c>
+      <c r="O3">
+        <v>-1460.69</v>
+      </c>
+      <c r="P3">
+        <v>-1654.05</v>
+      </c>
+      <c r="Q3">
+        <v>-1806.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>-232.67</v>
+      </c>
+      <c r="C4">
+        <v>-276.89999999999998</v>
+      </c>
+      <c r="D4">
+        <v>-306.22000000000003</v>
+      </c>
+      <c r="E4">
+        <v>-210.08</v>
+      </c>
+      <c r="F4">
+        <v>-260.86</v>
+      </c>
+      <c r="G4">
+        <v>-305.06</v>
+      </c>
+      <c r="H4">
+        <v>-282.7</v>
+      </c>
+      <c r="I4">
+        <v>-306.89</v>
+      </c>
+      <c r="J4">
+        <v>-296.01</v>
+      </c>
+      <c r="K4">
+        <v>-193.95</v>
+      </c>
+      <c r="L4">
+        <v>-219.01</v>
+      </c>
+      <c r="M4">
+        <v>-318.95999999999998</v>
+      </c>
+      <c r="N4">
+        <v>-1199.6500000000001</v>
+      </c>
+      <c r="O4">
+        <v>-1462.74</v>
+      </c>
+      <c r="P4">
+        <v>-1648.36</v>
+      </c>
+      <c r="Q4">
+        <v>-1839.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>-197.55</v>
+      </c>
+      <c r="C5">
+        <v>-169.82</v>
+      </c>
+      <c r="D5">
+        <v>-152.54</v>
+      </c>
+      <c r="E5">
+        <v>-171.03</v>
+      </c>
+      <c r="F5">
+        <v>-184.83</v>
+      </c>
+      <c r="G5">
+        <v>-196.42</v>
+      </c>
+      <c r="H5">
+        <v>-204.61</v>
+      </c>
+      <c r="I5">
+        <v>-219.51</v>
+      </c>
+      <c r="J5">
+        <v>-234.6</v>
+      </c>
+      <c r="K5">
+        <v>-201.61</v>
+      </c>
+      <c r="L5">
+        <v>-251.56</v>
+      </c>
+      <c r="M5">
+        <v>-426.35</v>
+      </c>
+      <c r="N5">
+        <v>-1339.7</v>
+      </c>
+      <c r="O5">
+        <v>-1507.18</v>
+      </c>
+      <c r="P5">
+        <v>-1713.2</v>
+      </c>
+      <c r="Q5">
+        <v>-1817.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>-188.82</v>
+      </c>
+      <c r="C6">
+        <v>-194.87</v>
+      </c>
+      <c r="D6">
+        <v>-223.04</v>
+      </c>
+      <c r="E6">
+        <v>-234.98</v>
+      </c>
+      <c r="F6">
+        <v>-273.14</v>
+      </c>
+      <c r="G6">
+        <v>-353.41</v>
+      </c>
+      <c r="H6">
+        <v>-352.96</v>
+      </c>
+      <c r="I6">
+        <v>-390.04</v>
+      </c>
+      <c r="J6">
+        <v>-361.08</v>
+      </c>
+      <c r="K6">
+        <v>-210.19</v>
+      </c>
+      <c r="L6">
+        <v>-238.87</v>
+      </c>
+      <c r="M6">
+        <v>-261.76</v>
+      </c>
+      <c r="N6">
+        <v>-1316.92</v>
+      </c>
+      <c r="O6">
+        <v>-1582.51</v>
+      </c>
+      <c r="P6">
+        <v>-1688.3</v>
+      </c>
+      <c r="Q6">
+        <v>-1843.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>-131.69</v>
+      </c>
+      <c r="C7">
+        <v>-145.49</v>
+      </c>
+      <c r="D7">
+        <v>-158.58000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-163.22</v>
+      </c>
+      <c r="F7">
+        <v>-169.94</v>
+      </c>
+      <c r="G7">
+        <v>-183.09</v>
+      </c>
+      <c r="H7">
+        <v>-166.88</v>
+      </c>
+      <c r="I7">
+        <v>-196</v>
+      </c>
+      <c r="J7">
+        <v>-197.67</v>
+      </c>
+      <c r="K7">
+        <v>-189.46</v>
+      </c>
+      <c r="L7">
+        <v>-211.54</v>
+      </c>
+      <c r="M7">
+        <v>-236.04</v>
+      </c>
+      <c r="N7">
+        <v>-624.89</v>
+      </c>
+      <c r="O7">
+        <v>-1428.67</v>
+      </c>
+      <c r="P7">
+        <v>-1611.6</v>
+      </c>
+      <c r="Q7">
+        <v>-1709.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>-129.34</v>
+      </c>
+      <c r="C8">
+        <v>-153.61000000000001</v>
+      </c>
+      <c r="D8">
+        <v>-138.66999999999999</v>
+      </c>
+      <c r="E8">
+        <v>-157.52000000000001</v>
+      </c>
+      <c r="F8">
+        <v>-163.38</v>
+      </c>
+      <c r="G8">
+        <v>-179.26</v>
+      </c>
+      <c r="H8">
+        <v>-167.26</v>
+      </c>
+      <c r="I8">
+        <v>-198.73</v>
+      </c>
+      <c r="J8">
+        <v>-171.06</v>
+      </c>
+      <c r="K8">
+        <v>-174</v>
+      </c>
+      <c r="L8">
+        <v>-197.36</v>
+      </c>
+      <c r="M8">
+        <v>-235.97</v>
+      </c>
+      <c r="N8">
+        <v>-887.33</v>
+      </c>
+      <c r="O8">
+        <v>-1492.69</v>
+      </c>
+      <c r="P8">
+        <v>-1629.29</v>
+      </c>
+      <c r="Q8">
+        <v>-1701.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>-90.61</v>
+      </c>
+      <c r="C9">
+        <v>-104.69</v>
+      </c>
+      <c r="D9">
+        <v>-130.59</v>
+      </c>
+      <c r="E9">
+        <v>-108.52</v>
+      </c>
+      <c r="F9">
+        <v>-168.38</v>
+      </c>
+      <c r="G9">
+        <v>-168.36</v>
+      </c>
+      <c r="H9">
+        <v>-188.96</v>
+      </c>
+      <c r="I9">
+        <v>-171.49</v>
+      </c>
+      <c r="J9">
+        <v>-188.78</v>
+      </c>
+      <c r="K9">
+        <v>-195.41</v>
+      </c>
+      <c r="L9">
+        <v>-207.72</v>
+      </c>
+      <c r="M9">
+        <v>-258.06</v>
+      </c>
+      <c r="N9">
+        <v>-1268.54</v>
+      </c>
+      <c r="O9">
+        <v>-1455.43</v>
+      </c>
+      <c r="P9">
+        <v>-1587.73</v>
+      </c>
+      <c r="Q9">
+        <v>-1704.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>-148.81</v>
+      </c>
+      <c r="C10">
+        <v>-148.72</v>
+      </c>
+      <c r="D10">
+        <v>-172.49</v>
+      </c>
+      <c r="E10">
+        <v>-149.77000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-165.05</v>
+      </c>
+      <c r="G10">
+        <v>-208.89</v>
+      </c>
+      <c r="H10">
+        <v>-213.99</v>
+      </c>
+      <c r="I10">
+        <v>-215.45</v>
+      </c>
+      <c r="J10">
+        <v>-233.28</v>
+      </c>
+      <c r="K10">
+        <v>-210.81</v>
+      </c>
+      <c r="L10">
+        <v>-218.54</v>
+      </c>
+      <c r="M10">
+        <v>-571.52</v>
+      </c>
+      <c r="N10">
+        <v>-1452.29</v>
+      </c>
+      <c r="O10">
+        <v>-1601.82</v>
+      </c>
+      <c r="P10">
+        <v>-1737.82</v>
+      </c>
+      <c r="Q10">
+        <v>-1823.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>-269.14</v>
+      </c>
+      <c r="C11">
+        <v>-254.15</v>
+      </c>
+      <c r="D11">
+        <v>-312.14</v>
+      </c>
+      <c r="E11">
+        <v>-277.25</v>
+      </c>
+      <c r="F11">
+        <v>-263.45999999999998</v>
+      </c>
+      <c r="G11">
+        <v>-283.45999999999998</v>
+      </c>
+      <c r="H11">
+        <v>-206.32</v>
+      </c>
+      <c r="I11">
+        <v>-195.4</v>
+      </c>
+      <c r="J11">
+        <v>-181.69</v>
+      </c>
+      <c r="K11">
+        <v>-182.51</v>
+      </c>
+      <c r="L11">
+        <v>-205.07</v>
+      </c>
+      <c r="M11">
+        <v>-225.96</v>
+      </c>
+      <c r="N11">
+        <v>-268.24</v>
+      </c>
+      <c r="O11">
+        <v>-442.72</v>
+      </c>
+      <c r="P11">
+        <v>-1587.49</v>
+      </c>
+      <c r="Q11">
+        <v>-1739.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>9.81</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B3:B11)</f>
+        <v>-180.0333333333333</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C3:C11)</f>
+        <v>-180.90222222222224</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="C14:Q14" si="0">AVERAGE(D3:D11)</f>
+        <v>-196.08555555555554</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-181.63666666666666</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-202.85111111111112</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-227.67888888888885</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-219.56444444444446</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-233.85111111111109</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-234.20666666666668</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>-195.94111111111113</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>-218.92111111111112</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-310.08999999999997</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>-1038.4144444444446</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>-1381.6055555555556</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-1650.8711111111108</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>-1776.0466666666669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4484,10 +5895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A11" sqref="A11:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4545,6 +5956,550 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>-141.75</v>
+      </c>
+      <c r="C2">
+        <v>-150.24</v>
+      </c>
+      <c r="D2">
+        <v>-159.97</v>
+      </c>
+      <c r="E2">
+        <v>-178.99</v>
+      </c>
+      <c r="F2">
+        <v>-189.66</v>
+      </c>
+      <c r="G2">
+        <v>-190.62</v>
+      </c>
+      <c r="H2">
+        <v>-210.61</v>
+      </c>
+      <c r="I2">
+        <v>-210.79</v>
+      </c>
+      <c r="J2">
+        <v>-228.39</v>
+      </c>
+      <c r="K2">
+        <v>-223.36</v>
+      </c>
+      <c r="L2">
+        <v>-229</v>
+      </c>
+      <c r="M2">
+        <v>-385.05</v>
+      </c>
+      <c r="N2">
+        <v>-1406.11</v>
+      </c>
+      <c r="O2">
+        <v>-1609.77</v>
+      </c>
+      <c r="P2">
+        <v>-1660.76</v>
+      </c>
+      <c r="Q2">
+        <v>-1832.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>-1371.54</v>
+      </c>
+      <c r="C3">
+        <v>-1193.71</v>
+      </c>
+      <c r="D3">
+        <v>-1215.8900000000001</v>
+      </c>
+      <c r="E3">
+        <v>-1164.92</v>
+      </c>
+      <c r="F3">
+        <v>-1191.74</v>
+      </c>
+      <c r="G3">
+        <v>-1092.23</v>
+      </c>
+      <c r="H3">
+        <v>-1147.69</v>
+      </c>
+      <c r="I3">
+        <v>-1340.14</v>
+      </c>
+      <c r="J3">
+        <v>-1075.19</v>
+      </c>
+      <c r="K3">
+        <v>-1023.32</v>
+      </c>
+      <c r="L3">
+        <v>-190</v>
+      </c>
+      <c r="M3">
+        <v>-205.39</v>
+      </c>
+      <c r="N3">
+        <v>-638.15</v>
+      </c>
+      <c r="O3">
+        <v>-1452.94</v>
+      </c>
+      <c r="P3">
+        <v>-1611.05</v>
+      </c>
+      <c r="Q3">
+        <v>-1759.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>-210.03</v>
+      </c>
+      <c r="C4">
+        <v>-244.37</v>
+      </c>
+      <c r="D4">
+        <v>-299.10000000000002</v>
+      </c>
+      <c r="E4">
+        <v>-274.69</v>
+      </c>
+      <c r="F4">
+        <v>-318.94</v>
+      </c>
+      <c r="G4">
+        <v>-272.51</v>
+      </c>
+      <c r="H4">
+        <v>-230.23</v>
+      </c>
+      <c r="I4">
+        <v>-217.87</v>
+      </c>
+      <c r="J4">
+        <v>-201.02</v>
+      </c>
+      <c r="K4">
+        <v>-196.31</v>
+      </c>
+      <c r="L4">
+        <v>-203.12</v>
+      </c>
+      <c r="M4">
+        <v>-219.2</v>
+      </c>
+      <c r="N4">
+        <v>-260.49</v>
+      </c>
+      <c r="O4">
+        <v>-441</v>
+      </c>
+      <c r="P4">
+        <v>-1548.85</v>
+      </c>
+      <c r="Q4">
+        <v>-1657.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>-916.15</v>
+      </c>
+      <c r="C5">
+        <v>-1019.93</v>
+      </c>
+      <c r="D5">
+        <v>-1054</v>
+      </c>
+      <c r="E5">
+        <v>-1020.29</v>
+      </c>
+      <c r="F5">
+        <v>-1123.8900000000001</v>
+      </c>
+      <c r="G5">
+        <v>-970.35</v>
+      </c>
+      <c r="H5">
+        <v>-1101.01</v>
+      </c>
+      <c r="I5">
+        <v>-1086.78</v>
+      </c>
+      <c r="J5">
+        <v>-1069.54</v>
+      </c>
+      <c r="K5">
+        <v>-893.87</v>
+      </c>
+      <c r="L5">
+        <v>-177.12</v>
+      </c>
+      <c r="M5">
+        <v>-203.09</v>
+      </c>
+      <c r="N5">
+        <v>-238.71</v>
+      </c>
+      <c r="O5">
+        <v>-250.94</v>
+      </c>
+      <c r="P5">
+        <v>-1396.96</v>
+      </c>
+      <c r="Q5">
+        <v>-1630.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>-476.44</v>
+      </c>
+      <c r="C6">
+        <v>-427.76</v>
+      </c>
+      <c r="D6">
+        <v>-394.77</v>
+      </c>
+      <c r="E6">
+        <v>-362.96</v>
+      </c>
+      <c r="F6">
+        <v>-286.74</v>
+      </c>
+      <c r="G6">
+        <v>-191.02</v>
+      </c>
+      <c r="H6">
+        <v>-194.2</v>
+      </c>
+      <c r="I6">
+        <v>-178.21</v>
+      </c>
+      <c r="J6">
+        <v>-196.82</v>
+      </c>
+      <c r="K6">
+        <v>-203.11</v>
+      </c>
+      <c r="L6">
+        <v>-200.66</v>
+      </c>
+      <c r="M6">
+        <v>-183.95</v>
+      </c>
+      <c r="N6">
+        <v>-217.11</v>
+      </c>
+      <c r="O6">
+        <v>-275.02999999999997</v>
+      </c>
+      <c r="P6">
+        <v>-395.57</v>
+      </c>
+      <c r="Q6">
+        <v>-1555.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>-1014.73</v>
+      </c>
+      <c r="C7">
+        <v>-1023.48</v>
+      </c>
+      <c r="D7">
+        <v>-1158.99</v>
+      </c>
+      <c r="E7">
+        <v>-1035.3599999999999</v>
+      </c>
+      <c r="F7">
+        <v>-1082.75</v>
+      </c>
+      <c r="G7">
+        <v>-1002.28</v>
+      </c>
+      <c r="H7">
+        <v>-936.36</v>
+      </c>
+      <c r="I7">
+        <v>-1003.95</v>
+      </c>
+      <c r="J7">
+        <v>-874.98</v>
+      </c>
+      <c r="K7">
+        <v>-776.33</v>
+      </c>
+      <c r="L7">
+        <v>-187.13</v>
+      </c>
+      <c r="M7">
+        <v>-195.86</v>
+      </c>
+      <c r="N7">
+        <v>-210.98</v>
+      </c>
+      <c r="O7">
+        <v>-704.25</v>
+      </c>
+      <c r="P7">
+        <v>-1484.88</v>
+      </c>
+      <c r="Q7">
+        <v>-1648.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>-310.01</v>
+      </c>
+      <c r="C8">
+        <v>-288.10000000000002</v>
+      </c>
+      <c r="D8">
+        <v>-295</v>
+      </c>
+      <c r="E8">
+        <v>-313.73</v>
+      </c>
+      <c r="F8">
+        <v>-352.17</v>
+      </c>
+      <c r="G8">
+        <v>-282.69</v>
+      </c>
+      <c r="H8">
+        <v>-217.21</v>
+      </c>
+      <c r="I8">
+        <v>-193.05</v>
+      </c>
+      <c r="J8">
+        <v>-167.04</v>
+      </c>
+      <c r="K8">
+        <v>-176.89</v>
+      </c>
+      <c r="L8">
+        <v>-199.65</v>
+      </c>
+      <c r="M8">
+        <v>-202.61</v>
+      </c>
+      <c r="N8">
+        <v>-255.97</v>
+      </c>
+      <c r="O8">
+        <v>-444.98</v>
+      </c>
+      <c r="P8">
+        <v>-1565.32</v>
+      </c>
+      <c r="Q8">
+        <v>-1704.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>-1171.1500000000001</v>
+      </c>
+      <c r="C9">
+        <v>-1195.47</v>
+      </c>
+      <c r="D9">
+        <v>-1088.67</v>
+      </c>
+      <c r="E9">
+        <v>-1022.22</v>
+      </c>
+      <c r="F9">
+        <v>-1140.83</v>
+      </c>
+      <c r="G9">
+        <v>-1132.1400000000001</v>
+      </c>
+      <c r="H9">
+        <v>-945.21</v>
+      </c>
+      <c r="I9">
+        <v>-1034.25</v>
+      </c>
+      <c r="J9">
+        <v>-944.83</v>
+      </c>
+      <c r="K9">
+        <v>-877.47</v>
+      </c>
+      <c r="L9">
+        <v>-177.86</v>
+      </c>
+      <c r="M9">
+        <v>-190.24</v>
+      </c>
+      <c r="N9">
+        <v>-203.48</v>
+      </c>
+      <c r="O9">
+        <v>-740.35</v>
+      </c>
+      <c r="P9">
+        <v>-1485.84</v>
+      </c>
+      <c r="Q9">
+        <v>-1693.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14">
+        <v>8</v>
+      </c>
+      <c r="J11" s="14">
+        <v>9.81</v>
+      </c>
+      <c r="K11" s="14">
+        <v>11</v>
+      </c>
+      <c r="L11" s="14">
+        <v>12</v>
+      </c>
+      <c r="M11" s="14">
+        <v>13</v>
+      </c>
+      <c r="N11" s="14">
+        <v>14</v>
+      </c>
+      <c r="O11" s="14">
+        <v>15</v>
+      </c>
+      <c r="P11" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="14">
+        <f>AVERAGE(B2:B9)</f>
+        <v>-701.47499999999991</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:Q12" si="0">AVERAGE(C2:C9)</f>
+        <v>-692.88250000000005</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>-708.29875000000004</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>-671.6450000000001</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>-710.84</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>-641.73</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>-622.81500000000005</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>-658.13</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>-594.72625000000005</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>-546.33249999999998</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="0"/>
+        <v>-195.5675</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="0"/>
+        <v>-223.17375000000001</v>
+      </c>
+      <c r="N12" s="14">
+        <f t="shared" si="0"/>
+        <v>-428.875</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="0"/>
+        <v>-739.90750000000003</v>
+      </c>
+      <c r="P12" s="14">
+        <f>AVERAGE(P2:P9)</f>
+        <v>-1393.6537499999999</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="0"/>
+        <v>-1685.2024999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4552,10 +6507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4613,6 +6568,1321 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>-847.3</v>
+      </c>
+      <c r="C2">
+        <v>-828.49</v>
+      </c>
+      <c r="D2">
+        <v>-813.03</v>
+      </c>
+      <c r="E2">
+        <v>-923.7</v>
+      </c>
+      <c r="F2">
+        <v>-1002.57</v>
+      </c>
+      <c r="G2">
+        <v>-1030.0999999999999</v>
+      </c>
+      <c r="H2">
+        <v>-1047.4000000000001</v>
+      </c>
+      <c r="I2">
+        <v>-992.57</v>
+      </c>
+      <c r="J2">
+        <v>-1011.77</v>
+      </c>
+      <c r="K2">
+        <v>-944.09</v>
+      </c>
+      <c r="L2">
+        <v>-751.05</v>
+      </c>
+      <c r="M2">
+        <v>-176.81</v>
+      </c>
+      <c r="N2">
+        <v>-203.67</v>
+      </c>
+      <c r="O2">
+        <v>-199.9</v>
+      </c>
+      <c r="P2">
+        <v>-224.82</v>
+      </c>
+      <c r="Q2">
+        <v>-1406.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>-413.81</v>
+      </c>
+      <c r="C3">
+        <v>-341.37</v>
+      </c>
+      <c r="D3">
+        <v>-398.34</v>
+      </c>
+      <c r="E3">
+        <v>-367.43</v>
+      </c>
+      <c r="F3">
+        <v>-410.29</v>
+      </c>
+      <c r="G3">
+        <v>-341.42</v>
+      </c>
+      <c r="H3">
+        <v>-299.55</v>
+      </c>
+      <c r="I3">
+        <v>-219.96</v>
+      </c>
+      <c r="J3">
+        <v>-211.79</v>
+      </c>
+      <c r="K3">
+        <v>-236.17</v>
+      </c>
+      <c r="L3">
+        <v>-215.91</v>
+      </c>
+      <c r="M3">
+        <v>-226.55</v>
+      </c>
+      <c r="N3">
+        <v>-232.9</v>
+      </c>
+      <c r="O3">
+        <v>-340.16</v>
+      </c>
+      <c r="P3">
+        <v>-1533.41</v>
+      </c>
+      <c r="Q3">
+        <v>-1741.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>-146.6</v>
+      </c>
+      <c r="C4">
+        <v>-154</v>
+      </c>
+      <c r="D4">
+        <v>-152.74</v>
+      </c>
+      <c r="E4">
+        <v>-150.56</v>
+      </c>
+      <c r="F4">
+        <v>-146.01</v>
+      </c>
+      <c r="G4">
+        <v>-165.31</v>
+      </c>
+      <c r="H4">
+        <v>-179.11</v>
+      </c>
+      <c r="I4">
+        <v>-184.33</v>
+      </c>
+      <c r="J4">
+        <v>-183.5</v>
+      </c>
+      <c r="K4">
+        <v>-174.94</v>
+      </c>
+      <c r="L4">
+        <v>-183.7</v>
+      </c>
+      <c r="M4">
+        <v>-195.36</v>
+      </c>
+      <c r="N4">
+        <v>-211.28</v>
+      </c>
+      <c r="O4">
+        <v>-1247.8399999999999</v>
+      </c>
+      <c r="P4">
+        <v>-1513.57</v>
+      </c>
+      <c r="Q4">
+        <v>-1693.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>-146.78</v>
+      </c>
+      <c r="C5">
+        <v>-127.98</v>
+      </c>
+      <c r="D5">
+        <v>-145.51</v>
+      </c>
+      <c r="E5">
+        <v>-156.72</v>
+      </c>
+      <c r="F5">
+        <v>-176.5</v>
+      </c>
+      <c r="G5">
+        <v>-140.79</v>
+      </c>
+      <c r="H5">
+        <v>-187.73</v>
+      </c>
+      <c r="I5">
+        <v>-159.34</v>
+      </c>
+      <c r="J5">
+        <v>-196.25</v>
+      </c>
+      <c r="K5">
+        <v>-211.57</v>
+      </c>
+      <c r="L5">
+        <v>-200.67</v>
+      </c>
+      <c r="M5">
+        <v>-224.88</v>
+      </c>
+      <c r="N5">
+        <v>-607.64</v>
+      </c>
+      <c r="O5">
+        <v>-1400.38</v>
+      </c>
+      <c r="P5">
+        <v>-1581.19</v>
+      </c>
+      <c r="Q5">
+        <v>-1666.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>-433.35</v>
+      </c>
+      <c r="C6">
+        <v>-500.78</v>
+      </c>
+      <c r="D6">
+        <v>-540.99</v>
+      </c>
+      <c r="E6">
+        <v>-528.25</v>
+      </c>
+      <c r="F6">
+        <v>-576.05999999999995</v>
+      </c>
+      <c r="G6">
+        <v>-546.41</v>
+      </c>
+      <c r="H6">
+        <v>-460.68</v>
+      </c>
+      <c r="I6">
+        <v>-385.88</v>
+      </c>
+      <c r="J6">
+        <v>-226.71</v>
+      </c>
+      <c r="K6">
+        <v>-254.26</v>
+      </c>
+      <c r="L6">
+        <v>-257.72000000000003</v>
+      </c>
+      <c r="M6">
+        <v>-234.57</v>
+      </c>
+      <c r="N6">
+        <v>-240.42</v>
+      </c>
+      <c r="O6">
+        <v>-916.46</v>
+      </c>
+      <c r="P6">
+        <v>-1595.78</v>
+      </c>
+      <c r="Q6">
+        <v>-1698.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>-487.05</v>
+      </c>
+      <c r="C7">
+        <v>-624.41</v>
+      </c>
+      <c r="D7">
+        <v>-712.88</v>
+      </c>
+      <c r="E7">
+        <v>-699.56</v>
+      </c>
+      <c r="F7">
+        <v>-804.78</v>
+      </c>
+      <c r="G7">
+        <v>-836.03</v>
+      </c>
+      <c r="H7">
+        <v>-845.95</v>
+      </c>
+      <c r="I7">
+        <v>-908.57</v>
+      </c>
+      <c r="J7">
+        <v>-705.69</v>
+      </c>
+      <c r="K7">
+        <v>-276.69</v>
+      </c>
+      <c r="L7">
+        <v>-187.54</v>
+      </c>
+      <c r="M7">
+        <v>-220.73</v>
+      </c>
+      <c r="N7">
+        <v>-282.87</v>
+      </c>
+      <c r="O7">
+        <v>-1290.98</v>
+      </c>
+      <c r="P7">
+        <v>-1451.97</v>
+      </c>
+      <c r="Q7">
+        <v>-1709.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>-1015.81</v>
+      </c>
+      <c r="C8">
+        <v>-1178.33</v>
+      </c>
+      <c r="D8">
+        <v>-1071.45</v>
+      </c>
+      <c r="E8">
+        <v>-1215.3399999999999</v>
+      </c>
+      <c r="F8">
+        <v>-1305.58</v>
+      </c>
+      <c r="G8">
+        <v>-1408.31</v>
+      </c>
+      <c r="H8">
+        <v>-1586.76</v>
+      </c>
+      <c r="I8">
+        <v>-1486.52</v>
+      </c>
+      <c r="J8">
+        <v>-1486.93</v>
+      </c>
+      <c r="K8">
+        <v>-1352.23</v>
+      </c>
+      <c r="L8">
+        <v>-1007.03</v>
+      </c>
+      <c r="M8">
+        <v>-241.01</v>
+      </c>
+      <c r="N8">
+        <v>-1151.72</v>
+      </c>
+      <c r="O8">
+        <v>-1464.51</v>
+      </c>
+      <c r="P8">
+        <v>-1641.49</v>
+      </c>
+      <c r="Q8">
+        <v>-1751.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>-144.03</v>
+      </c>
+      <c r="C9">
+        <v>-139.57</v>
+      </c>
+      <c r="D9">
+        <v>-136.75</v>
+      </c>
+      <c r="E9">
+        <v>-159.96</v>
+      </c>
+      <c r="F9">
+        <v>-201.6</v>
+      </c>
+      <c r="G9">
+        <v>-207.75</v>
+      </c>
+      <c r="H9">
+        <v>-177.45</v>
+      </c>
+      <c r="I9">
+        <v>-231.59</v>
+      </c>
+      <c r="J9">
+        <v>-174.13</v>
+      </c>
+      <c r="K9">
+        <v>-185.54</v>
+      </c>
+      <c r="L9">
+        <v>-194.8</v>
+      </c>
+      <c r="M9">
+        <v>-211.5</v>
+      </c>
+      <c r="N9">
+        <v>-244.29</v>
+      </c>
+      <c r="O9">
+        <v>-1249.77</v>
+      </c>
+      <c r="P9">
+        <v>-1556.64</v>
+      </c>
+      <c r="Q9">
+        <v>-1620.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>-396.68</v>
+      </c>
+      <c r="C10">
+        <v>-496.28</v>
+      </c>
+      <c r="D10">
+        <v>-409.83</v>
+      </c>
+      <c r="E10">
+        <v>-436.49</v>
+      </c>
+      <c r="F10">
+        <v>-334.26</v>
+      </c>
+      <c r="G10">
+        <v>-389.41</v>
+      </c>
+      <c r="H10">
+        <v>-295.14999999999998</v>
+      </c>
+      <c r="I10">
+        <v>-194.83</v>
+      </c>
+      <c r="J10">
+        <v>-206.81</v>
+      </c>
+      <c r="K10">
+        <v>-200.73</v>
+      </c>
+      <c r="L10">
+        <v>-215.19</v>
+      </c>
+      <c r="M10">
+        <v>-213.17</v>
+      </c>
+      <c r="N10">
+        <v>-303.41000000000003</v>
+      </c>
+      <c r="O10">
+        <v>-1464.83</v>
+      </c>
+      <c r="P10">
+        <v>-1634.66</v>
+      </c>
+      <c r="Q10">
+        <v>-1812.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>-1158.4100000000001</v>
+      </c>
+      <c r="C11">
+        <v>-1307.6500000000001</v>
+      </c>
+      <c r="D11">
+        <v>-1367.03</v>
+      </c>
+      <c r="E11">
+        <v>-1368.16</v>
+      </c>
+      <c r="F11">
+        <v>-1411.35</v>
+      </c>
+      <c r="G11">
+        <v>-1289.73</v>
+      </c>
+      <c r="H11">
+        <v>-1145.9000000000001</v>
+      </c>
+      <c r="I11">
+        <v>-1034.43</v>
+      </c>
+      <c r="J11">
+        <v>-1015.35</v>
+      </c>
+      <c r="K11">
+        <v>-943.43</v>
+      </c>
+      <c r="L11">
+        <v>-183.21</v>
+      </c>
+      <c r="M11">
+        <v>-189.05</v>
+      </c>
+      <c r="N11">
+        <v>-204.11</v>
+      </c>
+      <c r="O11">
+        <v>-215.61</v>
+      </c>
+      <c r="P11">
+        <v>-1377.17</v>
+      </c>
+      <c r="Q11">
+        <v>-1651.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>4</v>
+      </c>
+      <c r="F13" s="14">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14">
+        <v>7</v>
+      </c>
+      <c r="I13" s="14">
+        <v>8</v>
+      </c>
+      <c r="J13" s="14">
+        <v>9.81</v>
+      </c>
+      <c r="K13" s="14">
+        <v>11</v>
+      </c>
+      <c r="L13" s="14">
+        <v>12</v>
+      </c>
+      <c r="M13" s="14">
+        <v>13</v>
+      </c>
+      <c r="N13" s="14">
+        <v>14</v>
+      </c>
+      <c r="O13" s="14">
+        <v>15</v>
+      </c>
+      <c r="P13" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14">
+        <f>AVERAGE(B2:B11)</f>
+        <v>-518.98199999999997</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:Q14" si="0">AVERAGE(C2:C11)</f>
+        <v>-569.88600000000008</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="0"/>
+        <v>-574.8549999999999</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>-600.61699999999996</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>-636.9</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>-635.52599999999984</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>-622.56799999999998</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>-579.80200000000002</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>-541.89300000000014</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>-477.96499999999997</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="0"/>
+        <v>-339.68200000000002</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="0"/>
+        <v>-213.363</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="0"/>
+        <v>-368.23099999999999</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="0"/>
+        <v>-979.0440000000001</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="0"/>
+        <v>-1411.07</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="0"/>
+        <v>-1675.268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1">
+        <v>-870.31</v>
+      </c>
+      <c r="C1">
+        <v>-794.29</v>
+      </c>
+      <c r="D1">
+        <v>-975.99</v>
+      </c>
+      <c r="E1">
+        <v>-1017.38</v>
+      </c>
+      <c r="F1">
+        <v>-1062.05</v>
+      </c>
+      <c r="G1">
+        <v>-1216.8499999999999</v>
+      </c>
+      <c r="H1">
+        <v>-1256.18</v>
+      </c>
+      <c r="I1">
+        <v>-1231.95</v>
+      </c>
+      <c r="J1">
+        <v>-1018.87</v>
+      </c>
+      <c r="K1">
+        <v>-915.99</v>
+      </c>
+      <c r="L1">
+        <v>-591.91999999999996</v>
+      </c>
+      <c r="M1">
+        <v>-176.62</v>
+      </c>
+      <c r="N1">
+        <v>-181.3</v>
+      </c>
+      <c r="O1">
+        <v>-209.11</v>
+      </c>
+      <c r="P1">
+        <v>-1103.3900000000001</v>
+      </c>
+      <c r="Q1">
+        <v>-1520.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>-1838.42</v>
+      </c>
+      <c r="C2">
+        <v>-1231.24</v>
+      </c>
+      <c r="D2">
+        <v>-1135.3900000000001</v>
+      </c>
+      <c r="E2">
+        <v>-1341.34</v>
+      </c>
+      <c r="F2">
+        <v>-1237.68</v>
+      </c>
+      <c r="G2">
+        <v>-1236.68</v>
+      </c>
+      <c r="H2">
+        <v>-1452.34</v>
+      </c>
+      <c r="I2">
+        <v>-1527.54</v>
+      </c>
+      <c r="J2">
+        <v>-1481.03</v>
+      </c>
+      <c r="K2">
+        <v>-1397.79</v>
+      </c>
+      <c r="L2">
+        <v>-1275.71</v>
+      </c>
+      <c r="M2">
+        <v>-1418.78</v>
+      </c>
+      <c r="N2">
+        <v>-285.89</v>
+      </c>
+      <c r="O2">
+        <v>-1476.99</v>
+      </c>
+      <c r="P2">
+        <v>-1608.45</v>
+      </c>
+      <c r="Q2">
+        <v>-1767.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>-1231.49</v>
+      </c>
+      <c r="C3">
+        <v>-1121.5899999999999</v>
+      </c>
+      <c r="D3">
+        <v>-1141.8900000000001</v>
+      </c>
+      <c r="E3">
+        <v>-1029.6199999999999</v>
+      </c>
+      <c r="F3">
+        <v>-1261.54</v>
+      </c>
+      <c r="G3">
+        <v>-1333.96</v>
+      </c>
+      <c r="H3">
+        <v>-1365.27</v>
+      </c>
+      <c r="I3">
+        <v>-1297.1500000000001</v>
+      </c>
+      <c r="J3">
+        <v>-1294.57</v>
+      </c>
+      <c r="K3">
+        <v>-1250.51</v>
+      </c>
+      <c r="L3">
+        <v>-1248.3900000000001</v>
+      </c>
+      <c r="M3">
+        <v>-991.16</v>
+      </c>
+      <c r="N3">
+        <v>-211.23</v>
+      </c>
+      <c r="O3">
+        <v>-350.53</v>
+      </c>
+      <c r="P3">
+        <v>-1456.19</v>
+      </c>
+      <c r="Q3">
+        <v>-1592.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>-1052.1300000000001</v>
+      </c>
+      <c r="C4">
+        <v>-992.58</v>
+      </c>
+      <c r="D4">
+        <v>-1078.8699999999999</v>
+      </c>
+      <c r="E4">
+        <v>-1288.23</v>
+      </c>
+      <c r="F4">
+        <v>-1348.73</v>
+      </c>
+      <c r="G4">
+        <v>-1363.57</v>
+      </c>
+      <c r="H4">
+        <v>-1322.1</v>
+      </c>
+      <c r="I4">
+        <v>-1326.26</v>
+      </c>
+      <c r="J4">
+        <v>-1259.4000000000001</v>
+      </c>
+      <c r="K4">
+        <v>-1127.49</v>
+      </c>
+      <c r="L4">
+        <v>-1179.53</v>
+      </c>
+      <c r="M4">
+        <v>-818.61</v>
+      </c>
+      <c r="N4">
+        <v>-193.14</v>
+      </c>
+      <c r="O4">
+        <v>-189.24</v>
+      </c>
+      <c r="P4">
+        <v>-428.13</v>
+      </c>
+      <c r="Q4">
+        <v>-1473.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>-1449.99</v>
+      </c>
+      <c r="C5">
+        <v>-1419.51</v>
+      </c>
+      <c r="D5">
+        <v>-1605.64</v>
+      </c>
+      <c r="E5">
+        <v>-1396.1</v>
+      </c>
+      <c r="F5">
+        <v>-1430.77</v>
+      </c>
+      <c r="G5">
+        <v>-1254.67</v>
+      </c>
+      <c r="H5">
+        <v>-1465.65</v>
+      </c>
+      <c r="I5">
+        <v>-1405.3</v>
+      </c>
+      <c r="J5">
+        <v>-1446.94</v>
+      </c>
+      <c r="K5">
+        <v>-1416.77</v>
+      </c>
+      <c r="L5">
+        <v>-1229.58</v>
+      </c>
+      <c r="M5">
+        <v>-396.04</v>
+      </c>
+      <c r="N5">
+        <v>-186.71</v>
+      </c>
+      <c r="O5">
+        <v>-259.73</v>
+      </c>
+      <c r="P5">
+        <v>-1241.95</v>
+      </c>
+      <c r="Q5">
+        <v>-1505.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>-873.64</v>
+      </c>
+      <c r="C6">
+        <v>-905.01</v>
+      </c>
+      <c r="D6">
+        <v>-1031.1300000000001</v>
+      </c>
+      <c r="E6">
+        <v>-1137.79</v>
+      </c>
+      <c r="F6">
+        <v>-1261.75</v>
+      </c>
+      <c r="G6">
+        <v>-1431.75</v>
+      </c>
+      <c r="H6">
+        <v>-1354.45</v>
+      </c>
+      <c r="I6">
+        <v>-1402.22</v>
+      </c>
+      <c r="J6">
+        <v>-1217.82</v>
+      </c>
+      <c r="K6">
+        <v>-1299.3599999999999</v>
+      </c>
+      <c r="L6">
+        <v>-1204.6500000000001</v>
+      </c>
+      <c r="M6">
+        <v>-562.30999999999995</v>
+      </c>
+      <c r="N6">
+        <v>-313.08</v>
+      </c>
+      <c r="O6">
+        <v>-1451.18</v>
+      </c>
+      <c r="P6">
+        <v>-1662.13</v>
+      </c>
+      <c r="Q6">
+        <v>-1786.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>-1295.74</v>
+      </c>
+      <c r="C7">
+        <v>-1308.33</v>
+      </c>
+      <c r="D7">
+        <v>-1566.63</v>
+      </c>
+      <c r="E7">
+        <v>-1827.75</v>
+      </c>
+      <c r="F7">
+        <v>-1927.27</v>
+      </c>
+      <c r="G7">
+        <v>-1736.43</v>
+      </c>
+      <c r="H7">
+        <v>-1696.26</v>
+      </c>
+      <c r="I7">
+        <v>-1844.49</v>
+      </c>
+      <c r="J7">
+        <v>-1717.19</v>
+      </c>
+      <c r="K7">
+        <v>-1639.01</v>
+      </c>
+      <c r="L7">
+        <v>-1455.7</v>
+      </c>
+      <c r="M7">
+        <v>-850.39</v>
+      </c>
+      <c r="N7">
+        <v>-247.33</v>
+      </c>
+      <c r="O7">
+        <v>-1323.59</v>
+      </c>
+      <c r="P7">
+        <v>-1530.79</v>
+      </c>
+      <c r="Q7">
+        <v>-1643.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>-1024.49</v>
+      </c>
+      <c r="C8">
+        <v>-1025.42</v>
+      </c>
+      <c r="D8">
+        <v>-781.09</v>
+      </c>
+      <c r="E8">
+        <v>-921.67</v>
+      </c>
+      <c r="F8">
+        <v>-986.39</v>
+      </c>
+      <c r="G8">
+        <v>-985.37</v>
+      </c>
+      <c r="H8">
+        <v>-910.61</v>
+      </c>
+      <c r="I8">
+        <v>-866.14</v>
+      </c>
+      <c r="J8">
+        <v>-545.34</v>
+      </c>
+      <c r="K8">
+        <v>-561.38</v>
+      </c>
+      <c r="L8">
+        <v>-557.59</v>
+      </c>
+      <c r="M8">
+        <v>-322.23</v>
+      </c>
+      <c r="N8">
+        <v>-216.27</v>
+      </c>
+      <c r="O8">
+        <v>-373.02</v>
+      </c>
+      <c r="P8">
+        <v>-1475.37</v>
+      </c>
+      <c r="Q8">
+        <v>-1730.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>-1320.1</v>
+      </c>
+      <c r="C9">
+        <v>-1501.74</v>
+      </c>
+      <c r="D9">
+        <v>-2373.38</v>
+      </c>
+      <c r="E9">
+        <v>-2465.88</v>
+      </c>
+      <c r="F9">
+        <v>-2450.33</v>
+      </c>
+      <c r="G9">
+        <v>-2403.3000000000002</v>
+      </c>
+      <c r="H9">
+        <v>-2350.88</v>
+      </c>
+      <c r="I9">
+        <v>-2254.54</v>
+      </c>
+      <c r="J9">
+        <v>-2031.13</v>
+      </c>
+      <c r="K9">
+        <v>-1870.32</v>
+      </c>
+      <c r="L9">
+        <v>-1656.03</v>
+      </c>
+      <c r="M9">
+        <v>-1341.43</v>
+      </c>
+      <c r="N9">
+        <v>-898.9</v>
+      </c>
+      <c r="O9">
+        <v>-1413.8</v>
+      </c>
+      <c r="P9">
+        <v>-1607.44</v>
+      </c>
+      <c r="Q9">
+        <v>-1744.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>-1042.4100000000001</v>
+      </c>
+      <c r="C10">
+        <v>-1231.93</v>
+      </c>
+      <c r="D10">
+        <v>-1122.06</v>
+      </c>
+      <c r="E10">
+        <v>-1135.01</v>
+      </c>
+      <c r="F10">
+        <v>-1238.29</v>
+      </c>
+      <c r="G10">
+        <v>-1259.6199999999999</v>
+      </c>
+      <c r="H10">
+        <v>-1116.93</v>
+      </c>
+      <c r="I10">
+        <v>-1295.93</v>
+      </c>
+      <c r="J10">
+        <v>-1169.3399999999999</v>
+      </c>
+      <c r="K10">
+        <v>-1053.8699999999999</v>
+      </c>
+      <c r="L10">
+        <v>-853.21</v>
+      </c>
+      <c r="M10">
+        <v>-199.89</v>
+      </c>
+      <c r="N10">
+        <v>-212.51</v>
+      </c>
+      <c r="O10">
+        <v>-212.43</v>
+      </c>
+      <c r="P10">
+        <v>-284.86</v>
+      </c>
+      <c r="Q10">
+        <v>-1419.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14">
+        <v>6</v>
+      </c>
+      <c r="H12" s="14">
+        <v>7</v>
+      </c>
+      <c r="I12" s="14">
+        <v>8</v>
+      </c>
+      <c r="J12" s="14">
+        <v>9.81</v>
+      </c>
+      <c r="K12" s="14">
+        <v>11</v>
+      </c>
+      <c r="L12" s="14">
+        <v>12</v>
+      </c>
+      <c r="M12" s="14">
+        <v>13</v>
+      </c>
+      <c r="N12" s="14">
+        <v>14</v>
+      </c>
+      <c r="O12" s="14">
+        <v>15</v>
+      </c>
+      <c r="P12" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="14">
+        <f>AVERAGE(B1:B10)</f>
+        <v>-1199.8720000000001</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" ref="C13:Q13" si="0">AVERAGE(C1:C10)</f>
+        <v>-1153.1640000000002</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1281.2070000000001</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1356.0769999999998</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1420.48</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1422.22</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1429.0670000000002</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1445.152</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1318.163</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1253.2489999999998</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1125.2310000000002</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="0"/>
+        <v>-707.74600000000021</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="0"/>
+        <v>-294.63599999999997</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="0"/>
+        <v>-725.96199999999999</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1239.8700000000003</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" si="0"/>
+        <v>-1618.357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="13" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="14" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="16" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -8491,4 +8492,573 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>add(conditional(y, conditional(add(add(add(y, x), add(x, x)), add(vel, x)), conditional(y, add(add(add(y, x), add(x, x)), add(vel, x))))), conditional(vel, vel))</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>-2604.77</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-2573.01</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-2627.92</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-2612.05</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-2610.53</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-2546.18</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-2535.29</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-2387.86</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-2275.73</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-2156.67</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-2034.71</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-1957.58</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-1850.75</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-1664.06</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-217.47</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-1610.9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>add(vel, conditional(y, add(add(add(add(x, vel), conditional(add(add(x, x), conditional(y, y)), x)), conditional(vel, add(x, conditional(add(add(x, add(add(y, add(vel, vel)), add(add(add(conditional(conditional(y, x), conditional(vel, x)), vel), conditional(y, x)), vel))), add(x, y)), conditional(add(x, x), conditional(vel, x)))))), add(x, vel))))</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2461.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2561.91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2627.14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2606.18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2632.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2491.94</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2438.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2441.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2264.64</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2198.42</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2050.32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1907.59</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1854.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1676.81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-202.43</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1584.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>add(conditional(add(y, conditional(y, x)), add(vel, add(conditional(add(add(add(y, x), x), add(y, x)), x), x))), add(vel, conditional(conditional(conditional(x, add(add(y, x), add(y, y))), conditional(y, add(vel, vel))), conditional(y, vel))))</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-2223.77</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2193.46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2189.05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2079.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2048.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2103.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1934.63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2140.48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1926.93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1973.49</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1956.83</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1778.83</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1693.35</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1513.41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-197.96</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1473.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>add(vel, conditional(y, add(add(x, add(add(x, vel), add(vel, add(conditional(y, x), x)))), add(x, add(add(x, x), conditional(x, conditional(add(conditional(conditional(conditional(x, add(add(vel, conditional(y, conditional(add(x, add(y, x)), conditional(x, x)))), add(add(y, vel), x))), conditional(x, y)), conditional(add(conditional(x, vel), add(conditional(x, vel), conditional(vel, conditional(add(conditional(x, vel), add(x, x)), add(vel, y))))), add(y, add(add(vel, vel), add(vel, vel))))), add(x, conditional(add(x, vel), conditional(add(vel, x), y)))), y)))))))</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2527.94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2582.89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2541.38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2522.65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2598.63</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2503.09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2494.64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2376.05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2199.14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2240.64</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2115.12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1992</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1863.02</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1695.79</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-208.36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1587.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>add(conditional(y, add(add(add(x, conditional(x, x)), x), add(y, conditional(vel, vel)))), add(vel, conditional(x, conditional(add(add(add(vel, y), add(x, x)), add(conditional(add(y, conditional(x, conditional(y, x))), vel), x)), add(conditional(add(vel, y), add(vel, x)), conditional(add(vel, x), x))))))</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2546.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2322.81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2435.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2308.27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2306.82</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2297.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2337.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2299.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2213.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2096.84</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2060.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1937.89</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1819.56</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1687.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-207.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1553.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>add(add(conditional(y, add(conditional(conditional(add(y, x), conditional(x, add(conditional(x, x), add(y, y)))), x), add(add(x, x), add(x, vel)))), conditional(y, add(vel, add(y, x)))), add(conditional(y, add(y, conditional(x, x))), vel))</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2263.56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2175.13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2097.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2101.82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1864.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2072.58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2078.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2091.57</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2086.45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1951.47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1936.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1864.38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1705.89</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1566.92</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-200.71</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1450.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>add(conditional(y, add(add(add(add(x, x), conditional(conditional(conditional(add(x, y), y), y), conditional(x, x))), x), vel)), add(add(vel, add(conditional(x, conditional(vel, add(add(add(conditional(conditional(vel, x), conditional(x, vel)), add(conditional(x, conditional(add(vel, x), add(add(conditional(conditional(vel, x), y), add(y, y)), vel))), x)), add(y, x)), add(y, y)))), conditional(x, x))), conditional(x, vel)))</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2630.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2654.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2621.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2534.61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2354.65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2483.87</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2447.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2396.37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2282.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2157.58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2097.19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1965.88</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1868.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1630.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-214.03</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1619.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>add(add(conditional(x, y), add(conditional(x, y), vel)), conditional(add(y, y), add(conditional(add(vel, add(x, y)), conditional(conditional(add(conditional(conditional(y, y), conditional(y, vel)), x), add(add(x, add(vel, vel)), conditional(x, y))), add(y, y))), add(y, x))))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2050.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2019.03</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1793.78</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1533.65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1925.82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1920.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1964.86</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2049.87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2004.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1946.53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1956.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1882.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1723.51</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1509.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-215.51</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1471.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>add(add(conditional(y, add(vel, y)), add(vel, vel)), conditional(add(y, conditional(conditional(y, y), conditional(conditional(x, y), conditional(vel, y)))), add(vel, conditional(add(add(add(y, x), add(conditional(conditional(x, vel), add(add(vel, add(conditional(x, vel), add(vel, add(conditional(x, add(add(conditional(x, vel), add(vel, x)), add(vel, vel))), y)))), add(x, y))), add(x, x))), add(y, x)), conditional(y, conditional(conditional(vel, vel), conditional(x, y)))))))</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2401.53</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2299.32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2354.86</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2207.68</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2332.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2324.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2312.09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2197.65</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2199.44</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2129.87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2079.27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1914.57</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1763.87</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1588.74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-207.46</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1524.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>add(conditional(y, add(x, add(add(x, y), vel))), add(conditional(conditional(y, conditional(y, add(conditional(y, conditional(conditional(y, conditional(y, add(conditional(add(add(x, x), add(x, vel)), conditional(vel, vel)), add(add(conditional(y, x), x), add(x, y))))), add(vel, add(x, add(conditional(conditional(conditional(y, y), conditional(y, x)), add(vel, add(add(y, add(x, y)), x))), add(conditional(y, add(y, x)), vel)))))), conditional(y, conditional(y, add(conditional(conditional(x, add(x, add(add(x, y), conditional(conditional(y, x), conditional(vel, x))))), conditional(vel, y)), add(add(y, y), vel))))))), add(vel, add(add(y, conditional(x, x)), add(x, vel)))), add(conditional(y, add(y, x)), vel)))</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1886.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1751.04</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1824.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1796.43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1920.59</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1959.66</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-2176.36</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2076.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2123.42</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2040.19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1941.21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1881.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1790.04</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1530.85</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-202.19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1479.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pendulum/full_obs_pendulum/full_obs_grav.xlsx
+++ b/pendulum/full_obs_pendulum/full_obs_grav.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="22600" windowHeight="12120" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="14" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="15" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="17" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -9061,4 +9062,518 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>add(conditional(conditional(y, vel), add(add(conditional(x, x), add(vel, conditional(conditional(x, x), conditional(x, y)))), add(y, x))), add(add(conditional(conditional(y, conditional(conditional(y, vel), add(add(conditional(x, x), add(vel, conditional(conditional(x, x), conditional(x, y)))), y))), add(x, y)), vel), conditional(add(x, add(add(x, add(vel, conditional(x, x))), x)), add(add(x, add(add(x, vel), x)), add(y, x)))))</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>-1691.72</v>
+      </c>
+      <c r="C1" t="n">
+        <v>-1702.26</v>
+      </c>
+      <c r="D1" t="n">
+        <v>-1791.65</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-1983.89</v>
+      </c>
+      <c r="F1" t="n">
+        <v>-2126.88</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-2093.93</v>
+      </c>
+      <c r="H1" t="n">
+        <v>-2178.08</v>
+      </c>
+      <c r="I1" t="n">
+        <v>-1899.84</v>
+      </c>
+      <c r="J1" t="n">
+        <v>-1911.91</v>
+      </c>
+      <c r="K1" t="n">
+        <v>-1835.84</v>
+      </c>
+      <c r="L1" t="n">
+        <v>-1795.85</v>
+      </c>
+      <c r="M1" t="n">
+        <v>-1674.32</v>
+      </c>
+      <c r="N1" t="n">
+        <v>-1554.87</v>
+      </c>
+      <c r="O1" t="n">
+        <v>-1356.14</v>
+      </c>
+      <c r="P1" t="n">
+        <v>-703.8</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>-1386.66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>add(add(vel, conditional(y, add(add(vel, x), add(x, y)))), add(conditional(add(x, x), add(y, conditional(add(vel, add(x, conditional(y, x))), conditional(y, add(vel, y))))), conditional(add(x, x), add(y, y))))</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2314.09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2411.08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2241.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2185.61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2173.35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2209.95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-2073.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2128.17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2151.68</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2150.76</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1930.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1952.86</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1825.77</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1666.09</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1257.61</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1467.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>add(conditional(x, conditional(add(add(vel, vel), add(vel, x)), y)), add(add(add(add(conditional(x, add(y, y)), conditional(y, add(add(x, add(add(vel, vel), conditional(y, vel))), add(vel, y)))), add(add(add(conditional(x, add(x, y)), conditional(y, add(add(add(add(vel, vel), conditional(x, vel)), vel), add(vel, y)))), conditional(y, add(x, y))), conditional(y, x))), conditional(y, add(x, y))), vel))</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-2117.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2127.88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2096.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2030.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2243.82</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2257.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2142.58</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2289.41</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2080.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2054.63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-2037.63</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1891.68</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1691.33</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1536.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1050.85</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1387.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>add(add(conditional(x, y), vel), conditional(add(y, y), add(x, add(conditional(conditional(add(y, vel), conditional(conditional(add(add(x, x), add(y, y)), y), add(add(x, add(conditional(vel, conditional(conditional(y, x), add(vel, x))), vel)), x))), add(vel, conditional(vel, y))), add(y, x)))))</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2249.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2144.32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2238.58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2255.89</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2200.19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2077.89</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2108.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2208.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2156.41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2001.19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1989.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1899.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1746.54</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1638.85</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-918.85</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1483.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>add(conditional(conditional(conditional(conditional(y, add(conditional(conditional(x, x), add(x, vel)), add(vel, y))), add(x, conditional(conditional(x, x), add(x, vel)))), vel), add(add(x, vel), y)), add(add(conditional(conditional(conditional(y, add(x, x)), conditional(conditional(vel, y), add(vel, vel))), add(y, x)), vel), conditional(x, y)))</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2355.33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2307.73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2315.17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2354.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2312.18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2121.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2274.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2283.08</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2178.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2052.41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2017.72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1913.55</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1809.96</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1608.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-834.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1532.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>add(add(add(conditional(conditional(y, vel), add(y, x)), conditional(y, add(conditional(y, vel), add(add(conditional(vel, vel), x), x)))), conditional(x, y)), add(add(conditional(add(x, vel), add(add(conditional(y, y), add(y, vel)), vel)), vel), conditional(x, add(x, add(conditional(x, x), add(y, vel))))))</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-2312.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2155.83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2189.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2209.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2102.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2051.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2162.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1997.92</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2055.97</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1922.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1861.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1837.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1677.86</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1545.88</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-651.13</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1410.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>add(add(conditional(y, add(x, add(conditional(conditional(y, add(vel, conditional(conditional(y, conditional(add(vel, conditional(conditional(y, conditional(y, x)), add(x, y))), add(conditional(y, y), x))), conditional(add(conditional(y, x), conditional(x, y)), conditional(y, y))))), conditional(y, vel)), vel))), conditional(x, y)), add(vel, conditional(conditional(y, conditional(y, add(add(conditional(vel, add(y, x)), add(y, add(conditional(x, y), add(conditional(y, conditional(add(add(conditional(x, y), conditional(x, vel)), conditional(conditional(y, x), add(x, y))), add(conditional(add(y, vel), y), add(conditional(y, y), x)))), y)))), vel))), add(x, y))))</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-2570.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2641.29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2535.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2502.56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2266.27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2196.69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2245.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2231.08</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2211.57</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-2112.86</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1965.64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1968.42</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1825.56</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1681.88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1314.57</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-1488.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>add(conditional(add(x, add(y, add(vel, x))), add(add(add(add(add(add(add(add(y, y), x), conditional(add(x, vel), add(y, vel))), add(conditional(vel, y), add(add(vel, vel), conditional(y, y)))), y), add(add(add(add(y, y), y), add(y, y)), conditional(x, y))), y), add(add(x, add(x, vel)), add(add(add(y, vel), vel), conditional(y, y))))), add(add(vel, y), add(add(conditional(y, add(add(y, vel), conditional(x, x))), add(conditional(conditional(y, x), add(y, x)), vel)), conditional(x, y))))</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2577.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2525.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2456</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2443.84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2499.77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2369.31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2262.47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2293.98</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2224.53</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2022.14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2031.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1884.64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1832.22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1627.71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1268.41</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1413.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>add(add(add(conditional(x, add(y, y)), conditional(y, add(add(x, add(x, add(x, vel))), y))), add(add(vel, add(conditional(x, add(y, y)), conditional(y, add(add(x, add(x, add(x, vel))), y)))), conditional(x, add(conditional(add(conditional(x, y), conditional(y, x)), y), conditional(conditional(add(y, x), add(y, vel)), y))))), conditional(add(x, x), add(y, add(conditional(vel, x), add(add(vel, x), add(add(y, conditional(add(y, y), add(y, y))), add(y, y)))))))</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2216.47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2147.97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2001.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1938.51</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1859.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1944.39</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2128</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2060.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2080.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-2009.29</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1848.26</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1868.88</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1673.42</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1484.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-228.83</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1394.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>